--- a/CH-157 Table Transformation.xlsx
+++ b/CH-157 Table Transformation.xlsx
@@ -8,15 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F6E46C1-A15F-434F-901F-985838A9B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B0144-2114-4602-8EBB-30FCBAF2D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_fBCAST">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
+    <definedName name="_fCharCount">_xlfn.LAMBDA(_xlpm.s,_xlpm.c, _xlfn.LET(_xlpm.z, SUBSTITUTE(_xlpm.s, _xlpm.c, ""), LEN(_xlpm.s) - LEN(_xlpm.z)))</definedName>
+    <definedName name="_fDN">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlfn.SCAN(_xlpm._ini, _xlpm.arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v)))))</definedName>
+    <definedName name="_fIndex">_xlfn.LAMBDA(_xlpm.d,_xlpm.r, INDEX(_xlpm.d, _xlpm.r, _xlfn.SEQUENCE(1, COLUMNS(_xlpm.d))))</definedName>
+    <definedName name="_fInterp">_xlfn.LAMBDA(_xlpm.x,_xlpm.xdat,_xlpm.ydat, _xlfn.LET(_xlpm.xmin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , -1), _xlpm.xmax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.xdat, , 1), _xlpm.ymin, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , -1), _xlpm.ymax, _xlfn.XLOOKUP(_xlpm.x, _xlpm.xdat, _xlpm.ydat, , 1), IF(_xlpm.xmin = _xlpm.xmax, _xlpm.ymin, (_xlpm.ymin * (_xlpm.xmax - _xlpm.x) + _xlpm.ymax * (_xlpm.x - _xlpm.xmin)) / (_xlpm.xmax - _xlpm.xmin))))</definedName>
+    <definedName name="_fSUPERXLOOKUP">_xlfn.LAMBDA(_xlpm.lookup_value,_xlpm.lookup_array,_xlpm.return_array,_xlop.if_not_found,_xlop.match_mode,_xlop.search_mode, IF(COLUMNS(_xlpm.lookup_value) = 1, IFERROR(INDEX(_xlpm.return_array, _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode), _xlfn.SEQUENCE(1, COLUMNS(_xlpm.return_array))), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found)), IFERROR(INDEX(_xlpm.return_array, _xlfn.SEQUENCE(ROWS(_xlpm.return_array)), _xlfn.XMATCH(_xlpm.lookup_value, _xlpm.lookup_array, _xlpm.match_mode, _xlpm.search_mode)), IF(_xlfn.ISOMITTED(_xlpm.if_not_found), NA(), _xlpm.if_not_found))))</definedName>
+    <definedName name="_fUP">_xlfn.LAMBDA(_xlpm.arr,_xlop.ini, _xlfn.LET(_xlpm._f, _xlfn.LAMBDA(_xlpm.z, INDEX(_xlpm.z, _xlfn.SEQUENCE(ROWS(_xlpm.z), 1, ROWS(_xlpm.z), -1))), _xlpm._arr, _xlpm._f(_xlpm.arr), _xlpm._ini, IF(_xlfn.ISOMITTED(_xlpm.ini), "", _xlpm.ini), _xlpm._f(_xlfn.SCAN(_xlpm._ini, _xlpm._arr, _xlfn.LAMBDA(_xlpm.a,_xlpm.v, IF(LEN(_xlpm.v) = 0, _xlpm.a, _xlpm.v))))))</definedName>
+    <definedName name="DDL">_xlfn.LAMBDA(_xlpm.range,_xlop.lookup1,_xlop.lookup2,_xlop.lookup3,_xlop.lookup4,_xlop.lookup5,_xlop.lookup6,_xlop.lookup7,_xlop.lookup8,_xlop.lookup9,_xlop.lookup10, _xlfn.LET(_xlpm._s, "%^&amp;&amp;@", _xlpm.lookupValue, _xlpm.lookup1 &amp; _xlpm._s &amp; _xlpm.lookup2 &amp; _xlpm._s &amp; _xlpm.lookup3 &amp; _xlpm._s &amp; _xlpm.lookup4 &amp; _xlpm._s &amp; _xlpm.lookup5 &amp; _xlpm._s &amp; _xlpm.lookup6 &amp; _xlpm._s &amp; _xlpm.lookup7 &amp; _xlpm._s &amp; _xlpm.lookup8 &amp; _xlpm._s &amp; _xlpm.lookup9 &amp; _xlpm._s &amp; _xlpm.lookup10, _xlpm.levelIndex, IFERROR(ROWS(_xlfn.TEXTSPLIT(_xlpm.lookupValue, , _xlpm._s, TRUE())), 0) + 1, _xlpm.lookupArray, _xlfn.BYROW(_xlfn.EXPAND(_xlfn.CHOOSECOLS(_xlpm.range, _xlfn.SEQUENCE(1, _xlpm.levelIndex - 1)), , 10, ""), _xlfn.LAMBDA(_xlpm.row, _xlfn.TEXTJOIN(_xlpm._s, FALSE, _xlpm.row))), _xlpm.returnRange, INDEX(_xlpm.range, 0, _xlpm.levelIndex), _xlpm.result, IF(_xlfn.ISOMITTED(_xlpm.lookup1) * _xlpm.levelIndex = 1, _xlpm.returnRange, _xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange):_xlfn.XLOOKUP(_xlpm.lookupValue, _xlpm.lookupArray, _xlpm.returnRange, , , -1)), _xlpm.result))</definedName>
+    <definedName name="DDLSorter">_xlfn.LAMBDA(_xlpm.Range,_xlop.SortOrder, _xlfn._xlws.SORT(_xlpm.Range, _xlfn.SEQUENCE(, COLUMNS(_xlpm.Range)), _xlpm.SortOrder))</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="nHrrJIE9IWLaD5Vuh9tLH5P0eGPi7lAQtWW1z1b/bUM="/>
     </ext>
@@ -24,8 +47,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Question</t>
   </si>
@@ -388,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -480,6 +525,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,12 +881,41 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="9">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{800700D1-E88E-4184-BCBE-F6D762CC513C}">
+  <we:reference id="wa200003696" version="1.3.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200003696" version="1.3.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="projectV0_1-56c6e055-265e-4713-816e-a646dbb708de" value="{&quot;kind&quot;:&quot;AFEJSONBlobNode&quot;,&quot;id&quot;:&quot;{79151BA2-39AF-4886-BBB6-1D21701F737E}&quot;}"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_LABS_GENERATIVEAI</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -8123,4 +8200,7719 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB0E4D0-67D3-44D8-A2F2-18190B6E9E26}">
+  <dimension ref="A1:Z990"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="26" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>45493</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="13.8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="18">
+        <v>45509</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="18">
+        <v>45517</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15">
+        <v>45566</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.8">
+      <c r="C12" s="23">
+        <v>45553</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <v>45566</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8">
+      <c r="C13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.8">
+      <c r="C14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.8">
+      <c r="C15" s="18">
+        <v>45566</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.8">
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:18" ht="13.8">
+      <c r="C17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C18" s="10"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C19" s="10"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C20" s="10" cm="1">
+        <f t="array" ref="C20:E24">_xlfn.WRAPROWS(C3:C17,3)</f>
+        <v>45493</v>
+      </c>
+      <c r="D20" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="33" cm="1">
+        <f t="array" aca="1" ref="G20:H29" ca="1">_xlfn.DROP(_xlfn.REDUCE("",D20:D24,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(OFFSET(_xlpm.v,0,-1),_xlfn.TEXTSPLIT(_xlpm.v,,","))))),1)</f>
+        <v>45493</v>
+      </c>
+      <c r="H20" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20:I29">_xlfn.DROP(_xlfn.REDUCE("",E20:E24,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,,",")))),1)</f>
+        <v>10</v>
+      </c>
+      <c r="J20" cm="1">
+        <f t="array" aca="1" ref="J20:J29" ca="1">_fDN(_xlfn.IFNA(_xlfn.TAKE(_xlfn.ANCHORARRAY(G20),,1),""))</f>
+        <v>45493</v>
+      </c>
+      <c r="L20" cm="1">
+        <f t="array" aca="1" ref="L20:N29" ca="1">_xlfn.HSTACK(_xlfn.ANCHORARRAY(J20),_xlfn.TAKE(_xlfn.ANCHORARRAY(G20),,-1),_xlfn.ANCHORARRAY(I20)+0)</f>
+        <v>45493</v>
+      </c>
+      <c r="M20" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="N20">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P20" t="b" cm="1">
+        <f t="array" aca="1" ref="P20:R29" ca="1">_xlfn.ANCHORARRAY(L20)=E3:G12</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R20" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C21" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D21" s="24" t="str">
+        <v>C,B,A</v>
+      </c>
+      <c r="E21" s="10" t="str">
+        <v>8,2,2</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="H21" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="I21" t="str">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="L21">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="N21">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="P21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R21" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C22" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D22" s="24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="L22">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="N22">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="P22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R22" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C23" s="10">
+        <v>45553</v>
+      </c>
+      <c r="D23" s="24" t="str">
+        <v>A,B,C</v>
+      </c>
+      <c r="E23" s="10" t="str">
+        <v>5,4,3</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="L23">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="M23" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="N23">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="P23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R23" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C24" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D24" s="24" t="str">
+        <v>A,B</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <v>1,2</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10">
+        <f ca="1"/>
+        <v>45517</v>
+      </c>
+      <c r="H24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="I24" t="str">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f ca="1"/>
+        <v>45517</v>
+      </c>
+      <c r="L24">
+        <f ca="1"/>
+        <v>45517</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="N24">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C25" s="10"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="H25" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="I25" t="str">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="L25">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="M25" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="N25">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="P25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C26" s="10"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="I26" t="str">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="L26">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="M26" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="N26">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="P26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C27" s="10"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H27" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="I27" t="str">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="L27">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="M27" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="N27">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="P27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C28" s="10"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="H28" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="I28" t="str">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="L28">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="M28" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="N28">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C29" s="10"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="I29" t="str">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="L29">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="M29" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="N29">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="P29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C30" s="10"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C31" s="10"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="3:18" ht="15.75" customHeight="1">
+      <c r="C32" s="10"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C33" s="10"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C34" s="10"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C35" s="10"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C36" s="10"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C37" s="10"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C38" s="10"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C39" s="10"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C40" s="10"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C41" s="10"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C42" s="10"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C43" s="10"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C44" s="10"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C45" s="10"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C46" s="10"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C47" s="10"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C48" s="10"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C49" s="10"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C50" s="10"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C51" s="10"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C52" s="10"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C53" s="10"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C54" s="10"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C55" s="10"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C56" s="10"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C57" s="10"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C58" s="10"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C59" s="10"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C60" s="10"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C61" s="10"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C62" s="10"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C63" s="10"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C64" s="10"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C65" s="10"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C66" s="10"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C67" s="10"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C68" s="10"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C69" s="10"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C70" s="10"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C71" s="10"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C72" s="10"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C73" s="10"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C74" s="10"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C75" s="10"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C76" s="10"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C77" s="10"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C78" s="10"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C79" s="10"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C80" s="10"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C81" s="10"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C82" s="10"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C83" s="10"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C84" s="10"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C85" s="10"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C86" s="10"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C87" s="10"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C88" s="10"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C89" s="10"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C90" s="10"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C91" s="10"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C92" s="10"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C93" s="10"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C94" s="10"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C95" s="10"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C96" s="10"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C97" s="10"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C98" s="10"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C99" s="10"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C100" s="10"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C101" s="10"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C102" s="10"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C103" s="10"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C104" s="10"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C105" s="10"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C106" s="10"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C107" s="10"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C108" s="10"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C109" s="10"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C110" s="10"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C111" s="10"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C112" s="10"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C113" s="10"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C114" s="10"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C115" s="10"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C116" s="10"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C117" s="10"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C118" s="10"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C119" s="10"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C120" s="10"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C121" s="10"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C122" s="10"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C123" s="10"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C124" s="10"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C125" s="10"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C126" s="10"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C127" s="10"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C128" s="10"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C129" s="10"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C130" s="10"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C131" s="10"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C132" s="10"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C133" s="10"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C134" s="10"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C135" s="10"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C136" s="10"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C137" s="10"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C138" s="10"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C139" s="10"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C140" s="10"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C141" s="10"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C142" s="10"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C143" s="10"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C144" s="10"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C145" s="10"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C146" s="10"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C147" s="10"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C148" s="10"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C149" s="10"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C150" s="10"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C151" s="10"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C152" s="10"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C153" s="10"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C154" s="10"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C155" s="10"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C156" s="10"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C157" s="10"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C158" s="10"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C159" s="10"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C160" s="10"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C161" s="10"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C162" s="10"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C163" s="10"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C164" s="10"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C165" s="10"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C166" s="10"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C167" s="10"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C168" s="10"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C169" s="10"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C170" s="10"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C171" s="10"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C172" s="10"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C173" s="10"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C174" s="10"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C175" s="10"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C176" s="10"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C177" s="10"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C178" s="10"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C179" s="10"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C180" s="10"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C181" s="10"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C182" s="10"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C183" s="10"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C184" s="10"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C185" s="10"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C186" s="10"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C187" s="10"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C188" s="10"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C189" s="10"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C190" s="10"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C191" s="10"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C192" s="10"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C193" s="10"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C194" s="10"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C195" s="10"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C196" s="10"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C197" s="10"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C198" s="10"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C199" s="10"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C200" s="10"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C201" s="10"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C202" s="10"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C203" s="10"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C204" s="10"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C205" s="10"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C206" s="10"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C207" s="10"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C208" s="10"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C209" s="10"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C210" s="10"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C211" s="10"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C212" s="10"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C213" s="10"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C214" s="10"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C215" s="10"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C216" s="10"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C217" s="10"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C218" s="10"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C219" s="10"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C220" s="10"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C221" s="10"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C222" s="10"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C223" s="10"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C224" s="10"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+    </row>
+    <row r="225" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C225" s="10"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C226" s="10"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C227" s="10"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C228" s="10"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C229" s="10"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C230" s="10"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C231" s="10"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C232" s="10"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C233" s="10"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+    </row>
+    <row r="234" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C234" s="10"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+    </row>
+    <row r="235" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C235" s="10"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C236" s="10"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C237" s="10"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C238" s="10"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C239" s="10"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C240" s="10"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+    </row>
+    <row r="241" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C241" s="10"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C242" s="10"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="243" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C243" s="10"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+    </row>
+    <row r="244" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C244" s="10"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C245" s="10"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C246" s="10"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C247" s="10"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C248" s="10"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C249" s="10"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+    </row>
+    <row r="250" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C250" s="10"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+    </row>
+    <row r="251" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C251" s="10"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C252" s="10"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+    </row>
+    <row r="253" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C253" s="10"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+    </row>
+    <row r="254" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C254" s="10"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+    </row>
+    <row r="255" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C255" s="10"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C256" s="10"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+    </row>
+    <row r="257" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C257" s="10"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C258" s="10"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+    </row>
+    <row r="259" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C259" s="10"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+    </row>
+    <row r="260" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C260" s="10"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C261" s="10"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C262" s="10"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10"/>
+    </row>
+    <row r="263" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C263" s="10"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+    </row>
+    <row r="264" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C264" s="10"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+    </row>
+    <row r="265" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C265" s="10"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+    </row>
+    <row r="266" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C266" s="10"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+    </row>
+    <row r="267" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C267" s="10"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+    </row>
+    <row r="268" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C268" s="10"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+    </row>
+    <row r="269" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C269" s="10"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+    </row>
+    <row r="270" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C270" s="10"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+    </row>
+    <row r="271" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C271" s="10"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+    </row>
+    <row r="272" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C272" s="10"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
+    </row>
+    <row r="273" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C273" s="10"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+    </row>
+    <row r="274" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C274" s="10"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
+    </row>
+    <row r="275" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C275" s="10"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
+    </row>
+    <row r="276" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C276" s="10"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
+    </row>
+    <row r="277" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C277" s="10"/>
+      <c r="D277" s="24"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
+    </row>
+    <row r="278" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C278" s="10"/>
+      <c r="D278" s="24"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+    </row>
+    <row r="279" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C279" s="10"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+    </row>
+    <row r="280" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C280" s="10"/>
+      <c r="D280" s="24"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
+    </row>
+    <row r="281" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C281" s="10"/>
+      <c r="D281" s="24"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="10"/>
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C282" s="10"/>
+      <c r="D282" s="24"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="10"/>
+      <c r="G282" s="10"/>
+    </row>
+    <row r="283" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C283" s="10"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+    </row>
+    <row r="284" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C284" s="10"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="10"/>
+      <c r="G284" s="10"/>
+    </row>
+    <row r="285" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C285" s="10"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="10"/>
+      <c r="G285" s="10"/>
+    </row>
+    <row r="286" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C286" s="10"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="10"/>
+      <c r="G286" s="10"/>
+    </row>
+    <row r="287" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C287" s="10"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="10"/>
+      <c r="G287" s="10"/>
+    </row>
+    <row r="288" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C288" s="10"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
+    </row>
+    <row r="289" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C289" s="10"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="10"/>
+      <c r="G289" s="10"/>
+    </row>
+    <row r="290" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C290" s="10"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="10"/>
+      <c r="G290" s="10"/>
+    </row>
+    <row r="291" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C291" s="10"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="10"/>
+      <c r="G291" s="10"/>
+    </row>
+    <row r="292" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C292" s="10"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="10"/>
+      <c r="G292" s="10"/>
+    </row>
+    <row r="293" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C293" s="10"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
+      <c r="G293" s="10"/>
+    </row>
+    <row r="294" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C294" s="10"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+    </row>
+    <row r="295" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C295" s="10"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
+    </row>
+    <row r="296" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C296" s="10"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
+    </row>
+    <row r="297" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C297" s="10"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C298" s="10"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
+      <c r="G298" s="10"/>
+    </row>
+    <row r="299" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C299" s="10"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C300" s="10"/>
+      <c r="D300" s="24"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10"/>
+    </row>
+    <row r="301" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C301" s="10"/>
+      <c r="D301" s="24"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10"/>
+    </row>
+    <row r="302" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C302" s="10"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10"/>
+    </row>
+    <row r="303" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C303" s="10"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="10"/>
+    </row>
+    <row r="304" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C304" s="10"/>
+      <c r="D304" s="24"/>
+      <c r="E304" s="10"/>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
+    </row>
+    <row r="305" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C305" s="10"/>
+      <c r="D305" s="24"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
+    </row>
+    <row r="306" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C306" s="10"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="10"/>
+      <c r="F306" s="10"/>
+      <c r="G306" s="10"/>
+    </row>
+    <row r="307" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C307" s="10"/>
+      <c r="D307" s="24"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+    </row>
+    <row r="308" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C308" s="10"/>
+      <c r="D308" s="24"/>
+      <c r="E308" s="10"/>
+      <c r="F308" s="10"/>
+      <c r="G308" s="10"/>
+    </row>
+    <row r="309" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C309" s="10"/>
+      <c r="D309" s="24"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="10"/>
+      <c r="G309" s="10"/>
+    </row>
+    <row r="310" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C310" s="10"/>
+      <c r="D310" s="24"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10"/>
+      <c r="G310" s="10"/>
+    </row>
+    <row r="311" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C311" s="10"/>
+      <c r="D311" s="24"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10"/>
+    </row>
+    <row r="312" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C312" s="10"/>
+      <c r="D312" s="24"/>
+      <c r="E312" s="10"/>
+      <c r="F312" s="10"/>
+      <c r="G312" s="10"/>
+    </row>
+    <row r="313" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C313" s="10"/>
+      <c r="D313" s="24"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
+    </row>
+    <row r="314" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C314" s="10"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="10"/>
+      <c r="F314" s="10"/>
+      <c r="G314" s="10"/>
+    </row>
+    <row r="315" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C315" s="10"/>
+      <c r="D315" s="24"/>
+      <c r="E315" s="10"/>
+      <c r="F315" s="10"/>
+      <c r="G315" s="10"/>
+    </row>
+    <row r="316" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C316" s="10"/>
+      <c r="D316" s="24"/>
+      <c r="E316" s="10"/>
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
+    </row>
+    <row r="317" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C317" s="10"/>
+      <c r="D317" s="24"/>
+      <c r="E317" s="10"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
+    </row>
+    <row r="318" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C318" s="10"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="10"/>
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
+    </row>
+    <row r="319" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C319" s="10"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+    </row>
+    <row r="320" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C320" s="10"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="10"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+    </row>
+    <row r="321" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C321" s="10"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
+    </row>
+    <row r="322" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C322" s="10"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="10"/>
+      <c r="F322" s="10"/>
+      <c r="G322" s="10"/>
+    </row>
+    <row r="323" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C323" s="10"/>
+      <c r="D323" s="24"/>
+      <c r="E323" s="10"/>
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
+    </row>
+    <row r="324" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C324" s="10"/>
+      <c r="D324" s="24"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10"/>
+    </row>
+    <row r="325" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C325" s="10"/>
+      <c r="D325" s="24"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10"/>
+    </row>
+    <row r="326" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C326" s="10"/>
+      <c r="D326" s="24"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="10"/>
+      <c r="G326" s="10"/>
+    </row>
+    <row r="327" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C327" s="10"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+    </row>
+    <row r="328" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C328" s="10"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
+    </row>
+    <row r="329" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C329" s="10"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
+    </row>
+    <row r="330" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C330" s="10"/>
+      <c r="D330" s="24"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10"/>
+    </row>
+    <row r="331" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C331" s="10"/>
+      <c r="D331" s="24"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="10"/>
+      <c r="G331" s="10"/>
+    </row>
+    <row r="332" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C332" s="10"/>
+      <c r="D332" s="24"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="10"/>
+      <c r="G332" s="10"/>
+    </row>
+    <row r="333" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C333" s="10"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
+    </row>
+    <row r="334" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C334" s="10"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="10"/>
+      <c r="G334" s="10"/>
+    </row>
+    <row r="335" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C335" s="10"/>
+      <c r="D335" s="24"/>
+      <c r="E335" s="10"/>
+      <c r="F335" s="10"/>
+      <c r="G335" s="10"/>
+    </row>
+    <row r="336" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C336" s="10"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="10"/>
+      <c r="F336" s="10"/>
+      <c r="G336" s="10"/>
+    </row>
+    <row r="337" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C337" s="10"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="10"/>
+      <c r="G337" s="10"/>
+    </row>
+    <row r="338" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C338" s="10"/>
+      <c r="D338" s="24"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
+    </row>
+    <row r="339" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C339" s="10"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="10"/>
+      <c r="G339" s="10"/>
+    </row>
+    <row r="340" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C340" s="10"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="10"/>
+      <c r="F340" s="10"/>
+      <c r="G340" s="10"/>
+    </row>
+    <row r="341" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C341" s="10"/>
+      <c r="D341" s="24"/>
+      <c r="E341" s="10"/>
+      <c r="F341" s="10"/>
+      <c r="G341" s="10"/>
+    </row>
+    <row r="342" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C342" s="10"/>
+      <c r="D342" s="24"/>
+      <c r="E342" s="10"/>
+      <c r="F342" s="10"/>
+      <c r="G342" s="10"/>
+    </row>
+    <row r="343" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C343" s="10"/>
+      <c r="D343" s="24"/>
+      <c r="E343" s="10"/>
+      <c r="F343" s="10"/>
+      <c r="G343" s="10"/>
+    </row>
+    <row r="344" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C344" s="10"/>
+      <c r="D344" s="24"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10"/>
+    </row>
+    <row r="345" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C345" s="10"/>
+      <c r="D345" s="24"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10"/>
+    </row>
+    <row r="346" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C346" s="10"/>
+      <c r="D346" s="24"/>
+      <c r="E346" s="10"/>
+      <c r="F346" s="10"/>
+      <c r="G346" s="10"/>
+    </row>
+    <row r="347" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C347" s="10"/>
+      <c r="D347" s="24"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="10"/>
+      <c r="G347" s="10"/>
+    </row>
+    <row r="348" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C348" s="10"/>
+      <c r="D348" s="24"/>
+      <c r="E348" s="10"/>
+      <c r="F348" s="10"/>
+      <c r="G348" s="10"/>
+    </row>
+    <row r="349" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C349" s="10"/>
+      <c r="D349" s="24"/>
+      <c r="E349" s="10"/>
+      <c r="F349" s="10"/>
+      <c r="G349" s="10"/>
+    </row>
+    <row r="350" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C350" s="10"/>
+      <c r="D350" s="24"/>
+      <c r="E350" s="10"/>
+      <c r="F350" s="10"/>
+      <c r="G350" s="10"/>
+    </row>
+    <row r="351" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C351" s="10"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="10"/>
+      <c r="F351" s="10"/>
+      <c r="G351" s="10"/>
+    </row>
+    <row r="352" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C352" s="10"/>
+      <c r="D352" s="24"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C353" s="10"/>
+      <c r="D353" s="24"/>
+      <c r="E353" s="10"/>
+      <c r="F353" s="10"/>
+      <c r="G353" s="10"/>
+    </row>
+    <row r="354" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C354" s="10"/>
+      <c r="D354" s="24"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10"/>
+    </row>
+    <row r="355" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C355" s="10"/>
+      <c r="D355" s="24"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10"/>
+    </row>
+    <row r="356" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C356" s="10"/>
+      <c r="D356" s="24"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10"/>
+    </row>
+    <row r="357" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C357" s="10"/>
+      <c r="D357" s="24"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="10"/>
+      <c r="G357" s="10"/>
+    </row>
+    <row r="358" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C358" s="10"/>
+      <c r="D358" s="24"/>
+      <c r="E358" s="10"/>
+      <c r="F358" s="10"/>
+      <c r="G358" s="10"/>
+    </row>
+    <row r="359" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C359" s="10"/>
+      <c r="D359" s="24"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10"/>
+    </row>
+    <row r="360" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C360" s="10"/>
+      <c r="D360" s="24"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="10"/>
+      <c r="G360" s="10"/>
+    </row>
+    <row r="361" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C361" s="10"/>
+      <c r="D361" s="24"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="10"/>
+      <c r="G361" s="10"/>
+    </row>
+    <row r="362" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C362" s="10"/>
+      <c r="D362" s="24"/>
+      <c r="E362" s="10"/>
+      <c r="F362" s="10"/>
+      <c r="G362" s="10"/>
+    </row>
+    <row r="363" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C363" s="10"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="10"/>
+      <c r="G363" s="10"/>
+    </row>
+    <row r="364" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C364" s="10"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="10"/>
+      <c r="F364" s="10"/>
+      <c r="G364" s="10"/>
+    </row>
+    <row r="365" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C365" s="10"/>
+      <c r="D365" s="24"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="10"/>
+      <c r="G365" s="10"/>
+    </row>
+    <row r="366" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C366" s="10"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="10"/>
+      <c r="F366" s="10"/>
+      <c r="G366" s="10"/>
+    </row>
+    <row r="367" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C367" s="10"/>
+      <c r="D367" s="24"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="10"/>
+      <c r="G367" s="10"/>
+    </row>
+    <row r="368" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C368" s="10"/>
+      <c r="D368" s="24"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10"/>
+    </row>
+    <row r="369" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C369" s="10"/>
+      <c r="D369" s="24"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="10"/>
+    </row>
+    <row r="370" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C370" s="10"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10"/>
+    </row>
+    <row r="371" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C371" s="10"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="10"/>
+      <c r="G371" s="10"/>
+    </row>
+    <row r="372" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C372" s="10"/>
+      <c r="D372" s="24"/>
+      <c r="E372" s="10"/>
+      <c r="F372" s="10"/>
+      <c r="G372" s="10"/>
+    </row>
+    <row r="373" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C373" s="10"/>
+      <c r="D373" s="24"/>
+      <c r="E373" s="10"/>
+      <c r="F373" s="10"/>
+      <c r="G373" s="10"/>
+    </row>
+    <row r="374" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C374" s="10"/>
+      <c r="D374" s="24"/>
+      <c r="E374" s="10"/>
+      <c r="F374" s="10"/>
+      <c r="G374" s="10"/>
+    </row>
+    <row r="375" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C375" s="10"/>
+      <c r="D375" s="24"/>
+      <c r="E375" s="10"/>
+      <c r="F375" s="10"/>
+      <c r="G375" s="10"/>
+    </row>
+    <row r="376" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C376" s="10"/>
+      <c r="D376" s="24"/>
+      <c r="E376" s="10"/>
+      <c r="F376" s="10"/>
+      <c r="G376" s="10"/>
+    </row>
+    <row r="377" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C377" s="10"/>
+      <c r="D377" s="24"/>
+      <c r="E377" s="10"/>
+      <c r="F377" s="10"/>
+      <c r="G377" s="10"/>
+    </row>
+    <row r="378" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C378" s="10"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="10"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
+    </row>
+    <row r="379" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C379" s="10"/>
+      <c r="D379" s="24"/>
+      <c r="E379" s="10"/>
+      <c r="F379" s="10"/>
+      <c r="G379" s="10"/>
+    </row>
+    <row r="380" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C380" s="10"/>
+      <c r="D380" s="24"/>
+      <c r="E380" s="10"/>
+      <c r="F380" s="10"/>
+      <c r="G380" s="10"/>
+    </row>
+    <row r="381" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C381" s="10"/>
+      <c r="D381" s="24"/>
+      <c r="E381" s="10"/>
+      <c r="F381" s="10"/>
+      <c r="G381" s="10"/>
+    </row>
+    <row r="382" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C382" s="10"/>
+      <c r="D382" s="24"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10"/>
+    </row>
+    <row r="383" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C383" s="10"/>
+      <c r="D383" s="24"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10"/>
+    </row>
+    <row r="384" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C384" s="10"/>
+      <c r="D384" s="24"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10"/>
+    </row>
+    <row r="385" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C385" s="10"/>
+      <c r="D385" s="24"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10"/>
+    </row>
+    <row r="386" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C386" s="10"/>
+      <c r="D386" s="24"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10"/>
+    </row>
+    <row r="387" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C387" s="10"/>
+      <c r="D387" s="24"/>
+      <c r="E387" s="10"/>
+      <c r="F387" s="10"/>
+      <c r="G387" s="10"/>
+    </row>
+    <row r="388" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C388" s="10"/>
+      <c r="D388" s="24"/>
+      <c r="E388" s="10"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
+    </row>
+    <row r="389" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C389" s="10"/>
+      <c r="D389" s="24"/>
+      <c r="E389" s="10"/>
+      <c r="F389" s="10"/>
+      <c r="G389" s="10"/>
+    </row>
+    <row r="390" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C390" s="10"/>
+      <c r="D390" s="24"/>
+      <c r="E390" s="10"/>
+      <c r="F390" s="10"/>
+      <c r="G390" s="10"/>
+    </row>
+    <row r="391" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C391" s="10"/>
+      <c r="D391" s="24"/>
+      <c r="E391" s="10"/>
+      <c r="F391" s="10"/>
+      <c r="G391" s="10"/>
+    </row>
+    <row r="392" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C392" s="10"/>
+      <c r="D392" s="24"/>
+      <c r="E392" s="10"/>
+      <c r="F392" s="10"/>
+      <c r="G392" s="10"/>
+    </row>
+    <row r="393" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C393" s="10"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10"/>
+    </row>
+    <row r="394" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C394" s="10"/>
+      <c r="D394" s="24"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10"/>
+    </row>
+    <row r="395" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C395" s="10"/>
+      <c r="D395" s="24"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
+      <c r="G395" s="10"/>
+    </row>
+    <row r="396" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C396" s="10"/>
+      <c r="D396" s="24"/>
+      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10"/>
+    </row>
+    <row r="397" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C397" s="10"/>
+      <c r="D397" s="24"/>
+      <c r="E397" s="10"/>
+      <c r="F397" s="10"/>
+      <c r="G397" s="10"/>
+    </row>
+    <row r="398" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C398" s="10"/>
+      <c r="D398" s="24"/>
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10"/>
+    </row>
+    <row r="399" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C399" s="10"/>
+      <c r="D399" s="24"/>
+      <c r="E399" s="10"/>
+      <c r="F399" s="10"/>
+      <c r="G399" s="10"/>
+    </row>
+    <row r="400" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C400" s="10"/>
+      <c r="D400" s="24"/>
+      <c r="E400" s="10"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10"/>
+    </row>
+    <row r="401" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C401" s="10"/>
+      <c r="D401" s="24"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
+      <c r="G401" s="10"/>
+    </row>
+    <row r="402" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C402" s="10"/>
+      <c r="D402" s="24"/>
+      <c r="E402" s="10"/>
+      <c r="F402" s="10"/>
+      <c r="G402" s="10"/>
+    </row>
+    <row r="403" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C403" s="10"/>
+      <c r="D403" s="24"/>
+      <c r="E403" s="10"/>
+      <c r="F403" s="10"/>
+      <c r="G403" s="10"/>
+    </row>
+    <row r="404" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C404" s="10"/>
+      <c r="D404" s="24"/>
+      <c r="E404" s="10"/>
+      <c r="F404" s="10"/>
+      <c r="G404" s="10"/>
+    </row>
+    <row r="405" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C405" s="10"/>
+      <c r="D405" s="24"/>
+      <c r="E405" s="10"/>
+      <c r="F405" s="10"/>
+      <c r="G405" s="10"/>
+    </row>
+    <row r="406" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C406" s="10"/>
+      <c r="D406" s="24"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
+    </row>
+    <row r="407" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C407" s="10"/>
+      <c r="D407" s="24"/>
+      <c r="E407" s="10"/>
+      <c r="F407" s="10"/>
+      <c r="G407" s="10"/>
+    </row>
+    <row r="408" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C408" s="10"/>
+      <c r="D408" s="24"/>
+      <c r="E408" s="10"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
+    </row>
+    <row r="409" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C409" s="10"/>
+      <c r="D409" s="24"/>
+      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
+    </row>
+    <row r="410" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C410" s="10"/>
+      <c r="D410" s="24"/>
+      <c r="E410" s="10"/>
+      <c r="F410" s="10"/>
+      <c r="G410" s="10"/>
+    </row>
+    <row r="411" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C411" s="10"/>
+      <c r="D411" s="24"/>
+      <c r="E411" s="10"/>
+      <c r="F411" s="10"/>
+      <c r="G411" s="10"/>
+    </row>
+    <row r="412" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C412" s="10"/>
+      <c r="D412" s="24"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+    </row>
+    <row r="413" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C413" s="10"/>
+      <c r="D413" s="24"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C414" s="10"/>
+      <c r="D414" s="24"/>
+      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C415" s="10"/>
+      <c r="D415" s="24"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C416" s="10"/>
+      <c r="D416" s="24"/>
+      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C417" s="10"/>
+      <c r="D417" s="24"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C418" s="10"/>
+      <c r="D418" s="24"/>
+      <c r="E418" s="10"/>
+      <c r="F418" s="10"/>
+      <c r="G418" s="10"/>
+    </row>
+    <row r="419" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C419" s="10"/>
+      <c r="D419" s="24"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="10"/>
+      <c r="G419" s="10"/>
+    </row>
+    <row r="420" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C420" s="10"/>
+      <c r="D420" s="24"/>
+      <c r="E420" s="10"/>
+      <c r="F420" s="10"/>
+      <c r="G420" s="10"/>
+    </row>
+    <row r="421" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C421" s="10"/>
+      <c r="D421" s="24"/>
+      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
+      <c r="G421" s="10"/>
+    </row>
+    <row r="422" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C422" s="10"/>
+      <c r="D422" s="24"/>
+      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
+      <c r="G422" s="10"/>
+    </row>
+    <row r="423" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C423" s="10"/>
+      <c r="D423" s="24"/>
+      <c r="E423" s="10"/>
+      <c r="F423" s="10"/>
+      <c r="G423" s="10"/>
+    </row>
+    <row r="424" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C424" s="10"/>
+      <c r="D424" s="24"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
+      <c r="G424" s="10"/>
+    </row>
+    <row r="425" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C425" s="10"/>
+      <c r="D425" s="24"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
+      <c r="G425" s="10"/>
+    </row>
+    <row r="426" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C426" s="10"/>
+      <c r="D426" s="24"/>
+      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
+      <c r="G426" s="10"/>
+    </row>
+    <row r="427" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C427" s="10"/>
+      <c r="D427" s="24"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
+    </row>
+    <row r="428" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C428" s="10"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+    </row>
+    <row r="429" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C429" s="10"/>
+      <c r="D429" s="24"/>
+      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
+      <c r="G429" s="10"/>
+    </row>
+    <row r="430" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C430" s="10"/>
+      <c r="D430" s="24"/>
+      <c r="E430" s="10"/>
+      <c r="F430" s="10"/>
+      <c r="G430" s="10"/>
+    </row>
+    <row r="431" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C431" s="10"/>
+      <c r="D431" s="24"/>
+      <c r="E431" s="10"/>
+      <c r="F431" s="10"/>
+      <c r="G431" s="10"/>
+    </row>
+    <row r="432" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C432" s="10"/>
+      <c r="D432" s="24"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
+      <c r="G432" s="10"/>
+    </row>
+    <row r="433" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C433" s="10"/>
+      <c r="D433" s="24"/>
+      <c r="E433" s="10"/>
+      <c r="F433" s="10"/>
+      <c r="G433" s="10"/>
+    </row>
+    <row r="434" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C434" s="10"/>
+      <c r="D434" s="24"/>
+      <c r="E434" s="10"/>
+      <c r="F434" s="10"/>
+      <c r="G434" s="10"/>
+    </row>
+    <row r="435" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C435" s="10"/>
+      <c r="D435" s="24"/>
+      <c r="E435" s="10"/>
+      <c r="F435" s="10"/>
+      <c r="G435" s="10"/>
+    </row>
+    <row r="436" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C436" s="10"/>
+      <c r="D436" s="24"/>
+      <c r="E436" s="10"/>
+      <c r="F436" s="10"/>
+      <c r="G436" s="10"/>
+    </row>
+    <row r="437" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C437" s="10"/>
+      <c r="D437" s="24"/>
+      <c r="E437" s="10"/>
+      <c r="F437" s="10"/>
+      <c r="G437" s="10"/>
+    </row>
+    <row r="438" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C438" s="10"/>
+      <c r="D438" s="24"/>
+      <c r="E438" s="10"/>
+      <c r="F438" s="10"/>
+      <c r="G438" s="10"/>
+    </row>
+    <row r="439" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C439" s="10"/>
+      <c r="D439" s="24"/>
+      <c r="E439" s="10"/>
+      <c r="F439" s="10"/>
+      <c r="G439" s="10"/>
+    </row>
+    <row r="440" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C440" s="10"/>
+      <c r="D440" s="24"/>
+      <c r="E440" s="10"/>
+      <c r="F440" s="10"/>
+      <c r="G440" s="10"/>
+    </row>
+    <row r="441" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C441" s="10"/>
+      <c r="D441" s="24"/>
+      <c r="E441" s="10"/>
+      <c r="F441" s="10"/>
+      <c r="G441" s="10"/>
+    </row>
+    <row r="442" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C442" s="10"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="10"/>
+      <c r="F442" s="10"/>
+      <c r="G442" s="10"/>
+    </row>
+    <row r="443" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C443" s="10"/>
+      <c r="D443" s="24"/>
+      <c r="E443" s="10"/>
+      <c r="F443" s="10"/>
+      <c r="G443" s="10"/>
+    </row>
+    <row r="444" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C444" s="10"/>
+      <c r="D444" s="24"/>
+      <c r="E444" s="10"/>
+      <c r="F444" s="10"/>
+      <c r="G444" s="10"/>
+    </row>
+    <row r="445" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C445" s="10"/>
+      <c r="D445" s="24"/>
+      <c r="E445" s="10"/>
+      <c r="F445" s="10"/>
+      <c r="G445" s="10"/>
+    </row>
+    <row r="446" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C446" s="10"/>
+      <c r="D446" s="24"/>
+      <c r="E446" s="10"/>
+      <c r="F446" s="10"/>
+      <c r="G446" s="10"/>
+    </row>
+    <row r="447" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C447" s="10"/>
+      <c r="D447" s="24"/>
+      <c r="E447" s="10"/>
+      <c r="F447" s="10"/>
+      <c r="G447" s="10"/>
+    </row>
+    <row r="448" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C448" s="10"/>
+      <c r="D448" s="24"/>
+      <c r="E448" s="10"/>
+      <c r="F448" s="10"/>
+      <c r="G448" s="10"/>
+    </row>
+    <row r="449" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C449" s="10"/>
+      <c r="D449" s="24"/>
+      <c r="E449" s="10"/>
+      <c r="F449" s="10"/>
+      <c r="G449" s="10"/>
+    </row>
+    <row r="450" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C450" s="10"/>
+      <c r="D450" s="24"/>
+      <c r="E450" s="10"/>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
+    </row>
+    <row r="451" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C451" s="10"/>
+      <c r="D451" s="24"/>
+      <c r="E451" s="10"/>
+      <c r="F451" s="10"/>
+      <c r="G451" s="10"/>
+    </row>
+    <row r="452" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C452" s="10"/>
+      <c r="D452" s="24"/>
+      <c r="E452" s="10"/>
+      <c r="F452" s="10"/>
+      <c r="G452" s="10"/>
+    </row>
+    <row r="453" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C453" s="10"/>
+      <c r="D453" s="24"/>
+      <c r="E453" s="10"/>
+      <c r="F453" s="10"/>
+      <c r="G453" s="10"/>
+    </row>
+    <row r="454" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C454" s="10"/>
+      <c r="D454" s="24"/>
+      <c r="E454" s="10"/>
+      <c r="F454" s="10"/>
+      <c r="G454" s="10"/>
+    </row>
+    <row r="455" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C455" s="10"/>
+      <c r="D455" s="24"/>
+      <c r="E455" s="10"/>
+      <c r="F455" s="10"/>
+      <c r="G455" s="10"/>
+    </row>
+    <row r="456" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C456" s="10"/>
+      <c r="D456" s="24"/>
+      <c r="E456" s="10"/>
+      <c r="F456" s="10"/>
+      <c r="G456" s="10"/>
+    </row>
+    <row r="457" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C457" s="10"/>
+      <c r="D457" s="24"/>
+      <c r="E457" s="10"/>
+      <c r="F457" s="10"/>
+      <c r="G457" s="10"/>
+    </row>
+    <row r="458" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C458" s="10"/>
+      <c r="D458" s="24"/>
+      <c r="E458" s="10"/>
+      <c r="F458" s="10"/>
+      <c r="G458" s="10"/>
+    </row>
+    <row r="459" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C459" s="10"/>
+      <c r="D459" s="24"/>
+      <c r="E459" s="10"/>
+      <c r="F459" s="10"/>
+      <c r="G459" s="10"/>
+    </row>
+    <row r="460" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C460" s="10"/>
+      <c r="D460" s="24"/>
+      <c r="E460" s="10"/>
+      <c r="F460" s="10"/>
+      <c r="G460" s="10"/>
+    </row>
+    <row r="461" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C461" s="10"/>
+      <c r="D461" s="24"/>
+      <c r="E461" s="10"/>
+      <c r="F461" s="10"/>
+      <c r="G461" s="10"/>
+    </row>
+    <row r="462" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C462" s="10"/>
+      <c r="D462" s="24"/>
+      <c r="E462" s="10"/>
+      <c r="F462" s="10"/>
+      <c r="G462" s="10"/>
+    </row>
+    <row r="463" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C463" s="10"/>
+      <c r="D463" s="24"/>
+      <c r="E463" s="10"/>
+      <c r="F463" s="10"/>
+      <c r="G463" s="10"/>
+    </row>
+    <row r="464" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C464" s="10"/>
+      <c r="D464" s="24"/>
+      <c r="E464" s="10"/>
+      <c r="F464" s="10"/>
+      <c r="G464" s="10"/>
+    </row>
+    <row r="465" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C465" s="10"/>
+      <c r="D465" s="24"/>
+      <c r="E465" s="10"/>
+      <c r="F465" s="10"/>
+      <c r="G465" s="10"/>
+    </row>
+    <row r="466" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C466" s="10"/>
+      <c r="D466" s="24"/>
+      <c r="E466" s="10"/>
+      <c r="F466" s="10"/>
+      <c r="G466" s="10"/>
+    </row>
+    <row r="467" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C467" s="10"/>
+      <c r="D467" s="24"/>
+      <c r="E467" s="10"/>
+      <c r="F467" s="10"/>
+      <c r="G467" s="10"/>
+    </row>
+    <row r="468" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C468" s="10"/>
+      <c r="D468" s="24"/>
+      <c r="E468" s="10"/>
+      <c r="F468" s="10"/>
+      <c r="G468" s="10"/>
+    </row>
+    <row r="469" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C469" s="10"/>
+      <c r="D469" s="24"/>
+      <c r="E469" s="10"/>
+      <c r="F469" s="10"/>
+      <c r="G469" s="10"/>
+    </row>
+    <row r="470" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C470" s="10"/>
+      <c r="D470" s="24"/>
+      <c r="E470" s="10"/>
+      <c r="F470" s="10"/>
+      <c r="G470" s="10"/>
+    </row>
+    <row r="471" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C471" s="10"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="10"/>
+      <c r="F471" s="10"/>
+      <c r="G471" s="10"/>
+    </row>
+    <row r="472" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C472" s="10"/>
+      <c r="D472" s="24"/>
+      <c r="E472" s="10"/>
+      <c r="F472" s="10"/>
+      <c r="G472" s="10"/>
+    </row>
+    <row r="473" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C473" s="10"/>
+      <c r="D473" s="24"/>
+      <c r="E473" s="10"/>
+      <c r="F473" s="10"/>
+      <c r="G473" s="10"/>
+    </row>
+    <row r="474" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C474" s="10"/>
+      <c r="D474" s="24"/>
+      <c r="E474" s="10"/>
+      <c r="F474" s="10"/>
+      <c r="G474" s="10"/>
+    </row>
+    <row r="475" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C475" s="10"/>
+      <c r="D475" s="24"/>
+      <c r="E475" s="10"/>
+      <c r="F475" s="10"/>
+      <c r="G475" s="10"/>
+    </row>
+    <row r="476" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C476" s="10"/>
+      <c r="D476" s="24"/>
+      <c r="E476" s="10"/>
+      <c r="F476" s="10"/>
+      <c r="G476" s="10"/>
+    </row>
+    <row r="477" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C477" s="10"/>
+      <c r="D477" s="24"/>
+      <c r="E477" s="10"/>
+      <c r="F477" s="10"/>
+      <c r="G477" s="10"/>
+    </row>
+    <row r="478" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C478" s="10"/>
+      <c r="D478" s="24"/>
+      <c r="E478" s="10"/>
+      <c r="F478" s="10"/>
+      <c r="G478" s="10"/>
+    </row>
+    <row r="479" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C479" s="10"/>
+      <c r="D479" s="24"/>
+      <c r="E479" s="10"/>
+      <c r="F479" s="10"/>
+      <c r="G479" s="10"/>
+    </row>
+    <row r="480" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C480" s="10"/>
+      <c r="D480" s="24"/>
+      <c r="E480" s="10"/>
+      <c r="F480" s="10"/>
+      <c r="G480" s="10"/>
+    </row>
+    <row r="481" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C481" s="10"/>
+      <c r="D481" s="24"/>
+      <c r="E481" s="10"/>
+      <c r="F481" s="10"/>
+      <c r="G481" s="10"/>
+    </row>
+    <row r="482" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C482" s="10"/>
+      <c r="D482" s="24"/>
+      <c r="E482" s="10"/>
+      <c r="F482" s="10"/>
+      <c r="G482" s="10"/>
+    </row>
+    <row r="483" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C483" s="10"/>
+      <c r="D483" s="24"/>
+      <c r="E483" s="10"/>
+      <c r="F483" s="10"/>
+      <c r="G483" s="10"/>
+    </row>
+    <row r="484" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C484" s="10"/>
+      <c r="D484" s="24"/>
+      <c r="E484" s="10"/>
+      <c r="F484" s="10"/>
+      <c r="G484" s="10"/>
+    </row>
+    <row r="485" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C485" s="10"/>
+      <c r="D485" s="24"/>
+      <c r="E485" s="10"/>
+      <c r="F485" s="10"/>
+      <c r="G485" s="10"/>
+    </row>
+    <row r="486" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C486" s="10"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="10"/>
+      <c r="F486" s="10"/>
+      <c r="G486" s="10"/>
+    </row>
+    <row r="487" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C487" s="10"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="10"/>
+      <c r="F487" s="10"/>
+      <c r="G487" s="10"/>
+    </row>
+    <row r="488" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C488" s="10"/>
+      <c r="D488" s="24"/>
+      <c r="E488" s="10"/>
+      <c r="F488" s="10"/>
+      <c r="G488" s="10"/>
+    </row>
+    <row r="489" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C489" s="10"/>
+      <c r="D489" s="24"/>
+      <c r="E489" s="10"/>
+      <c r="F489" s="10"/>
+      <c r="G489" s="10"/>
+    </row>
+    <row r="490" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C490" s="10"/>
+      <c r="D490" s="24"/>
+      <c r="E490" s="10"/>
+      <c r="F490" s="10"/>
+      <c r="G490" s="10"/>
+    </row>
+    <row r="491" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C491" s="10"/>
+      <c r="D491" s="24"/>
+      <c r="E491" s="10"/>
+      <c r="F491" s="10"/>
+      <c r="G491" s="10"/>
+    </row>
+    <row r="492" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C492" s="10"/>
+      <c r="D492" s="24"/>
+      <c r="E492" s="10"/>
+      <c r="F492" s="10"/>
+      <c r="G492" s="10"/>
+    </row>
+    <row r="493" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C493" s="10"/>
+      <c r="D493" s="24"/>
+      <c r="E493" s="10"/>
+      <c r="F493" s="10"/>
+      <c r="G493" s="10"/>
+    </row>
+    <row r="494" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C494" s="10"/>
+      <c r="D494" s="24"/>
+      <c r="E494" s="10"/>
+      <c r="F494" s="10"/>
+      <c r="G494" s="10"/>
+    </row>
+    <row r="495" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C495" s="10"/>
+      <c r="D495" s="24"/>
+      <c r="E495" s="10"/>
+      <c r="F495" s="10"/>
+      <c r="G495" s="10"/>
+    </row>
+    <row r="496" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C496" s="10"/>
+      <c r="D496" s="24"/>
+      <c r="E496" s="10"/>
+      <c r="F496" s="10"/>
+      <c r="G496" s="10"/>
+    </row>
+    <row r="497" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C497" s="10"/>
+      <c r="D497" s="24"/>
+      <c r="E497" s="10"/>
+      <c r="F497" s="10"/>
+      <c r="G497" s="10"/>
+    </row>
+    <row r="498" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C498" s="10"/>
+      <c r="D498" s="24"/>
+      <c r="E498" s="10"/>
+      <c r="F498" s="10"/>
+      <c r="G498" s="10"/>
+    </row>
+    <row r="499" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C499" s="10"/>
+      <c r="D499" s="24"/>
+      <c r="E499" s="10"/>
+      <c r="F499" s="10"/>
+      <c r="G499" s="10"/>
+    </row>
+    <row r="500" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C500" s="10"/>
+      <c r="D500" s="24"/>
+      <c r="E500" s="10"/>
+      <c r="F500" s="10"/>
+      <c r="G500" s="10"/>
+    </row>
+    <row r="501" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C501" s="10"/>
+      <c r="D501" s="24"/>
+      <c r="E501" s="10"/>
+      <c r="F501" s="10"/>
+      <c r="G501" s="10"/>
+    </row>
+    <row r="502" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C502" s="10"/>
+      <c r="D502" s="24"/>
+      <c r="E502" s="10"/>
+      <c r="F502" s="10"/>
+      <c r="G502" s="10"/>
+    </row>
+    <row r="503" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C503" s="10"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="10"/>
+      <c r="F503" s="10"/>
+      <c r="G503" s="10"/>
+    </row>
+    <row r="504" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C504" s="10"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="10"/>
+      <c r="F504" s="10"/>
+      <c r="G504" s="10"/>
+    </row>
+    <row r="505" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C505" s="10"/>
+      <c r="D505" s="24"/>
+      <c r="E505" s="10"/>
+      <c r="F505" s="10"/>
+      <c r="G505" s="10"/>
+    </row>
+    <row r="506" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C506" s="10"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="10"/>
+      <c r="F506" s="10"/>
+      <c r="G506" s="10"/>
+    </row>
+    <row r="507" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C507" s="10"/>
+      <c r="D507" s="24"/>
+      <c r="E507" s="10"/>
+      <c r="F507" s="10"/>
+      <c r="G507" s="10"/>
+    </row>
+    <row r="508" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C508" s="10"/>
+      <c r="D508" s="24"/>
+      <c r="E508" s="10"/>
+      <c r="F508" s="10"/>
+      <c r="G508" s="10"/>
+    </row>
+    <row r="509" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C509" s="10"/>
+      <c r="D509" s="24"/>
+      <c r="E509" s="10"/>
+      <c r="F509" s="10"/>
+      <c r="G509" s="10"/>
+    </row>
+    <row r="510" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C510" s="10"/>
+      <c r="D510" s="24"/>
+      <c r="E510" s="10"/>
+      <c r="F510" s="10"/>
+      <c r="G510" s="10"/>
+    </row>
+    <row r="511" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C511" s="10"/>
+      <c r="D511" s="24"/>
+      <c r="E511" s="10"/>
+      <c r="F511" s="10"/>
+      <c r="G511" s="10"/>
+    </row>
+    <row r="512" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C512" s="10"/>
+      <c r="D512" s="24"/>
+      <c r="E512" s="10"/>
+      <c r="F512" s="10"/>
+      <c r="G512" s="10"/>
+    </row>
+    <row r="513" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C513" s="10"/>
+      <c r="D513" s="24"/>
+      <c r="E513" s="10"/>
+      <c r="F513" s="10"/>
+      <c r="G513" s="10"/>
+    </row>
+    <row r="514" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C514" s="10"/>
+      <c r="D514" s="24"/>
+      <c r="E514" s="10"/>
+      <c r="F514" s="10"/>
+      <c r="G514" s="10"/>
+    </row>
+    <row r="515" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C515" s="10"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="10"/>
+      <c r="F515" s="10"/>
+      <c r="G515" s="10"/>
+    </row>
+    <row r="516" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C516" s="10"/>
+      <c r="D516" s="24"/>
+      <c r="E516" s="10"/>
+      <c r="F516" s="10"/>
+      <c r="G516" s="10"/>
+    </row>
+    <row r="517" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C517" s="10"/>
+      <c r="D517" s="24"/>
+      <c r="E517" s="10"/>
+      <c r="F517" s="10"/>
+      <c r="G517" s="10"/>
+    </row>
+    <row r="518" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C518" s="10"/>
+      <c r="D518" s="24"/>
+      <c r="E518" s="10"/>
+      <c r="F518" s="10"/>
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C519" s="10"/>
+      <c r="D519" s="24"/>
+      <c r="E519" s="10"/>
+      <c r="F519" s="10"/>
+      <c r="G519" s="10"/>
+    </row>
+    <row r="520" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C520" s="10"/>
+      <c r="D520" s="24"/>
+      <c r="E520" s="10"/>
+      <c r="F520" s="10"/>
+      <c r="G520" s="10"/>
+    </row>
+    <row r="521" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C521" s="10"/>
+      <c r="D521" s="24"/>
+      <c r="E521" s="10"/>
+      <c r="F521" s="10"/>
+      <c r="G521" s="10"/>
+    </row>
+    <row r="522" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C522" s="10"/>
+      <c r="D522" s="24"/>
+      <c r="E522" s="10"/>
+      <c r="F522" s="10"/>
+      <c r="G522" s="10"/>
+    </row>
+    <row r="523" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C523" s="10"/>
+      <c r="D523" s="24"/>
+      <c r="E523" s="10"/>
+      <c r="F523" s="10"/>
+      <c r="G523" s="10"/>
+    </row>
+    <row r="524" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C524" s="10"/>
+      <c r="D524" s="24"/>
+      <c r="E524" s="10"/>
+      <c r="F524" s="10"/>
+      <c r="G524" s="10"/>
+    </row>
+    <row r="525" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C525" s="10"/>
+      <c r="D525" s="24"/>
+      <c r="E525" s="10"/>
+      <c r="F525" s="10"/>
+      <c r="G525" s="10"/>
+    </row>
+    <row r="526" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C526" s="10"/>
+      <c r="D526" s="24"/>
+      <c r="E526" s="10"/>
+      <c r="F526" s="10"/>
+      <c r="G526" s="10"/>
+    </row>
+    <row r="527" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C527" s="10"/>
+      <c r="D527" s="24"/>
+      <c r="E527" s="10"/>
+      <c r="F527" s="10"/>
+      <c r="G527" s="10"/>
+    </row>
+    <row r="528" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C528" s="10"/>
+      <c r="D528" s="24"/>
+      <c r="E528" s="10"/>
+      <c r="F528" s="10"/>
+      <c r="G528" s="10"/>
+    </row>
+    <row r="529" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C529" s="10"/>
+      <c r="D529" s="24"/>
+      <c r="E529" s="10"/>
+      <c r="F529" s="10"/>
+      <c r="G529" s="10"/>
+    </row>
+    <row r="530" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C530" s="10"/>
+      <c r="D530" s="24"/>
+      <c r="E530" s="10"/>
+      <c r="F530" s="10"/>
+      <c r="G530" s="10"/>
+    </row>
+    <row r="531" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C531" s="10"/>
+      <c r="D531" s="24"/>
+      <c r="E531" s="10"/>
+      <c r="F531" s="10"/>
+      <c r="G531" s="10"/>
+    </row>
+    <row r="532" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C532" s="10"/>
+      <c r="D532" s="24"/>
+      <c r="E532" s="10"/>
+      <c r="F532" s="10"/>
+      <c r="G532" s="10"/>
+    </row>
+    <row r="533" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C533" s="10"/>
+      <c r="D533" s="24"/>
+      <c r="E533" s="10"/>
+      <c r="F533" s="10"/>
+      <c r="G533" s="10"/>
+    </row>
+    <row r="534" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C534" s="10"/>
+      <c r="D534" s="24"/>
+      <c r="E534" s="10"/>
+      <c r="F534" s="10"/>
+      <c r="G534" s="10"/>
+    </row>
+    <row r="535" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C535" s="10"/>
+      <c r="D535" s="24"/>
+      <c r="E535" s="10"/>
+      <c r="F535" s="10"/>
+      <c r="G535" s="10"/>
+    </row>
+    <row r="536" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C536" s="10"/>
+      <c r="D536" s="24"/>
+      <c r="E536" s="10"/>
+      <c r="F536" s="10"/>
+      <c r="G536" s="10"/>
+    </row>
+    <row r="537" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C537" s="10"/>
+      <c r="D537" s="24"/>
+      <c r="E537" s="10"/>
+      <c r="F537" s="10"/>
+      <c r="G537" s="10"/>
+    </row>
+    <row r="538" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C538" s="10"/>
+      <c r="D538" s="24"/>
+      <c r="E538" s="10"/>
+      <c r="F538" s="10"/>
+      <c r="G538" s="10"/>
+    </row>
+    <row r="539" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C539" s="10"/>
+      <c r="D539" s="24"/>
+      <c r="E539" s="10"/>
+      <c r="F539" s="10"/>
+      <c r="G539" s="10"/>
+    </row>
+    <row r="540" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C540" s="10"/>
+      <c r="D540" s="24"/>
+      <c r="E540" s="10"/>
+      <c r="F540" s="10"/>
+      <c r="G540" s="10"/>
+    </row>
+    <row r="541" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C541" s="10"/>
+      <c r="D541" s="24"/>
+      <c r="E541" s="10"/>
+      <c r="F541" s="10"/>
+      <c r="G541" s="10"/>
+    </row>
+    <row r="542" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C542" s="10"/>
+      <c r="D542" s="24"/>
+      <c r="E542" s="10"/>
+      <c r="F542" s="10"/>
+      <c r="G542" s="10"/>
+    </row>
+    <row r="543" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C543" s="10"/>
+      <c r="D543" s="24"/>
+      <c r="E543" s="10"/>
+      <c r="F543" s="10"/>
+      <c r="G543" s="10"/>
+    </row>
+    <row r="544" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C544" s="10"/>
+      <c r="D544" s="24"/>
+      <c r="E544" s="10"/>
+      <c r="F544" s="10"/>
+      <c r="G544" s="10"/>
+    </row>
+    <row r="545" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C545" s="10"/>
+      <c r="D545" s="24"/>
+      <c r="E545" s="10"/>
+      <c r="F545" s="10"/>
+      <c r="G545" s="10"/>
+    </row>
+    <row r="546" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C546" s="10"/>
+      <c r="D546" s="24"/>
+      <c r="E546" s="10"/>
+      <c r="F546" s="10"/>
+      <c r="G546" s="10"/>
+    </row>
+    <row r="547" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C547" s="10"/>
+      <c r="D547" s="24"/>
+      <c r="E547" s="10"/>
+      <c r="F547" s="10"/>
+      <c r="G547" s="10"/>
+    </row>
+    <row r="548" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C548" s="10"/>
+      <c r="D548" s="24"/>
+      <c r="E548" s="10"/>
+      <c r="F548" s="10"/>
+      <c r="G548" s="10"/>
+    </row>
+    <row r="549" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C549" s="10"/>
+      <c r="D549" s="24"/>
+      <c r="E549" s="10"/>
+      <c r="F549" s="10"/>
+      <c r="G549" s="10"/>
+    </row>
+    <row r="550" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C550" s="10"/>
+      <c r="D550" s="24"/>
+      <c r="E550" s="10"/>
+      <c r="F550" s="10"/>
+      <c r="G550" s="10"/>
+    </row>
+    <row r="551" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C551" s="10"/>
+      <c r="D551" s="24"/>
+      <c r="E551" s="10"/>
+      <c r="F551" s="10"/>
+      <c r="G551" s="10"/>
+    </row>
+    <row r="552" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C552" s="10"/>
+      <c r="D552" s="24"/>
+      <c r="E552" s="10"/>
+      <c r="F552" s="10"/>
+      <c r="G552" s="10"/>
+    </row>
+    <row r="553" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C553" s="10"/>
+      <c r="D553" s="24"/>
+      <c r="E553" s="10"/>
+      <c r="F553" s="10"/>
+      <c r="G553" s="10"/>
+    </row>
+    <row r="554" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C554" s="10"/>
+      <c r="D554" s="24"/>
+      <c r="E554" s="10"/>
+      <c r="F554" s="10"/>
+      <c r="G554" s="10"/>
+    </row>
+    <row r="555" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C555" s="10"/>
+      <c r="D555" s="24"/>
+      <c r="E555" s="10"/>
+      <c r="F555" s="10"/>
+      <c r="G555" s="10"/>
+    </row>
+    <row r="556" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C556" s="10"/>
+      <c r="D556" s="24"/>
+      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
+      <c r="G556" s="10"/>
+    </row>
+    <row r="557" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C557" s="10"/>
+      <c r="D557" s="24"/>
+      <c r="E557" s="10"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="10"/>
+    </row>
+    <row r="558" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C558" s="10"/>
+      <c r="D558" s="24"/>
+      <c r="E558" s="10"/>
+      <c r="F558" s="10"/>
+      <c r="G558" s="10"/>
+    </row>
+    <row r="559" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C559" s="10"/>
+      <c r="D559" s="24"/>
+      <c r="E559" s="10"/>
+      <c r="F559" s="10"/>
+      <c r="G559" s="10"/>
+    </row>
+    <row r="560" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C560" s="10"/>
+      <c r="D560" s="24"/>
+      <c r="E560" s="10"/>
+      <c r="F560" s="10"/>
+      <c r="G560" s="10"/>
+    </row>
+    <row r="561" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C561" s="10"/>
+      <c r="D561" s="24"/>
+      <c r="E561" s="10"/>
+      <c r="F561" s="10"/>
+      <c r="G561" s="10"/>
+    </row>
+    <row r="562" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C562" s="10"/>
+      <c r="D562" s="24"/>
+      <c r="E562" s="10"/>
+      <c r="F562" s="10"/>
+      <c r="G562" s="10"/>
+    </row>
+    <row r="563" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C563" s="10"/>
+      <c r="D563" s="24"/>
+      <c r="E563" s="10"/>
+      <c r="F563" s="10"/>
+      <c r="G563" s="10"/>
+    </row>
+    <row r="564" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C564" s="10"/>
+      <c r="D564" s="24"/>
+      <c r="E564" s="10"/>
+      <c r="F564" s="10"/>
+      <c r="G564" s="10"/>
+    </row>
+    <row r="565" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C565" s="10"/>
+      <c r="D565" s="24"/>
+      <c r="E565" s="10"/>
+      <c r="F565" s="10"/>
+      <c r="G565" s="10"/>
+    </row>
+    <row r="566" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C566" s="10"/>
+      <c r="D566" s="24"/>
+      <c r="E566" s="10"/>
+      <c r="F566" s="10"/>
+      <c r="G566" s="10"/>
+    </row>
+    <row r="567" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C567" s="10"/>
+      <c r="D567" s="24"/>
+      <c r="E567" s="10"/>
+      <c r="F567" s="10"/>
+      <c r="G567" s="10"/>
+    </row>
+    <row r="568" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C568" s="10"/>
+      <c r="D568" s="24"/>
+      <c r="E568" s="10"/>
+      <c r="F568" s="10"/>
+      <c r="G568" s="10"/>
+    </row>
+    <row r="569" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C569" s="10"/>
+      <c r="D569" s="24"/>
+      <c r="E569" s="10"/>
+      <c r="F569" s="10"/>
+      <c r="G569" s="10"/>
+    </row>
+    <row r="570" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C570" s="10"/>
+      <c r="D570" s="24"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="10"/>
+      <c r="G570" s="10"/>
+    </row>
+    <row r="571" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C571" s="10"/>
+      <c r="D571" s="24"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="10"/>
+      <c r="G571" s="10"/>
+    </row>
+    <row r="572" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C572" s="10"/>
+      <c r="D572" s="24"/>
+      <c r="E572" s="10"/>
+      <c r="F572" s="10"/>
+      <c r="G572" s="10"/>
+    </row>
+    <row r="573" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C573" s="10"/>
+      <c r="D573" s="24"/>
+      <c r="E573" s="10"/>
+      <c r="F573" s="10"/>
+      <c r="G573" s="10"/>
+    </row>
+    <row r="574" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C574" s="10"/>
+      <c r="D574" s="24"/>
+      <c r="E574" s="10"/>
+      <c r="F574" s="10"/>
+      <c r="G574" s="10"/>
+    </row>
+    <row r="575" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C575" s="10"/>
+      <c r="D575" s="24"/>
+      <c r="E575" s="10"/>
+      <c r="F575" s="10"/>
+      <c r="G575" s="10"/>
+    </row>
+    <row r="576" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C576" s="10"/>
+      <c r="D576" s="24"/>
+      <c r="E576" s="10"/>
+      <c r="F576" s="10"/>
+      <c r="G576" s="10"/>
+    </row>
+    <row r="577" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C577" s="10"/>
+      <c r="D577" s="24"/>
+      <c r="E577" s="10"/>
+      <c r="F577" s="10"/>
+      <c r="G577" s="10"/>
+    </row>
+    <row r="578" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C578" s="10"/>
+      <c r="D578" s="24"/>
+      <c r="E578" s="10"/>
+      <c r="F578" s="10"/>
+      <c r="G578" s="10"/>
+    </row>
+    <row r="579" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C579" s="10"/>
+      <c r="D579" s="24"/>
+      <c r="E579" s="10"/>
+      <c r="F579" s="10"/>
+      <c r="G579" s="10"/>
+    </row>
+    <row r="580" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C580" s="10"/>
+      <c r="D580" s="24"/>
+      <c r="E580" s="10"/>
+      <c r="F580" s="10"/>
+      <c r="G580" s="10"/>
+    </row>
+    <row r="581" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C581" s="10"/>
+      <c r="D581" s="24"/>
+      <c r="E581" s="10"/>
+      <c r="F581" s="10"/>
+      <c r="G581" s="10"/>
+    </row>
+    <row r="582" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C582" s="10"/>
+      <c r="D582" s="24"/>
+      <c r="E582" s="10"/>
+      <c r="F582" s="10"/>
+      <c r="G582" s="10"/>
+    </row>
+    <row r="583" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C583" s="10"/>
+      <c r="D583" s="24"/>
+      <c r="E583" s="10"/>
+      <c r="F583" s="10"/>
+      <c r="G583" s="10"/>
+    </row>
+    <row r="584" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C584" s="10"/>
+      <c r="D584" s="24"/>
+      <c r="E584" s="10"/>
+      <c r="F584" s="10"/>
+      <c r="G584" s="10"/>
+    </row>
+    <row r="585" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C585" s="10"/>
+      <c r="D585" s="24"/>
+      <c r="E585" s="10"/>
+      <c r="F585" s="10"/>
+      <c r="G585" s="10"/>
+    </row>
+    <row r="586" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C586" s="10"/>
+      <c r="D586" s="24"/>
+      <c r="E586" s="10"/>
+      <c r="F586" s="10"/>
+      <c r="G586" s="10"/>
+    </row>
+    <row r="587" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C587" s="10"/>
+      <c r="D587" s="24"/>
+      <c r="E587" s="10"/>
+      <c r="F587" s="10"/>
+      <c r="G587" s="10"/>
+    </row>
+    <row r="588" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C588" s="10"/>
+      <c r="D588" s="24"/>
+      <c r="E588" s="10"/>
+      <c r="F588" s="10"/>
+      <c r="G588" s="10"/>
+    </row>
+    <row r="589" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C589" s="10"/>
+      <c r="D589" s="24"/>
+      <c r="E589" s="10"/>
+      <c r="F589" s="10"/>
+      <c r="G589" s="10"/>
+    </row>
+    <row r="590" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C590" s="10"/>
+      <c r="D590" s="24"/>
+      <c r="E590" s="10"/>
+      <c r="F590" s="10"/>
+      <c r="G590" s="10"/>
+    </row>
+    <row r="591" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C591" s="10"/>
+      <c r="D591" s="24"/>
+      <c r="E591" s="10"/>
+      <c r="F591" s="10"/>
+      <c r="G591" s="10"/>
+    </row>
+    <row r="592" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C592" s="10"/>
+      <c r="D592" s="24"/>
+      <c r="E592" s="10"/>
+      <c r="F592" s="10"/>
+      <c r="G592" s="10"/>
+    </row>
+    <row r="593" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C593" s="10"/>
+      <c r="D593" s="24"/>
+      <c r="E593" s="10"/>
+      <c r="F593" s="10"/>
+      <c r="G593" s="10"/>
+    </row>
+    <row r="594" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C594" s="10"/>
+      <c r="D594" s="24"/>
+      <c r="E594" s="10"/>
+      <c r="F594" s="10"/>
+      <c r="G594" s="10"/>
+    </row>
+    <row r="595" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C595" s="10"/>
+      <c r="D595" s="24"/>
+      <c r="E595" s="10"/>
+      <c r="F595" s="10"/>
+      <c r="G595" s="10"/>
+    </row>
+    <row r="596" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C596" s="10"/>
+      <c r="D596" s="24"/>
+      <c r="E596" s="10"/>
+      <c r="F596" s="10"/>
+      <c r="G596" s="10"/>
+    </row>
+    <row r="597" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C597" s="10"/>
+      <c r="D597" s="24"/>
+      <c r="E597" s="10"/>
+      <c r="F597" s="10"/>
+      <c r="G597" s="10"/>
+    </row>
+    <row r="598" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C598" s="10"/>
+      <c r="D598" s="24"/>
+      <c r="E598" s="10"/>
+      <c r="F598" s="10"/>
+      <c r="G598" s="10"/>
+    </row>
+    <row r="599" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C599" s="10"/>
+      <c r="D599" s="24"/>
+      <c r="E599" s="10"/>
+      <c r="F599" s="10"/>
+      <c r="G599" s="10"/>
+    </row>
+    <row r="600" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C600" s="10"/>
+      <c r="D600" s="24"/>
+      <c r="E600" s="10"/>
+      <c r="F600" s="10"/>
+      <c r="G600" s="10"/>
+    </row>
+    <row r="601" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C601" s="10"/>
+      <c r="D601" s="24"/>
+      <c r="E601" s="10"/>
+      <c r="F601" s="10"/>
+      <c r="G601" s="10"/>
+    </row>
+    <row r="602" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C602" s="10"/>
+      <c r="D602" s="24"/>
+      <c r="E602" s="10"/>
+      <c r="F602" s="10"/>
+      <c r="G602" s="10"/>
+    </row>
+    <row r="603" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C603" s="10"/>
+      <c r="D603" s="24"/>
+      <c r="E603" s="10"/>
+      <c r="F603" s="10"/>
+      <c r="G603" s="10"/>
+    </row>
+    <row r="604" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C604" s="10"/>
+      <c r="D604" s="24"/>
+      <c r="E604" s="10"/>
+      <c r="F604" s="10"/>
+      <c r="G604" s="10"/>
+    </row>
+    <row r="605" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C605" s="10"/>
+      <c r="D605" s="24"/>
+      <c r="E605" s="10"/>
+      <c r="F605" s="10"/>
+      <c r="G605" s="10"/>
+    </row>
+    <row r="606" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C606" s="10"/>
+      <c r="D606" s="24"/>
+      <c r="E606" s="10"/>
+      <c r="F606" s="10"/>
+      <c r="G606" s="10"/>
+    </row>
+    <row r="607" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C607" s="10"/>
+      <c r="D607" s="24"/>
+      <c r="E607" s="10"/>
+      <c r="F607" s="10"/>
+      <c r="G607" s="10"/>
+    </row>
+    <row r="608" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C608" s="10"/>
+      <c r="D608" s="24"/>
+      <c r="E608" s="10"/>
+      <c r="F608" s="10"/>
+      <c r="G608" s="10"/>
+    </row>
+    <row r="609" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C609" s="10"/>
+      <c r="D609" s="24"/>
+      <c r="E609" s="10"/>
+      <c r="F609" s="10"/>
+      <c r="G609" s="10"/>
+    </row>
+    <row r="610" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C610" s="10"/>
+      <c r="D610" s="24"/>
+      <c r="E610" s="10"/>
+      <c r="F610" s="10"/>
+      <c r="G610" s="10"/>
+    </row>
+    <row r="611" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C611" s="10"/>
+      <c r="D611" s="24"/>
+      <c r="E611" s="10"/>
+      <c r="F611" s="10"/>
+      <c r="G611" s="10"/>
+    </row>
+    <row r="612" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C612" s="10"/>
+      <c r="D612" s="24"/>
+      <c r="E612" s="10"/>
+      <c r="F612" s="10"/>
+      <c r="G612" s="10"/>
+    </row>
+    <row r="613" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C613" s="10"/>
+      <c r="D613" s="24"/>
+      <c r="E613" s="10"/>
+      <c r="F613" s="10"/>
+      <c r="G613" s="10"/>
+    </row>
+    <row r="614" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C614" s="10"/>
+      <c r="D614" s="24"/>
+      <c r="E614" s="10"/>
+      <c r="F614" s="10"/>
+      <c r="G614" s="10"/>
+    </row>
+    <row r="615" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C615" s="10"/>
+      <c r="D615" s="24"/>
+      <c r="E615" s="10"/>
+      <c r="F615" s="10"/>
+      <c r="G615" s="10"/>
+    </row>
+    <row r="616" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C616" s="10"/>
+      <c r="D616" s="24"/>
+      <c r="E616" s="10"/>
+      <c r="F616" s="10"/>
+      <c r="G616" s="10"/>
+    </row>
+    <row r="617" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C617" s="10"/>
+      <c r="D617" s="24"/>
+      <c r="E617" s="10"/>
+      <c r="F617" s="10"/>
+      <c r="G617" s="10"/>
+    </row>
+    <row r="618" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C618" s="10"/>
+      <c r="D618" s="24"/>
+      <c r="E618" s="10"/>
+      <c r="F618" s="10"/>
+      <c r="G618" s="10"/>
+    </row>
+    <row r="619" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C619" s="10"/>
+      <c r="D619" s="24"/>
+      <c r="E619" s="10"/>
+      <c r="F619" s="10"/>
+      <c r="G619" s="10"/>
+    </row>
+    <row r="620" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C620" s="10"/>
+      <c r="D620" s="24"/>
+      <c r="E620" s="10"/>
+      <c r="F620" s="10"/>
+      <c r="G620" s="10"/>
+    </row>
+    <row r="621" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C621" s="10"/>
+      <c r="D621" s="24"/>
+      <c r="E621" s="10"/>
+      <c r="F621" s="10"/>
+      <c r="G621" s="10"/>
+    </row>
+    <row r="622" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C622" s="10"/>
+      <c r="D622" s="24"/>
+      <c r="E622" s="10"/>
+      <c r="F622" s="10"/>
+      <c r="G622" s="10"/>
+    </row>
+    <row r="623" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C623" s="10"/>
+      <c r="D623" s="24"/>
+      <c r="E623" s="10"/>
+      <c r="F623" s="10"/>
+      <c r="G623" s="10"/>
+    </row>
+    <row r="624" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C624" s="10"/>
+      <c r="D624" s="24"/>
+      <c r="E624" s="10"/>
+      <c r="F624" s="10"/>
+      <c r="G624" s="10"/>
+    </row>
+    <row r="625" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C625" s="10"/>
+      <c r="D625" s="24"/>
+      <c r="E625" s="10"/>
+      <c r="F625" s="10"/>
+      <c r="G625" s="10"/>
+    </row>
+    <row r="626" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C626" s="10"/>
+      <c r="D626" s="24"/>
+      <c r="E626" s="10"/>
+      <c r="F626" s="10"/>
+      <c r="G626" s="10"/>
+    </row>
+    <row r="627" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C627" s="10"/>
+      <c r="D627" s="24"/>
+      <c r="E627" s="10"/>
+      <c r="F627" s="10"/>
+      <c r="G627" s="10"/>
+    </row>
+    <row r="628" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C628" s="10"/>
+      <c r="D628" s="24"/>
+      <c r="E628" s="10"/>
+      <c r="F628" s="10"/>
+      <c r="G628" s="10"/>
+    </row>
+    <row r="629" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C629" s="10"/>
+      <c r="D629" s="24"/>
+      <c r="E629" s="10"/>
+      <c r="F629" s="10"/>
+      <c r="G629" s="10"/>
+    </row>
+    <row r="630" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C630" s="10"/>
+      <c r="D630" s="24"/>
+      <c r="E630" s="10"/>
+      <c r="F630" s="10"/>
+      <c r="G630" s="10"/>
+    </row>
+    <row r="631" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C631" s="10"/>
+      <c r="D631" s="24"/>
+      <c r="E631" s="10"/>
+      <c r="F631" s="10"/>
+      <c r="G631" s="10"/>
+    </row>
+    <row r="632" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C632" s="10"/>
+      <c r="D632" s="24"/>
+      <c r="E632" s="10"/>
+      <c r="F632" s="10"/>
+      <c r="G632" s="10"/>
+    </row>
+    <row r="633" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C633" s="10"/>
+      <c r="D633" s="24"/>
+      <c r="E633" s="10"/>
+      <c r="F633" s="10"/>
+      <c r="G633" s="10"/>
+    </row>
+    <row r="634" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C634" s="10"/>
+      <c r="D634" s="24"/>
+      <c r="E634" s="10"/>
+      <c r="F634" s="10"/>
+      <c r="G634" s="10"/>
+    </row>
+    <row r="635" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C635" s="10"/>
+      <c r="D635" s="24"/>
+      <c r="E635" s="10"/>
+      <c r="F635" s="10"/>
+      <c r="G635" s="10"/>
+    </row>
+    <row r="636" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C636" s="10"/>
+      <c r="D636" s="24"/>
+      <c r="E636" s="10"/>
+      <c r="F636" s="10"/>
+      <c r="G636" s="10"/>
+    </row>
+    <row r="637" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C637" s="10"/>
+      <c r="D637" s="24"/>
+      <c r="E637" s="10"/>
+      <c r="F637" s="10"/>
+      <c r="G637" s="10"/>
+    </row>
+    <row r="638" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C638" s="10"/>
+      <c r="D638" s="24"/>
+      <c r="E638" s="10"/>
+      <c r="F638" s="10"/>
+      <c r="G638" s="10"/>
+    </row>
+    <row r="639" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C639" s="10"/>
+      <c r="D639" s="24"/>
+      <c r="E639" s="10"/>
+      <c r="F639" s="10"/>
+      <c r="G639" s="10"/>
+    </row>
+    <row r="640" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C640" s="10"/>
+      <c r="D640" s="24"/>
+      <c r="E640" s="10"/>
+      <c r="F640" s="10"/>
+      <c r="G640" s="10"/>
+    </row>
+    <row r="641" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C641" s="10"/>
+      <c r="D641" s="24"/>
+      <c r="E641" s="10"/>
+      <c r="F641" s="10"/>
+      <c r="G641" s="10"/>
+    </row>
+    <row r="642" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C642" s="10"/>
+      <c r="D642" s="24"/>
+      <c r="E642" s="10"/>
+      <c r="F642" s="10"/>
+      <c r="G642" s="10"/>
+    </row>
+    <row r="643" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C643" s="10"/>
+      <c r="D643" s="24"/>
+      <c r="E643" s="10"/>
+      <c r="F643" s="10"/>
+      <c r="G643" s="10"/>
+    </row>
+    <row r="644" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C644" s="10"/>
+      <c r="D644" s="24"/>
+      <c r="E644" s="10"/>
+      <c r="F644" s="10"/>
+      <c r="G644" s="10"/>
+    </row>
+    <row r="645" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C645" s="10"/>
+      <c r="D645" s="24"/>
+      <c r="E645" s="10"/>
+      <c r="F645" s="10"/>
+      <c r="G645" s="10"/>
+    </row>
+    <row r="646" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C646" s="10"/>
+      <c r="D646" s="24"/>
+      <c r="E646" s="10"/>
+      <c r="F646" s="10"/>
+      <c r="G646" s="10"/>
+    </row>
+    <row r="647" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C647" s="10"/>
+      <c r="D647" s="24"/>
+      <c r="E647" s="10"/>
+      <c r="F647" s="10"/>
+      <c r="G647" s="10"/>
+    </row>
+    <row r="648" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C648" s="10"/>
+      <c r="D648" s="24"/>
+      <c r="E648" s="10"/>
+      <c r="F648" s="10"/>
+      <c r="G648" s="10"/>
+    </row>
+    <row r="649" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C649" s="10"/>
+      <c r="D649" s="24"/>
+      <c r="E649" s="10"/>
+      <c r="F649" s="10"/>
+      <c r="G649" s="10"/>
+    </row>
+    <row r="650" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C650" s="10"/>
+      <c r="D650" s="24"/>
+      <c r="E650" s="10"/>
+      <c r="F650" s="10"/>
+      <c r="G650" s="10"/>
+    </row>
+    <row r="651" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C651" s="10"/>
+      <c r="D651" s="24"/>
+      <c r="E651" s="10"/>
+      <c r="F651" s="10"/>
+      <c r="G651" s="10"/>
+    </row>
+    <row r="652" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C652" s="10"/>
+      <c r="D652" s="24"/>
+      <c r="E652" s="10"/>
+      <c r="F652" s="10"/>
+      <c r="G652" s="10"/>
+    </row>
+    <row r="653" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C653" s="10"/>
+      <c r="D653" s="24"/>
+      <c r="E653" s="10"/>
+      <c r="F653" s="10"/>
+      <c r="G653" s="10"/>
+    </row>
+    <row r="654" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C654" s="10"/>
+      <c r="D654" s="24"/>
+      <c r="E654" s="10"/>
+      <c r="F654" s="10"/>
+      <c r="G654" s="10"/>
+    </row>
+    <row r="655" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C655" s="10"/>
+      <c r="D655" s="24"/>
+      <c r="E655" s="10"/>
+      <c r="F655" s="10"/>
+      <c r="G655" s="10"/>
+    </row>
+    <row r="656" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C656" s="10"/>
+      <c r="D656" s="24"/>
+      <c r="E656" s="10"/>
+      <c r="F656" s="10"/>
+      <c r="G656" s="10"/>
+    </row>
+    <row r="657" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C657" s="10"/>
+      <c r="D657" s="24"/>
+      <c r="E657" s="10"/>
+      <c r="F657" s="10"/>
+      <c r="G657" s="10"/>
+    </row>
+    <row r="658" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C658" s="10"/>
+      <c r="D658" s="24"/>
+      <c r="E658" s="10"/>
+      <c r="F658" s="10"/>
+      <c r="G658" s="10"/>
+    </row>
+    <row r="659" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C659" s="10"/>
+      <c r="D659" s="24"/>
+      <c r="E659" s="10"/>
+      <c r="F659" s="10"/>
+      <c r="G659" s="10"/>
+    </row>
+    <row r="660" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C660" s="10"/>
+      <c r="D660" s="24"/>
+      <c r="E660" s="10"/>
+      <c r="F660" s="10"/>
+      <c r="G660" s="10"/>
+    </row>
+    <row r="661" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C661" s="10"/>
+      <c r="D661" s="24"/>
+      <c r="E661" s="10"/>
+      <c r="F661" s="10"/>
+      <c r="G661" s="10"/>
+    </row>
+    <row r="662" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C662" s="10"/>
+      <c r="D662" s="24"/>
+      <c r="E662" s="10"/>
+      <c r="F662" s="10"/>
+      <c r="G662" s="10"/>
+    </row>
+    <row r="663" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C663" s="10"/>
+      <c r="D663" s="24"/>
+      <c r="E663" s="10"/>
+      <c r="F663" s="10"/>
+      <c r="G663" s="10"/>
+    </row>
+    <row r="664" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C664" s="10"/>
+      <c r="D664" s="24"/>
+      <c r="E664" s="10"/>
+      <c r="F664" s="10"/>
+      <c r="G664" s="10"/>
+    </row>
+    <row r="665" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C665" s="10"/>
+      <c r="D665" s="24"/>
+      <c r="E665" s="10"/>
+      <c r="F665" s="10"/>
+      <c r="G665" s="10"/>
+    </row>
+    <row r="666" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C666" s="10"/>
+      <c r="D666" s="24"/>
+      <c r="E666" s="10"/>
+      <c r="F666" s="10"/>
+      <c r="G666" s="10"/>
+    </row>
+    <row r="667" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C667" s="10"/>
+      <c r="D667" s="24"/>
+      <c r="E667" s="10"/>
+      <c r="F667" s="10"/>
+      <c r="G667" s="10"/>
+    </row>
+    <row r="668" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C668" s="10"/>
+      <c r="D668" s="24"/>
+      <c r="E668" s="10"/>
+      <c r="F668" s="10"/>
+      <c r="G668" s="10"/>
+    </row>
+    <row r="669" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C669" s="10"/>
+      <c r="D669" s="24"/>
+      <c r="E669" s="10"/>
+      <c r="F669" s="10"/>
+      <c r="G669" s="10"/>
+    </row>
+    <row r="670" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C670" s="10"/>
+      <c r="D670" s="24"/>
+      <c r="E670" s="10"/>
+      <c r="F670" s="10"/>
+      <c r="G670" s="10"/>
+    </row>
+    <row r="671" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C671" s="10"/>
+      <c r="D671" s="24"/>
+      <c r="E671" s="10"/>
+      <c r="F671" s="10"/>
+      <c r="G671" s="10"/>
+    </row>
+    <row r="672" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C672" s="10"/>
+      <c r="D672" s="24"/>
+      <c r="E672" s="10"/>
+      <c r="F672" s="10"/>
+      <c r="G672" s="10"/>
+    </row>
+    <row r="673" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C673" s="10"/>
+      <c r="D673" s="24"/>
+      <c r="E673" s="10"/>
+      <c r="F673" s="10"/>
+      <c r="G673" s="10"/>
+    </row>
+    <row r="674" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C674" s="10"/>
+      <c r="D674" s="24"/>
+      <c r="E674" s="10"/>
+      <c r="F674" s="10"/>
+      <c r="G674" s="10"/>
+    </row>
+    <row r="675" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C675" s="10"/>
+      <c r="D675" s="24"/>
+      <c r="E675" s="10"/>
+      <c r="F675" s="10"/>
+      <c r="G675" s="10"/>
+    </row>
+    <row r="676" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C676" s="10"/>
+      <c r="D676" s="24"/>
+      <c r="E676" s="10"/>
+      <c r="F676" s="10"/>
+      <c r="G676" s="10"/>
+    </row>
+    <row r="677" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C677" s="10"/>
+      <c r="D677" s="24"/>
+      <c r="E677" s="10"/>
+      <c r="F677" s="10"/>
+      <c r="G677" s="10"/>
+    </row>
+    <row r="678" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C678" s="10"/>
+      <c r="D678" s="24"/>
+      <c r="E678" s="10"/>
+      <c r="F678" s="10"/>
+      <c r="G678" s="10"/>
+    </row>
+    <row r="679" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C679" s="10"/>
+      <c r="D679" s="24"/>
+      <c r="E679" s="10"/>
+      <c r="F679" s="10"/>
+      <c r="G679" s="10"/>
+    </row>
+    <row r="680" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C680" s="10"/>
+      <c r="D680" s="24"/>
+      <c r="E680" s="10"/>
+      <c r="F680" s="10"/>
+      <c r="G680" s="10"/>
+    </row>
+    <row r="681" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C681" s="10"/>
+      <c r="D681" s="24"/>
+      <c r="E681" s="10"/>
+      <c r="F681" s="10"/>
+      <c r="G681" s="10"/>
+    </row>
+    <row r="682" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C682" s="10"/>
+      <c r="D682" s="24"/>
+      <c r="E682" s="10"/>
+      <c r="F682" s="10"/>
+      <c r="G682" s="10"/>
+    </row>
+    <row r="683" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C683" s="10"/>
+      <c r="D683" s="24"/>
+      <c r="E683" s="10"/>
+      <c r="F683" s="10"/>
+      <c r="G683" s="10"/>
+    </row>
+    <row r="684" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C684" s="10"/>
+      <c r="D684" s="24"/>
+      <c r="E684" s="10"/>
+      <c r="F684" s="10"/>
+      <c r="G684" s="10"/>
+    </row>
+    <row r="685" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C685" s="10"/>
+      <c r="D685" s="24"/>
+      <c r="E685" s="10"/>
+      <c r="F685" s="10"/>
+      <c r="G685" s="10"/>
+    </row>
+    <row r="686" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C686" s="10"/>
+      <c r="D686" s="24"/>
+      <c r="E686" s="10"/>
+      <c r="F686" s="10"/>
+      <c r="G686" s="10"/>
+    </row>
+    <row r="687" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C687" s="10"/>
+      <c r="D687" s="24"/>
+      <c r="E687" s="10"/>
+      <c r="F687" s="10"/>
+      <c r="G687" s="10"/>
+    </row>
+    <row r="688" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C688" s="10"/>
+      <c r="D688" s="24"/>
+      <c r="E688" s="10"/>
+      <c r="F688" s="10"/>
+      <c r="G688" s="10"/>
+    </row>
+    <row r="689" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C689" s="10"/>
+      <c r="D689" s="24"/>
+      <c r="E689" s="10"/>
+      <c r="F689" s="10"/>
+      <c r="G689" s="10"/>
+    </row>
+    <row r="690" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C690" s="10"/>
+      <c r="D690" s="24"/>
+      <c r="E690" s="10"/>
+      <c r="F690" s="10"/>
+      <c r="G690" s="10"/>
+    </row>
+    <row r="691" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C691" s="10"/>
+      <c r="D691" s="24"/>
+      <c r="E691" s="10"/>
+      <c r="F691" s="10"/>
+      <c r="G691" s="10"/>
+    </row>
+    <row r="692" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C692" s="10"/>
+      <c r="D692" s="24"/>
+      <c r="E692" s="10"/>
+      <c r="F692" s="10"/>
+      <c r="G692" s="10"/>
+    </row>
+    <row r="693" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C693" s="10"/>
+      <c r="D693" s="24"/>
+      <c r="E693" s="10"/>
+      <c r="F693" s="10"/>
+      <c r="G693" s="10"/>
+    </row>
+    <row r="694" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C694" s="10"/>
+      <c r="D694" s="24"/>
+      <c r="E694" s="10"/>
+      <c r="F694" s="10"/>
+      <c r="G694" s="10"/>
+    </row>
+    <row r="695" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C695" s="10"/>
+      <c r="D695" s="24"/>
+      <c r="E695" s="10"/>
+      <c r="F695" s="10"/>
+      <c r="G695" s="10"/>
+    </row>
+    <row r="696" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C696" s="10"/>
+      <c r="D696" s="24"/>
+      <c r="E696" s="10"/>
+      <c r="F696" s="10"/>
+      <c r="G696" s="10"/>
+    </row>
+    <row r="697" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C697" s="10"/>
+      <c r="D697" s="24"/>
+      <c r="E697" s="10"/>
+      <c r="F697" s="10"/>
+      <c r="G697" s="10"/>
+    </row>
+    <row r="698" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C698" s="10"/>
+      <c r="D698" s="24"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="10"/>
+      <c r="G698" s="10"/>
+    </row>
+    <row r="699" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C699" s="10"/>
+      <c r="D699" s="24"/>
+      <c r="E699" s="10"/>
+      <c r="F699" s="10"/>
+      <c r="G699" s="10"/>
+    </row>
+    <row r="700" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C700" s="10"/>
+      <c r="D700" s="24"/>
+      <c r="E700" s="10"/>
+      <c r="F700" s="10"/>
+      <c r="G700" s="10"/>
+    </row>
+    <row r="701" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C701" s="10"/>
+      <c r="D701" s="24"/>
+      <c r="E701" s="10"/>
+      <c r="F701" s="10"/>
+      <c r="G701" s="10"/>
+    </row>
+    <row r="702" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C702" s="10"/>
+      <c r="D702" s="24"/>
+      <c r="E702" s="10"/>
+      <c r="F702" s="10"/>
+      <c r="G702" s="10"/>
+    </row>
+    <row r="703" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C703" s="10"/>
+      <c r="D703" s="24"/>
+      <c r="E703" s="10"/>
+      <c r="F703" s="10"/>
+      <c r="G703" s="10"/>
+    </row>
+    <row r="704" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C704" s="10"/>
+      <c r="D704" s="24"/>
+      <c r="E704" s="10"/>
+      <c r="F704" s="10"/>
+      <c r="G704" s="10"/>
+    </row>
+    <row r="705" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C705" s="10"/>
+      <c r="D705" s="24"/>
+      <c r="E705" s="10"/>
+      <c r="F705" s="10"/>
+      <c r="G705" s="10"/>
+    </row>
+    <row r="706" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C706" s="10"/>
+      <c r="D706" s="24"/>
+      <c r="E706" s="10"/>
+      <c r="F706" s="10"/>
+      <c r="G706" s="10"/>
+    </row>
+    <row r="707" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C707" s="10"/>
+      <c r="D707" s="24"/>
+      <c r="E707" s="10"/>
+      <c r="F707" s="10"/>
+      <c r="G707" s="10"/>
+    </row>
+    <row r="708" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C708" s="10"/>
+      <c r="D708" s="24"/>
+      <c r="E708" s="10"/>
+      <c r="F708" s="10"/>
+      <c r="G708" s="10"/>
+    </row>
+    <row r="709" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C709" s="10"/>
+      <c r="D709" s="24"/>
+      <c r="E709" s="10"/>
+      <c r="F709" s="10"/>
+      <c r="G709" s="10"/>
+    </row>
+    <row r="710" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C710" s="10"/>
+      <c r="D710" s="24"/>
+      <c r="E710" s="10"/>
+      <c r="F710" s="10"/>
+      <c r="G710" s="10"/>
+    </row>
+    <row r="711" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C711" s="10"/>
+      <c r="D711" s="24"/>
+      <c r="E711" s="10"/>
+      <c r="F711" s="10"/>
+      <c r="G711" s="10"/>
+    </row>
+    <row r="712" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C712" s="10"/>
+      <c r="D712" s="24"/>
+      <c r="E712" s="10"/>
+      <c r="F712" s="10"/>
+      <c r="G712" s="10"/>
+    </row>
+    <row r="713" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C713" s="10"/>
+      <c r="D713" s="24"/>
+      <c r="E713" s="10"/>
+      <c r="F713" s="10"/>
+      <c r="G713" s="10"/>
+    </row>
+    <row r="714" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C714" s="10"/>
+      <c r="D714" s="24"/>
+      <c r="E714" s="10"/>
+      <c r="F714" s="10"/>
+      <c r="G714" s="10"/>
+    </row>
+    <row r="715" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C715" s="10"/>
+      <c r="D715" s="24"/>
+      <c r="E715" s="10"/>
+      <c r="F715" s="10"/>
+      <c r="G715" s="10"/>
+    </row>
+    <row r="716" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C716" s="10"/>
+      <c r="D716" s="24"/>
+      <c r="E716" s="10"/>
+      <c r="F716" s="10"/>
+      <c r="G716" s="10"/>
+    </row>
+    <row r="717" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C717" s="10"/>
+      <c r="D717" s="24"/>
+      <c r="E717" s="10"/>
+      <c r="F717" s="10"/>
+      <c r="G717" s="10"/>
+    </row>
+    <row r="718" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C718" s="10"/>
+      <c r="D718" s="24"/>
+      <c r="E718" s="10"/>
+      <c r="F718" s="10"/>
+      <c r="G718" s="10"/>
+    </row>
+    <row r="719" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C719" s="10"/>
+      <c r="D719" s="24"/>
+      <c r="E719" s="10"/>
+      <c r="F719" s="10"/>
+      <c r="G719" s="10"/>
+    </row>
+    <row r="720" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C720" s="10"/>
+      <c r="D720" s="24"/>
+      <c r="E720" s="10"/>
+      <c r="F720" s="10"/>
+      <c r="G720" s="10"/>
+    </row>
+    <row r="721" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C721" s="10"/>
+      <c r="D721" s="24"/>
+      <c r="E721" s="10"/>
+      <c r="F721" s="10"/>
+      <c r="G721" s="10"/>
+    </row>
+    <row r="722" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C722" s="10"/>
+      <c r="D722" s="24"/>
+      <c r="E722" s="10"/>
+      <c r="F722" s="10"/>
+      <c r="G722" s="10"/>
+    </row>
+    <row r="723" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C723" s="10"/>
+      <c r="D723" s="24"/>
+      <c r="E723" s="10"/>
+      <c r="F723" s="10"/>
+      <c r="G723" s="10"/>
+    </row>
+    <row r="724" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C724" s="10"/>
+      <c r="D724" s="24"/>
+      <c r="E724" s="10"/>
+      <c r="F724" s="10"/>
+      <c r="G724" s="10"/>
+    </row>
+    <row r="725" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C725" s="10"/>
+      <c r="D725" s="24"/>
+      <c r="E725" s="10"/>
+      <c r="F725" s="10"/>
+      <c r="G725" s="10"/>
+    </row>
+    <row r="726" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C726" s="10"/>
+      <c r="D726" s="24"/>
+      <c r="E726" s="10"/>
+      <c r="F726" s="10"/>
+      <c r="G726" s="10"/>
+    </row>
+    <row r="727" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C727" s="10"/>
+      <c r="D727" s="24"/>
+      <c r="E727" s="10"/>
+      <c r="F727" s="10"/>
+      <c r="G727" s="10"/>
+    </row>
+    <row r="728" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C728" s="10"/>
+      <c r="D728" s="24"/>
+      <c r="E728" s="10"/>
+      <c r="F728" s="10"/>
+      <c r="G728" s="10"/>
+    </row>
+    <row r="729" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C729" s="10"/>
+      <c r="D729" s="24"/>
+      <c r="E729" s="10"/>
+      <c r="F729" s="10"/>
+      <c r="G729" s="10"/>
+    </row>
+    <row r="730" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C730" s="10"/>
+      <c r="D730" s="24"/>
+      <c r="E730" s="10"/>
+      <c r="F730" s="10"/>
+      <c r="G730" s="10"/>
+    </row>
+    <row r="731" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C731" s="10"/>
+      <c r="D731" s="24"/>
+      <c r="E731" s="10"/>
+      <c r="F731" s="10"/>
+      <c r="G731" s="10"/>
+    </row>
+    <row r="732" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C732" s="10"/>
+      <c r="D732" s="24"/>
+      <c r="E732" s="10"/>
+      <c r="F732" s="10"/>
+      <c r="G732" s="10"/>
+    </row>
+    <row r="733" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C733" s="10"/>
+      <c r="D733" s="24"/>
+      <c r="E733" s="10"/>
+      <c r="F733" s="10"/>
+      <c r="G733" s="10"/>
+    </row>
+    <row r="734" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C734" s="10"/>
+      <c r="D734" s="24"/>
+      <c r="E734" s="10"/>
+      <c r="F734" s="10"/>
+      <c r="G734" s="10"/>
+    </row>
+    <row r="735" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C735" s="10"/>
+      <c r="D735" s="24"/>
+      <c r="E735" s="10"/>
+      <c r="F735" s="10"/>
+      <c r="G735" s="10"/>
+    </row>
+    <row r="736" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C736" s="10"/>
+      <c r="D736" s="24"/>
+      <c r="E736" s="10"/>
+      <c r="F736" s="10"/>
+      <c r="G736" s="10"/>
+    </row>
+    <row r="737" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C737" s="10"/>
+      <c r="D737" s="24"/>
+      <c r="E737" s="10"/>
+      <c r="F737" s="10"/>
+      <c r="G737" s="10"/>
+    </row>
+    <row r="738" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C738" s="10"/>
+      <c r="D738" s="24"/>
+      <c r="E738" s="10"/>
+      <c r="F738" s="10"/>
+      <c r="G738" s="10"/>
+    </row>
+    <row r="739" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C739" s="10"/>
+      <c r="D739" s="24"/>
+      <c r="E739" s="10"/>
+      <c r="F739" s="10"/>
+      <c r="G739" s="10"/>
+    </row>
+    <row r="740" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C740" s="10"/>
+      <c r="D740" s="24"/>
+      <c r="E740" s="10"/>
+      <c r="F740" s="10"/>
+      <c r="G740" s="10"/>
+    </row>
+    <row r="741" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C741" s="10"/>
+      <c r="D741" s="24"/>
+      <c r="E741" s="10"/>
+      <c r="F741" s="10"/>
+      <c r="G741" s="10"/>
+    </row>
+    <row r="742" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C742" s="10"/>
+      <c r="D742" s="24"/>
+      <c r="E742" s="10"/>
+      <c r="F742" s="10"/>
+      <c r="G742" s="10"/>
+    </row>
+    <row r="743" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C743" s="10"/>
+      <c r="D743" s="24"/>
+      <c r="E743" s="10"/>
+      <c r="F743" s="10"/>
+      <c r="G743" s="10"/>
+    </row>
+    <row r="744" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C744" s="10"/>
+      <c r="D744" s="24"/>
+      <c r="E744" s="10"/>
+      <c r="F744" s="10"/>
+      <c r="G744" s="10"/>
+    </row>
+    <row r="745" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C745" s="10"/>
+      <c r="D745" s="24"/>
+      <c r="E745" s="10"/>
+      <c r="F745" s="10"/>
+      <c r="G745" s="10"/>
+    </row>
+    <row r="746" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C746" s="10"/>
+      <c r="D746" s="24"/>
+      <c r="E746" s="10"/>
+      <c r="F746" s="10"/>
+      <c r="G746" s="10"/>
+    </row>
+    <row r="747" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C747" s="10"/>
+      <c r="D747" s="24"/>
+      <c r="E747" s="10"/>
+      <c r="F747" s="10"/>
+      <c r="G747" s="10"/>
+    </row>
+    <row r="748" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C748" s="10"/>
+      <c r="D748" s="24"/>
+      <c r="E748" s="10"/>
+      <c r="F748" s="10"/>
+      <c r="G748" s="10"/>
+    </row>
+    <row r="749" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C749" s="10"/>
+      <c r="D749" s="24"/>
+      <c r="E749" s="10"/>
+      <c r="F749" s="10"/>
+      <c r="G749" s="10"/>
+    </row>
+    <row r="750" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C750" s="10"/>
+      <c r="D750" s="24"/>
+      <c r="E750" s="10"/>
+      <c r="F750" s="10"/>
+      <c r="G750" s="10"/>
+    </row>
+    <row r="751" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C751" s="10"/>
+      <c r="D751" s="24"/>
+      <c r="E751" s="10"/>
+      <c r="F751" s="10"/>
+      <c r="G751" s="10"/>
+    </row>
+    <row r="752" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C752" s="10"/>
+      <c r="D752" s="24"/>
+      <c r="E752" s="10"/>
+      <c r="F752" s="10"/>
+      <c r="G752" s="10"/>
+    </row>
+    <row r="753" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C753" s="10"/>
+      <c r="D753" s="24"/>
+      <c r="E753" s="10"/>
+      <c r="F753" s="10"/>
+      <c r="G753" s="10"/>
+    </row>
+    <row r="754" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C754" s="10"/>
+      <c r="D754" s="24"/>
+      <c r="E754" s="10"/>
+      <c r="F754" s="10"/>
+      <c r="G754" s="10"/>
+    </row>
+    <row r="755" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C755" s="10"/>
+      <c r="D755" s="24"/>
+      <c r="E755" s="10"/>
+      <c r="F755" s="10"/>
+      <c r="G755" s="10"/>
+    </row>
+    <row r="756" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C756" s="10"/>
+      <c r="D756" s="24"/>
+      <c r="E756" s="10"/>
+      <c r="F756" s="10"/>
+      <c r="G756" s="10"/>
+    </row>
+    <row r="757" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C757" s="10"/>
+      <c r="D757" s="24"/>
+      <c r="E757" s="10"/>
+      <c r="F757" s="10"/>
+      <c r="G757" s="10"/>
+    </row>
+    <row r="758" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C758" s="10"/>
+      <c r="D758" s="24"/>
+      <c r="E758" s="10"/>
+      <c r="F758" s="10"/>
+      <c r="G758" s="10"/>
+    </row>
+    <row r="759" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C759" s="10"/>
+      <c r="D759" s="24"/>
+      <c r="E759" s="10"/>
+      <c r="F759" s="10"/>
+      <c r="G759" s="10"/>
+    </row>
+    <row r="760" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C760" s="10"/>
+      <c r="D760" s="24"/>
+      <c r="E760" s="10"/>
+      <c r="F760" s="10"/>
+      <c r="G760" s="10"/>
+    </row>
+    <row r="761" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C761" s="10"/>
+      <c r="D761" s="24"/>
+      <c r="E761" s="10"/>
+      <c r="F761" s="10"/>
+      <c r="G761" s="10"/>
+    </row>
+    <row r="762" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C762" s="10"/>
+      <c r="D762" s="24"/>
+      <c r="E762" s="10"/>
+      <c r="F762" s="10"/>
+      <c r="G762" s="10"/>
+    </row>
+    <row r="763" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C763" s="10"/>
+      <c r="D763" s="24"/>
+      <c r="E763" s="10"/>
+      <c r="F763" s="10"/>
+      <c r="G763" s="10"/>
+    </row>
+    <row r="764" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C764" s="10"/>
+      <c r="D764" s="24"/>
+      <c r="E764" s="10"/>
+      <c r="F764" s="10"/>
+      <c r="G764" s="10"/>
+    </row>
+    <row r="765" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C765" s="10"/>
+      <c r="D765" s="24"/>
+      <c r="E765" s="10"/>
+      <c r="F765" s="10"/>
+      <c r="G765" s="10"/>
+    </row>
+    <row r="766" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C766" s="10"/>
+      <c r="D766" s="24"/>
+      <c r="E766" s="10"/>
+      <c r="F766" s="10"/>
+      <c r="G766" s="10"/>
+    </row>
+    <row r="767" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C767" s="10"/>
+      <c r="D767" s="24"/>
+      <c r="E767" s="10"/>
+      <c r="F767" s="10"/>
+      <c r="G767" s="10"/>
+    </row>
+    <row r="768" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C768" s="10"/>
+      <c r="D768" s="24"/>
+      <c r="E768" s="10"/>
+      <c r="F768" s="10"/>
+      <c r="G768" s="10"/>
+    </row>
+    <row r="769" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C769" s="10"/>
+      <c r="D769" s="24"/>
+      <c r="E769" s="10"/>
+      <c r="F769" s="10"/>
+      <c r="G769" s="10"/>
+    </row>
+    <row r="770" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C770" s="10"/>
+      <c r="D770" s="24"/>
+      <c r="E770" s="10"/>
+      <c r="F770" s="10"/>
+      <c r="G770" s="10"/>
+    </row>
+    <row r="771" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C771" s="10"/>
+      <c r="D771" s="24"/>
+      <c r="E771" s="10"/>
+      <c r="F771" s="10"/>
+      <c r="G771" s="10"/>
+    </row>
+    <row r="772" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C772" s="10"/>
+      <c r="D772" s="24"/>
+      <c r="E772" s="10"/>
+      <c r="F772" s="10"/>
+      <c r="G772" s="10"/>
+    </row>
+    <row r="773" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C773" s="10"/>
+      <c r="D773" s="24"/>
+      <c r="E773" s="10"/>
+      <c r="F773" s="10"/>
+      <c r="G773" s="10"/>
+    </row>
+    <row r="774" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C774" s="10"/>
+      <c r="D774" s="24"/>
+      <c r="E774" s="10"/>
+      <c r="F774" s="10"/>
+      <c r="G774" s="10"/>
+    </row>
+    <row r="775" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C775" s="10"/>
+      <c r="D775" s="24"/>
+      <c r="E775" s="10"/>
+      <c r="F775" s="10"/>
+      <c r="G775" s="10"/>
+    </row>
+    <row r="776" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C776" s="10"/>
+      <c r="D776" s="24"/>
+      <c r="E776" s="10"/>
+      <c r="F776" s="10"/>
+      <c r="G776" s="10"/>
+    </row>
+    <row r="777" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C777" s="10"/>
+      <c r="D777" s="24"/>
+      <c r="E777" s="10"/>
+      <c r="F777" s="10"/>
+      <c r="G777" s="10"/>
+    </row>
+    <row r="778" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C778" s="10"/>
+      <c r="D778" s="24"/>
+      <c r="E778" s="10"/>
+      <c r="F778" s="10"/>
+      <c r="G778" s="10"/>
+    </row>
+    <row r="779" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C779" s="10"/>
+      <c r="D779" s="24"/>
+      <c r="E779" s="10"/>
+      <c r="F779" s="10"/>
+      <c r="G779" s="10"/>
+    </row>
+    <row r="780" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C780" s="10"/>
+      <c r="D780" s="24"/>
+      <c r="E780" s="10"/>
+      <c r="F780" s="10"/>
+      <c r="G780" s="10"/>
+    </row>
+    <row r="781" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C781" s="10"/>
+      <c r="D781" s="24"/>
+      <c r="E781" s="10"/>
+      <c r="F781" s="10"/>
+      <c r="G781" s="10"/>
+    </row>
+    <row r="782" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C782" s="10"/>
+      <c r="D782" s="24"/>
+      <c r="E782" s="10"/>
+      <c r="F782" s="10"/>
+      <c r="G782" s="10"/>
+    </row>
+    <row r="783" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C783" s="10"/>
+      <c r="D783" s="24"/>
+      <c r="E783" s="10"/>
+      <c r="F783" s="10"/>
+      <c r="G783" s="10"/>
+    </row>
+    <row r="784" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C784" s="10"/>
+      <c r="D784" s="24"/>
+      <c r="E784" s="10"/>
+      <c r="F784" s="10"/>
+      <c r="G784" s="10"/>
+    </row>
+    <row r="785" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C785" s="10"/>
+      <c r="D785" s="24"/>
+      <c r="E785" s="10"/>
+      <c r="F785" s="10"/>
+      <c r="G785" s="10"/>
+    </row>
+    <row r="786" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C786" s="10"/>
+      <c r="D786" s="24"/>
+      <c r="E786" s="10"/>
+      <c r="F786" s="10"/>
+      <c r="G786" s="10"/>
+    </row>
+    <row r="787" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C787" s="10"/>
+      <c r="D787" s="24"/>
+      <c r="E787" s="10"/>
+      <c r="F787" s="10"/>
+      <c r="G787" s="10"/>
+    </row>
+    <row r="788" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C788" s="10"/>
+      <c r="D788" s="24"/>
+      <c r="E788" s="10"/>
+      <c r="F788" s="10"/>
+      <c r="G788" s="10"/>
+    </row>
+    <row r="789" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C789" s="10"/>
+      <c r="D789" s="24"/>
+      <c r="E789" s="10"/>
+      <c r="F789" s="10"/>
+      <c r="G789" s="10"/>
+    </row>
+    <row r="790" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C790" s="10"/>
+      <c r="D790" s="24"/>
+      <c r="E790" s="10"/>
+      <c r="F790" s="10"/>
+      <c r="G790" s="10"/>
+    </row>
+    <row r="791" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C791" s="10"/>
+      <c r="D791" s="24"/>
+      <c r="E791" s="10"/>
+      <c r="F791" s="10"/>
+      <c r="G791" s="10"/>
+    </row>
+    <row r="792" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C792" s="10"/>
+      <c r="D792" s="24"/>
+      <c r="E792" s="10"/>
+      <c r="F792" s="10"/>
+      <c r="G792" s="10"/>
+    </row>
+    <row r="793" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C793" s="10"/>
+      <c r="D793" s="24"/>
+      <c r="E793" s="10"/>
+      <c r="F793" s="10"/>
+      <c r="G793" s="10"/>
+    </row>
+    <row r="794" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C794" s="10"/>
+      <c r="D794" s="24"/>
+      <c r="E794" s="10"/>
+      <c r="F794" s="10"/>
+      <c r="G794" s="10"/>
+    </row>
+    <row r="795" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C795" s="10"/>
+      <c r="D795" s="24"/>
+      <c r="E795" s="10"/>
+      <c r="F795" s="10"/>
+      <c r="G795" s="10"/>
+    </row>
+    <row r="796" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C796" s="10"/>
+      <c r="D796" s="24"/>
+      <c r="E796" s="10"/>
+      <c r="F796" s="10"/>
+      <c r="G796" s="10"/>
+    </row>
+    <row r="797" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C797" s="10"/>
+      <c r="D797" s="24"/>
+      <c r="E797" s="10"/>
+      <c r="F797" s="10"/>
+      <c r="G797" s="10"/>
+    </row>
+    <row r="798" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C798" s="10"/>
+      <c r="D798" s="24"/>
+      <c r="E798" s="10"/>
+      <c r="F798" s="10"/>
+      <c r="G798" s="10"/>
+    </row>
+    <row r="799" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C799" s="10"/>
+      <c r="D799" s="24"/>
+      <c r="E799" s="10"/>
+      <c r="F799" s="10"/>
+      <c r="G799" s="10"/>
+    </row>
+    <row r="800" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C800" s="10"/>
+      <c r="D800" s="24"/>
+      <c r="E800" s="10"/>
+      <c r="F800" s="10"/>
+      <c r="G800" s="10"/>
+    </row>
+    <row r="801" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C801" s="10"/>
+      <c r="D801" s="24"/>
+      <c r="E801" s="10"/>
+      <c r="F801" s="10"/>
+      <c r="G801" s="10"/>
+    </row>
+    <row r="802" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C802" s="10"/>
+      <c r="D802" s="24"/>
+      <c r="E802" s="10"/>
+      <c r="F802" s="10"/>
+      <c r="G802" s="10"/>
+    </row>
+    <row r="803" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C803" s="10"/>
+      <c r="D803" s="24"/>
+      <c r="E803" s="10"/>
+      <c r="F803" s="10"/>
+      <c r="G803" s="10"/>
+    </row>
+    <row r="804" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C804" s="10"/>
+      <c r="D804" s="24"/>
+      <c r="E804" s="10"/>
+      <c r="F804" s="10"/>
+      <c r="G804" s="10"/>
+    </row>
+    <row r="805" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C805" s="10"/>
+      <c r="D805" s="24"/>
+      <c r="E805" s="10"/>
+      <c r="F805" s="10"/>
+      <c r="G805" s="10"/>
+    </row>
+    <row r="806" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C806" s="10"/>
+      <c r="D806" s="24"/>
+      <c r="E806" s="10"/>
+      <c r="F806" s="10"/>
+      <c r="G806" s="10"/>
+    </row>
+    <row r="807" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C807" s="10"/>
+      <c r="D807" s="24"/>
+      <c r="E807" s="10"/>
+      <c r="F807" s="10"/>
+      <c r="G807" s="10"/>
+    </row>
+    <row r="808" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C808" s="10"/>
+      <c r="D808" s="24"/>
+      <c r="E808" s="10"/>
+      <c r="F808" s="10"/>
+      <c r="G808" s="10"/>
+    </row>
+    <row r="809" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C809" s="10"/>
+      <c r="D809" s="24"/>
+      <c r="E809" s="10"/>
+      <c r="F809" s="10"/>
+      <c r="G809" s="10"/>
+    </row>
+    <row r="810" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C810" s="10"/>
+      <c r="D810" s="24"/>
+      <c r="E810" s="10"/>
+      <c r="F810" s="10"/>
+      <c r="G810" s="10"/>
+    </row>
+    <row r="811" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C811" s="10"/>
+      <c r="D811" s="24"/>
+      <c r="E811" s="10"/>
+      <c r="F811" s="10"/>
+      <c r="G811" s="10"/>
+    </row>
+    <row r="812" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C812" s="10"/>
+      <c r="D812" s="24"/>
+      <c r="E812" s="10"/>
+      <c r="F812" s="10"/>
+      <c r="G812" s="10"/>
+    </row>
+    <row r="813" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C813" s="10"/>
+      <c r="D813" s="24"/>
+      <c r="E813" s="10"/>
+      <c r="F813" s="10"/>
+      <c r="G813" s="10"/>
+    </row>
+    <row r="814" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C814" s="10"/>
+      <c r="D814" s="24"/>
+      <c r="E814" s="10"/>
+      <c r="F814" s="10"/>
+      <c r="G814" s="10"/>
+    </row>
+    <row r="815" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C815" s="10"/>
+      <c r="D815" s="24"/>
+      <c r="E815" s="10"/>
+      <c r="F815" s="10"/>
+      <c r="G815" s="10"/>
+    </row>
+    <row r="816" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C816" s="10"/>
+      <c r="D816" s="24"/>
+      <c r="E816" s="10"/>
+      <c r="F816" s="10"/>
+      <c r="G816" s="10"/>
+    </row>
+    <row r="817" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C817" s="10"/>
+      <c r="D817" s="24"/>
+      <c r="E817" s="10"/>
+      <c r="F817" s="10"/>
+      <c r="G817" s="10"/>
+    </row>
+    <row r="818" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C818" s="10"/>
+      <c r="D818" s="24"/>
+      <c r="E818" s="10"/>
+      <c r="F818" s="10"/>
+      <c r="G818" s="10"/>
+    </row>
+    <row r="819" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C819" s="10"/>
+      <c r="D819" s="24"/>
+      <c r="E819" s="10"/>
+      <c r="F819" s="10"/>
+      <c r="G819" s="10"/>
+    </row>
+    <row r="820" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C820" s="10"/>
+      <c r="D820" s="24"/>
+      <c r="E820" s="10"/>
+      <c r="F820" s="10"/>
+      <c r="G820" s="10"/>
+    </row>
+    <row r="821" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C821" s="10"/>
+      <c r="D821" s="24"/>
+      <c r="E821" s="10"/>
+      <c r="F821" s="10"/>
+      <c r="G821" s="10"/>
+    </row>
+    <row r="822" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C822" s="10"/>
+      <c r="D822" s="24"/>
+      <c r="E822" s="10"/>
+      <c r="F822" s="10"/>
+      <c r="G822" s="10"/>
+    </row>
+    <row r="823" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C823" s="10"/>
+      <c r="D823" s="24"/>
+      <c r="E823" s="10"/>
+      <c r="F823" s="10"/>
+      <c r="G823" s="10"/>
+    </row>
+    <row r="824" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C824" s="10"/>
+      <c r="D824" s="24"/>
+      <c r="E824" s="10"/>
+      <c r="F824" s="10"/>
+      <c r="G824" s="10"/>
+    </row>
+    <row r="825" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C825" s="10"/>
+      <c r="D825" s="24"/>
+      <c r="E825" s="10"/>
+      <c r="F825" s="10"/>
+      <c r="G825" s="10"/>
+    </row>
+    <row r="826" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C826" s="10"/>
+      <c r="D826" s="24"/>
+      <c r="E826" s="10"/>
+      <c r="F826" s="10"/>
+      <c r="G826" s="10"/>
+    </row>
+    <row r="827" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C827" s="10"/>
+      <c r="D827" s="24"/>
+      <c r="E827" s="10"/>
+      <c r="F827" s="10"/>
+      <c r="G827" s="10"/>
+    </row>
+    <row r="828" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C828" s="10"/>
+      <c r="D828" s="24"/>
+      <c r="E828" s="10"/>
+      <c r="F828" s="10"/>
+      <c r="G828" s="10"/>
+    </row>
+    <row r="829" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C829" s="10"/>
+      <c r="D829" s="24"/>
+      <c r="E829" s="10"/>
+      <c r="F829" s="10"/>
+      <c r="G829" s="10"/>
+    </row>
+    <row r="830" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C830" s="10"/>
+      <c r="D830" s="24"/>
+      <c r="E830" s="10"/>
+      <c r="F830" s="10"/>
+      <c r="G830" s="10"/>
+    </row>
+    <row r="831" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C831" s="10"/>
+      <c r="D831" s="24"/>
+      <c r="E831" s="10"/>
+      <c r="F831" s="10"/>
+      <c r="G831" s="10"/>
+    </row>
+    <row r="832" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C832" s="10"/>
+      <c r="D832" s="24"/>
+      <c r="E832" s="10"/>
+      <c r="F832" s="10"/>
+      <c r="G832" s="10"/>
+    </row>
+    <row r="833" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C833" s="10"/>
+      <c r="D833" s="24"/>
+      <c r="E833" s="10"/>
+      <c r="F833" s="10"/>
+      <c r="G833" s="10"/>
+    </row>
+    <row r="834" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C834" s="10"/>
+      <c r="D834" s="24"/>
+      <c r="E834" s="10"/>
+      <c r="F834" s="10"/>
+      <c r="G834" s="10"/>
+    </row>
+    <row r="835" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C835" s="10"/>
+      <c r="D835" s="24"/>
+      <c r="E835" s="10"/>
+      <c r="F835" s="10"/>
+      <c r="G835" s="10"/>
+    </row>
+    <row r="836" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C836" s="10"/>
+      <c r="D836" s="24"/>
+      <c r="E836" s="10"/>
+      <c r="F836" s="10"/>
+      <c r="G836" s="10"/>
+    </row>
+    <row r="837" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C837" s="10"/>
+      <c r="D837" s="24"/>
+      <c r="E837" s="10"/>
+      <c r="F837" s="10"/>
+      <c r="G837" s="10"/>
+    </row>
+    <row r="838" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C838" s="10"/>
+      <c r="D838" s="24"/>
+      <c r="E838" s="10"/>
+      <c r="F838" s="10"/>
+      <c r="G838" s="10"/>
+    </row>
+    <row r="839" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C839" s="10"/>
+      <c r="D839" s="24"/>
+      <c r="E839" s="10"/>
+      <c r="F839" s="10"/>
+      <c r="G839" s="10"/>
+    </row>
+    <row r="840" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C840" s="10"/>
+      <c r="D840" s="24"/>
+      <c r="E840" s="10"/>
+      <c r="F840" s="10"/>
+      <c r="G840" s="10"/>
+    </row>
+    <row r="841" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C841" s="10"/>
+      <c r="D841" s="24"/>
+      <c r="E841" s="10"/>
+      <c r="F841" s="10"/>
+      <c r="G841" s="10"/>
+    </row>
+    <row r="842" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C842" s="10"/>
+      <c r="D842" s="24"/>
+      <c r="E842" s="10"/>
+      <c r="F842" s="10"/>
+      <c r="G842" s="10"/>
+    </row>
+    <row r="843" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C843" s="10"/>
+      <c r="D843" s="24"/>
+      <c r="E843" s="10"/>
+      <c r="F843" s="10"/>
+      <c r="G843" s="10"/>
+    </row>
+    <row r="844" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C844" s="10"/>
+      <c r="D844" s="24"/>
+      <c r="E844" s="10"/>
+      <c r="F844" s="10"/>
+      <c r="G844" s="10"/>
+    </row>
+    <row r="845" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C845" s="10"/>
+      <c r="D845" s="24"/>
+      <c r="E845" s="10"/>
+      <c r="F845" s="10"/>
+      <c r="G845" s="10"/>
+    </row>
+    <row r="846" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C846" s="10"/>
+      <c r="D846" s="24"/>
+      <c r="E846" s="10"/>
+      <c r="F846" s="10"/>
+      <c r="G846" s="10"/>
+    </row>
+    <row r="847" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C847" s="10"/>
+      <c r="D847" s="24"/>
+      <c r="E847" s="10"/>
+      <c r="F847" s="10"/>
+      <c r="G847" s="10"/>
+    </row>
+    <row r="848" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C848" s="10"/>
+      <c r="D848" s="24"/>
+      <c r="E848" s="10"/>
+      <c r="F848" s="10"/>
+      <c r="G848" s="10"/>
+    </row>
+    <row r="849" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C849" s="10"/>
+      <c r="D849" s="24"/>
+      <c r="E849" s="10"/>
+      <c r="F849" s="10"/>
+      <c r="G849" s="10"/>
+    </row>
+    <row r="850" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C850" s="10"/>
+      <c r="D850" s="24"/>
+      <c r="E850" s="10"/>
+      <c r="F850" s="10"/>
+      <c r="G850" s="10"/>
+    </row>
+    <row r="851" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C851" s="10"/>
+      <c r="D851" s="24"/>
+      <c r="E851" s="10"/>
+      <c r="F851" s="10"/>
+      <c r="G851" s="10"/>
+    </row>
+    <row r="852" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C852" s="10"/>
+      <c r="D852" s="24"/>
+      <c r="E852" s="10"/>
+      <c r="F852" s="10"/>
+      <c r="G852" s="10"/>
+    </row>
+    <row r="853" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C853" s="10"/>
+      <c r="D853" s="24"/>
+      <c r="E853" s="10"/>
+      <c r="F853" s="10"/>
+      <c r="G853" s="10"/>
+    </row>
+    <row r="854" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C854" s="10"/>
+      <c r="D854" s="24"/>
+      <c r="E854" s="10"/>
+      <c r="F854" s="10"/>
+      <c r="G854" s="10"/>
+    </row>
+    <row r="855" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C855" s="10"/>
+      <c r="D855" s="24"/>
+      <c r="E855" s="10"/>
+      <c r="F855" s="10"/>
+      <c r="G855" s="10"/>
+    </row>
+    <row r="856" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C856" s="10"/>
+      <c r="D856" s="24"/>
+      <c r="E856" s="10"/>
+      <c r="F856" s="10"/>
+      <c r="G856" s="10"/>
+    </row>
+    <row r="857" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C857" s="10"/>
+      <c r="D857" s="24"/>
+      <c r="E857" s="10"/>
+      <c r="F857" s="10"/>
+      <c r="G857" s="10"/>
+    </row>
+    <row r="858" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C858" s="10"/>
+      <c r="D858" s="24"/>
+      <c r="E858" s="10"/>
+      <c r="F858" s="10"/>
+      <c r="G858" s="10"/>
+    </row>
+    <row r="859" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C859" s="10"/>
+      <c r="D859" s="24"/>
+      <c r="E859" s="10"/>
+      <c r="F859" s="10"/>
+      <c r="G859" s="10"/>
+    </row>
+    <row r="860" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C860" s="10"/>
+      <c r="D860" s="24"/>
+      <c r="E860" s="10"/>
+      <c r="F860" s="10"/>
+      <c r="G860" s="10"/>
+    </row>
+    <row r="861" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C861" s="10"/>
+      <c r="D861" s="24"/>
+      <c r="E861" s="10"/>
+      <c r="F861" s="10"/>
+      <c r="G861" s="10"/>
+    </row>
+    <row r="862" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C862" s="10"/>
+      <c r="D862" s="24"/>
+      <c r="E862" s="10"/>
+      <c r="F862" s="10"/>
+      <c r="G862" s="10"/>
+    </row>
+    <row r="863" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C863" s="10"/>
+      <c r="D863" s="24"/>
+      <c r="E863" s="10"/>
+      <c r="F863" s="10"/>
+      <c r="G863" s="10"/>
+    </row>
+    <row r="864" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C864" s="10"/>
+      <c r="D864" s="24"/>
+      <c r="E864" s="10"/>
+      <c r="F864" s="10"/>
+      <c r="G864" s="10"/>
+    </row>
+    <row r="865" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C865" s="10"/>
+      <c r="D865" s="24"/>
+      <c r="E865" s="10"/>
+      <c r="F865" s="10"/>
+      <c r="G865" s="10"/>
+    </row>
+    <row r="866" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C866" s="10"/>
+      <c r="D866" s="24"/>
+      <c r="E866" s="10"/>
+      <c r="F866" s="10"/>
+      <c r="G866" s="10"/>
+    </row>
+    <row r="867" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C867" s="10"/>
+      <c r="D867" s="24"/>
+      <c r="E867" s="10"/>
+      <c r="F867" s="10"/>
+      <c r="G867" s="10"/>
+    </row>
+    <row r="868" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C868" s="10"/>
+      <c r="D868" s="24"/>
+      <c r="E868" s="10"/>
+      <c r="F868" s="10"/>
+      <c r="G868" s="10"/>
+    </row>
+    <row r="869" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C869" s="10"/>
+      <c r="D869" s="24"/>
+      <c r="E869" s="10"/>
+      <c r="F869" s="10"/>
+      <c r="G869" s="10"/>
+    </row>
+    <row r="870" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C870" s="10"/>
+      <c r="D870" s="24"/>
+      <c r="E870" s="10"/>
+      <c r="F870" s="10"/>
+      <c r="G870" s="10"/>
+    </row>
+    <row r="871" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C871" s="10"/>
+      <c r="D871" s="24"/>
+      <c r="E871" s="10"/>
+      <c r="F871" s="10"/>
+      <c r="G871" s="10"/>
+    </row>
+    <row r="872" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C872" s="10"/>
+      <c r="D872" s="24"/>
+      <c r="E872" s="10"/>
+      <c r="F872" s="10"/>
+      <c r="G872" s="10"/>
+    </row>
+    <row r="873" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C873" s="10"/>
+      <c r="D873" s="24"/>
+      <c r="E873" s="10"/>
+      <c r="F873" s="10"/>
+      <c r="G873" s="10"/>
+    </row>
+    <row r="874" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C874" s="10"/>
+      <c r="D874" s="24"/>
+      <c r="E874" s="10"/>
+      <c r="F874" s="10"/>
+      <c r="G874" s="10"/>
+    </row>
+    <row r="875" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C875" s="10"/>
+      <c r="D875" s="24"/>
+      <c r="E875" s="10"/>
+      <c r="F875" s="10"/>
+      <c r="G875" s="10"/>
+    </row>
+    <row r="876" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C876" s="10"/>
+      <c r="D876" s="24"/>
+      <c r="E876" s="10"/>
+      <c r="F876" s="10"/>
+      <c r="G876" s="10"/>
+    </row>
+    <row r="877" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C877" s="10"/>
+      <c r="D877" s="24"/>
+      <c r="E877" s="10"/>
+      <c r="F877" s="10"/>
+      <c r="G877" s="10"/>
+    </row>
+    <row r="878" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C878" s="10"/>
+      <c r="D878" s="24"/>
+      <c r="E878" s="10"/>
+      <c r="F878" s="10"/>
+      <c r="G878" s="10"/>
+    </row>
+    <row r="879" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C879" s="10"/>
+      <c r="D879" s="24"/>
+      <c r="E879" s="10"/>
+      <c r="F879" s="10"/>
+      <c r="G879" s="10"/>
+    </row>
+    <row r="880" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C880" s="10"/>
+      <c r="D880" s="24"/>
+      <c r="E880" s="10"/>
+      <c r="F880" s="10"/>
+      <c r="G880" s="10"/>
+    </row>
+    <row r="881" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C881" s="10"/>
+      <c r="D881" s="24"/>
+      <c r="E881" s="10"/>
+      <c r="F881" s="10"/>
+      <c r="G881" s="10"/>
+    </row>
+    <row r="882" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C882" s="10"/>
+      <c r="D882" s="24"/>
+      <c r="E882" s="10"/>
+      <c r="F882" s="10"/>
+      <c r="G882" s="10"/>
+    </row>
+    <row r="883" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C883" s="10"/>
+      <c r="D883" s="24"/>
+      <c r="E883" s="10"/>
+      <c r="F883" s="10"/>
+      <c r="G883" s="10"/>
+    </row>
+    <row r="884" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C884" s="10"/>
+      <c r="D884" s="24"/>
+      <c r="E884" s="10"/>
+      <c r="F884" s="10"/>
+      <c r="G884" s="10"/>
+    </row>
+    <row r="885" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C885" s="10"/>
+      <c r="D885" s="24"/>
+      <c r="E885" s="10"/>
+      <c r="F885" s="10"/>
+      <c r="G885" s="10"/>
+    </row>
+    <row r="886" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C886" s="10"/>
+      <c r="D886" s="24"/>
+      <c r="E886" s="10"/>
+      <c r="F886" s="10"/>
+      <c r="G886" s="10"/>
+    </row>
+    <row r="887" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C887" s="10"/>
+      <c r="D887" s="24"/>
+      <c r="E887" s="10"/>
+      <c r="F887" s="10"/>
+      <c r="G887" s="10"/>
+    </row>
+    <row r="888" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C888" s="10"/>
+      <c r="D888" s="24"/>
+      <c r="E888" s="10"/>
+      <c r="F888" s="10"/>
+      <c r="G888" s="10"/>
+    </row>
+    <row r="889" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C889" s="10"/>
+      <c r="D889" s="24"/>
+      <c r="E889" s="10"/>
+      <c r="F889" s="10"/>
+      <c r="G889" s="10"/>
+    </row>
+    <row r="890" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C890" s="10"/>
+      <c r="D890" s="24"/>
+      <c r="E890" s="10"/>
+      <c r="F890" s="10"/>
+      <c r="G890" s="10"/>
+    </row>
+    <row r="891" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C891" s="10"/>
+      <c r="D891" s="24"/>
+      <c r="E891" s="10"/>
+      <c r="F891" s="10"/>
+      <c r="G891" s="10"/>
+    </row>
+    <row r="892" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C892" s="10"/>
+      <c r="D892" s="24"/>
+      <c r="E892" s="10"/>
+      <c r="F892" s="10"/>
+      <c r="G892" s="10"/>
+    </row>
+    <row r="893" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C893" s="10"/>
+      <c r="D893" s="24"/>
+      <c r="E893" s="10"/>
+      <c r="F893" s="10"/>
+      <c r="G893" s="10"/>
+    </row>
+    <row r="894" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C894" s="10"/>
+      <c r="D894" s="24"/>
+      <c r="E894" s="10"/>
+      <c r="F894" s="10"/>
+      <c r="G894" s="10"/>
+    </row>
+    <row r="895" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C895" s="10"/>
+      <c r="D895" s="24"/>
+      <c r="E895" s="10"/>
+      <c r="F895" s="10"/>
+      <c r="G895" s="10"/>
+    </row>
+    <row r="896" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C896" s="10"/>
+      <c r="D896" s="24"/>
+      <c r="E896" s="10"/>
+      <c r="F896" s="10"/>
+      <c r="G896" s="10"/>
+    </row>
+    <row r="897" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C897" s="10"/>
+      <c r="D897" s="24"/>
+      <c r="E897" s="10"/>
+      <c r="F897" s="10"/>
+      <c r="G897" s="10"/>
+    </row>
+    <row r="898" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C898" s="10"/>
+      <c r="D898" s="24"/>
+      <c r="E898" s="10"/>
+      <c r="F898" s="10"/>
+      <c r="G898" s="10"/>
+    </row>
+    <row r="899" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C899" s="10"/>
+      <c r="D899" s="24"/>
+      <c r="E899" s="10"/>
+      <c r="F899" s="10"/>
+      <c r="G899" s="10"/>
+    </row>
+    <row r="900" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C900" s="10"/>
+      <c r="D900" s="24"/>
+      <c r="E900" s="10"/>
+      <c r="F900" s="10"/>
+      <c r="G900" s="10"/>
+    </row>
+    <row r="901" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C901" s="10"/>
+      <c r="D901" s="24"/>
+      <c r="E901" s="10"/>
+      <c r="F901" s="10"/>
+      <c r="G901" s="10"/>
+    </row>
+    <row r="902" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C902" s="10"/>
+      <c r="D902" s="24"/>
+      <c r="E902" s="10"/>
+      <c r="F902" s="10"/>
+      <c r="G902" s="10"/>
+    </row>
+    <row r="903" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C903" s="10"/>
+      <c r="D903" s="24"/>
+      <c r="E903" s="10"/>
+      <c r="F903" s="10"/>
+      <c r="G903" s="10"/>
+    </row>
+    <row r="904" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C904" s="10"/>
+      <c r="D904" s="24"/>
+      <c r="E904" s="10"/>
+      <c r="F904" s="10"/>
+      <c r="G904" s="10"/>
+    </row>
+    <row r="905" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C905" s="10"/>
+      <c r="D905" s="24"/>
+      <c r="E905" s="10"/>
+      <c r="F905" s="10"/>
+      <c r="G905" s="10"/>
+    </row>
+    <row r="906" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C906" s="10"/>
+      <c r="D906" s="24"/>
+      <c r="E906" s="10"/>
+      <c r="F906" s="10"/>
+      <c r="G906" s="10"/>
+    </row>
+    <row r="907" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C907" s="10"/>
+      <c r="D907" s="24"/>
+      <c r="E907" s="10"/>
+      <c r="F907" s="10"/>
+      <c r="G907" s="10"/>
+    </row>
+    <row r="908" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C908" s="10"/>
+      <c r="D908" s="24"/>
+      <c r="E908" s="10"/>
+      <c r="F908" s="10"/>
+      <c r="G908" s="10"/>
+    </row>
+    <row r="909" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C909" s="10"/>
+      <c r="D909" s="24"/>
+      <c r="E909" s="10"/>
+      <c r="F909" s="10"/>
+      <c r="G909" s="10"/>
+    </row>
+    <row r="910" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C910" s="10"/>
+      <c r="D910" s="24"/>
+      <c r="E910" s="10"/>
+      <c r="F910" s="10"/>
+      <c r="G910" s="10"/>
+    </row>
+    <row r="911" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C911" s="10"/>
+      <c r="D911" s="24"/>
+      <c r="E911" s="10"/>
+      <c r="F911" s="10"/>
+      <c r="G911" s="10"/>
+    </row>
+    <row r="912" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C912" s="10"/>
+      <c r="D912" s="24"/>
+      <c r="E912" s="10"/>
+      <c r="F912" s="10"/>
+      <c r="G912" s="10"/>
+    </row>
+    <row r="913" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C913" s="10"/>
+      <c r="D913" s="24"/>
+      <c r="E913" s="10"/>
+      <c r="F913" s="10"/>
+      <c r="G913" s="10"/>
+    </row>
+    <row r="914" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C914" s="10"/>
+      <c r="D914" s="24"/>
+      <c r="E914" s="10"/>
+      <c r="F914" s="10"/>
+      <c r="G914" s="10"/>
+    </row>
+    <row r="915" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C915" s="10"/>
+      <c r="D915" s="24"/>
+      <c r="E915" s="10"/>
+      <c r="F915" s="10"/>
+      <c r="G915" s="10"/>
+    </row>
+    <row r="916" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C916" s="10"/>
+      <c r="D916" s="24"/>
+      <c r="E916" s="10"/>
+      <c r="F916" s="10"/>
+      <c r="G916" s="10"/>
+    </row>
+    <row r="917" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C917" s="10"/>
+      <c r="D917" s="24"/>
+      <c r="E917" s="10"/>
+      <c r="F917" s="10"/>
+      <c r="G917" s="10"/>
+    </row>
+    <row r="918" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C918" s="10"/>
+      <c r="D918" s="24"/>
+      <c r="E918" s="10"/>
+      <c r="F918" s="10"/>
+      <c r="G918" s="10"/>
+    </row>
+    <row r="919" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C919" s="10"/>
+      <c r="D919" s="24"/>
+      <c r="E919" s="10"/>
+      <c r="F919" s="10"/>
+      <c r="G919" s="10"/>
+    </row>
+    <row r="920" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C920" s="10"/>
+      <c r="D920" s="24"/>
+      <c r="E920" s="10"/>
+      <c r="F920" s="10"/>
+      <c r="G920" s="10"/>
+    </row>
+    <row r="921" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C921" s="10"/>
+      <c r="D921" s="24"/>
+      <c r="E921" s="10"/>
+      <c r="F921" s="10"/>
+      <c r="G921" s="10"/>
+    </row>
+    <row r="922" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C922" s="10"/>
+      <c r="D922" s="24"/>
+      <c r="E922" s="10"/>
+      <c r="F922" s="10"/>
+      <c r="G922" s="10"/>
+    </row>
+    <row r="923" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C923" s="10"/>
+      <c r="D923" s="24"/>
+      <c r="E923" s="10"/>
+      <c r="F923" s="10"/>
+      <c r="G923" s="10"/>
+    </row>
+    <row r="924" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C924" s="10"/>
+      <c r="D924" s="24"/>
+      <c r="E924" s="10"/>
+      <c r="F924" s="10"/>
+      <c r="G924" s="10"/>
+    </row>
+    <row r="925" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C925" s="10"/>
+      <c r="D925" s="24"/>
+      <c r="E925" s="10"/>
+      <c r="F925" s="10"/>
+      <c r="G925" s="10"/>
+    </row>
+    <row r="926" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C926" s="10"/>
+      <c r="D926" s="24"/>
+      <c r="E926" s="10"/>
+      <c r="F926" s="10"/>
+      <c r="G926" s="10"/>
+    </row>
+    <row r="927" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C927" s="10"/>
+      <c r="D927" s="24"/>
+      <c r="E927" s="10"/>
+      <c r="F927" s="10"/>
+      <c r="G927" s="10"/>
+    </row>
+    <row r="928" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C928" s="10"/>
+      <c r="D928" s="24"/>
+      <c r="E928" s="10"/>
+      <c r="F928" s="10"/>
+      <c r="G928" s="10"/>
+    </row>
+    <row r="929" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C929" s="10"/>
+      <c r="D929" s="24"/>
+      <c r="E929" s="10"/>
+      <c r="F929" s="10"/>
+      <c r="G929" s="10"/>
+    </row>
+    <row r="930" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C930" s="10"/>
+      <c r="D930" s="24"/>
+      <c r="E930" s="10"/>
+      <c r="F930" s="10"/>
+      <c r="G930" s="10"/>
+    </row>
+    <row r="931" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C931" s="10"/>
+      <c r="D931" s="24"/>
+      <c r="E931" s="10"/>
+      <c r="F931" s="10"/>
+      <c r="G931" s="10"/>
+    </row>
+    <row r="932" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C932" s="10"/>
+      <c r="D932" s="24"/>
+      <c r="E932" s="10"/>
+      <c r="F932" s="10"/>
+      <c r="G932" s="10"/>
+    </row>
+    <row r="933" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C933" s="10"/>
+      <c r="D933" s="24"/>
+      <c r="E933" s="10"/>
+      <c r="F933" s="10"/>
+      <c r="G933" s="10"/>
+    </row>
+    <row r="934" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C934" s="10"/>
+      <c r="D934" s="24"/>
+      <c r="E934" s="10"/>
+      <c r="F934" s="10"/>
+      <c r="G934" s="10"/>
+    </row>
+    <row r="935" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C935" s="10"/>
+      <c r="D935" s="24"/>
+      <c r="E935" s="10"/>
+      <c r="F935" s="10"/>
+      <c r="G935" s="10"/>
+    </row>
+    <row r="936" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C936" s="10"/>
+      <c r="D936" s="24"/>
+      <c r="E936" s="10"/>
+      <c r="F936" s="10"/>
+      <c r="G936" s="10"/>
+    </row>
+    <row r="937" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C937" s="10"/>
+      <c r="D937" s="24"/>
+      <c r="E937" s="10"/>
+      <c r="F937" s="10"/>
+      <c r="G937" s="10"/>
+    </row>
+    <row r="938" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C938" s="10"/>
+      <c r="D938" s="24"/>
+      <c r="E938" s="10"/>
+      <c r="F938" s="10"/>
+      <c r="G938" s="10"/>
+    </row>
+    <row r="939" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C939" s="10"/>
+      <c r="D939" s="24"/>
+      <c r="E939" s="10"/>
+      <c r="F939" s="10"/>
+      <c r="G939" s="10"/>
+    </row>
+    <row r="940" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C940" s="10"/>
+      <c r="D940" s="24"/>
+      <c r="E940" s="10"/>
+      <c r="F940" s="10"/>
+      <c r="G940" s="10"/>
+    </row>
+    <row r="941" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C941" s="10"/>
+      <c r="D941" s="24"/>
+      <c r="E941" s="10"/>
+      <c r="F941" s="10"/>
+      <c r="G941" s="10"/>
+    </row>
+    <row r="942" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C942" s="10"/>
+      <c r="D942" s="24"/>
+      <c r="E942" s="10"/>
+      <c r="F942" s="10"/>
+      <c r="G942" s="10"/>
+    </row>
+    <row r="943" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C943" s="10"/>
+      <c r="D943" s="24"/>
+      <c r="E943" s="10"/>
+      <c r="F943" s="10"/>
+      <c r="G943" s="10"/>
+    </row>
+    <row r="944" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C944" s="10"/>
+      <c r="D944" s="24"/>
+      <c r="E944" s="10"/>
+      <c r="F944" s="10"/>
+      <c r="G944" s="10"/>
+    </row>
+    <row r="945" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C945" s="10"/>
+      <c r="D945" s="24"/>
+      <c r="E945" s="10"/>
+      <c r="F945" s="10"/>
+      <c r="G945" s="10"/>
+    </row>
+    <row r="946" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C946" s="10"/>
+      <c r="D946" s="24"/>
+      <c r="E946" s="10"/>
+      <c r="F946" s="10"/>
+      <c r="G946" s="10"/>
+    </row>
+    <row r="947" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C947" s="10"/>
+      <c r="D947" s="24"/>
+      <c r="E947" s="10"/>
+      <c r="F947" s="10"/>
+      <c r="G947" s="10"/>
+    </row>
+    <row r="948" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C948" s="10"/>
+      <c r="D948" s="24"/>
+      <c r="E948" s="10"/>
+      <c r="F948" s="10"/>
+      <c r="G948" s="10"/>
+    </row>
+    <row r="949" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C949" s="10"/>
+      <c r="D949" s="24"/>
+      <c r="E949" s="10"/>
+      <c r="F949" s="10"/>
+      <c r="G949" s="10"/>
+    </row>
+    <row r="950" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C950" s="10"/>
+      <c r="D950" s="24"/>
+      <c r="E950" s="10"/>
+      <c r="F950" s="10"/>
+      <c r="G950" s="10"/>
+    </row>
+    <row r="951" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C951" s="10"/>
+      <c r="D951" s="24"/>
+      <c r="E951" s="10"/>
+      <c r="F951" s="10"/>
+      <c r="G951" s="10"/>
+    </row>
+    <row r="952" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C952" s="10"/>
+      <c r="D952" s="24"/>
+      <c r="E952" s="10"/>
+      <c r="F952" s="10"/>
+      <c r="G952" s="10"/>
+    </row>
+    <row r="953" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C953" s="10"/>
+      <c r="D953" s="24"/>
+      <c r="E953" s="10"/>
+      <c r="F953" s="10"/>
+      <c r="G953" s="10"/>
+    </row>
+    <row r="954" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C954" s="10"/>
+      <c r="D954" s="24"/>
+      <c r="E954" s="10"/>
+      <c r="F954" s="10"/>
+      <c r="G954" s="10"/>
+    </row>
+    <row r="955" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C955" s="10"/>
+      <c r="D955" s="24"/>
+      <c r="E955" s="10"/>
+      <c r="F955" s="10"/>
+      <c r="G955" s="10"/>
+    </row>
+    <row r="956" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C956" s="10"/>
+      <c r="D956" s="24"/>
+      <c r="E956" s="10"/>
+      <c r="F956" s="10"/>
+      <c r="G956" s="10"/>
+    </row>
+    <row r="957" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C957" s="10"/>
+      <c r="D957" s="24"/>
+      <c r="E957" s="10"/>
+      <c r="F957" s="10"/>
+      <c r="G957" s="10"/>
+    </row>
+    <row r="958" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C958" s="10"/>
+      <c r="D958" s="24"/>
+      <c r="E958" s="10"/>
+      <c r="F958" s="10"/>
+      <c r="G958" s="10"/>
+    </row>
+    <row r="959" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C959" s="10"/>
+      <c r="D959" s="24"/>
+      <c r="E959" s="10"/>
+      <c r="F959" s="10"/>
+      <c r="G959" s="10"/>
+    </row>
+    <row r="960" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C960" s="10"/>
+      <c r="D960" s="24"/>
+      <c r="E960" s="10"/>
+      <c r="F960" s="10"/>
+      <c r="G960" s="10"/>
+    </row>
+    <row r="961" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C961" s="10"/>
+      <c r="D961" s="24"/>
+      <c r="E961" s="10"/>
+      <c r="F961" s="10"/>
+      <c r="G961" s="10"/>
+    </row>
+    <row r="962" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C962" s="10"/>
+      <c r="D962" s="24"/>
+      <c r="E962" s="10"/>
+      <c r="F962" s="10"/>
+      <c r="G962" s="10"/>
+    </row>
+    <row r="963" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C963" s="10"/>
+      <c r="D963" s="24"/>
+      <c r="E963" s="10"/>
+      <c r="F963" s="10"/>
+      <c r="G963" s="10"/>
+    </row>
+    <row r="964" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C964" s="10"/>
+      <c r="D964" s="24"/>
+      <c r="E964" s="10"/>
+      <c r="F964" s="10"/>
+      <c r="G964" s="10"/>
+    </row>
+    <row r="965" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C965" s="10"/>
+      <c r="D965" s="24"/>
+      <c r="E965" s="10"/>
+      <c r="F965" s="10"/>
+      <c r="G965" s="10"/>
+    </row>
+    <row r="966" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C966" s="10"/>
+      <c r="D966" s="24"/>
+      <c r="E966" s="10"/>
+      <c r="F966" s="10"/>
+      <c r="G966" s="10"/>
+    </row>
+    <row r="967" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C967" s="10"/>
+      <c r="D967" s="24"/>
+      <c r="E967" s="10"/>
+      <c r="F967" s="10"/>
+      <c r="G967" s="10"/>
+    </row>
+    <row r="968" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C968" s="10"/>
+      <c r="D968" s="24"/>
+      <c r="E968" s="10"/>
+      <c r="F968" s="10"/>
+      <c r="G968" s="10"/>
+    </row>
+    <row r="969" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C969" s="10"/>
+      <c r="D969" s="24"/>
+      <c r="E969" s="10"/>
+      <c r="F969" s="10"/>
+      <c r="G969" s="10"/>
+    </row>
+    <row r="970" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C970" s="10"/>
+      <c r="D970" s="24"/>
+      <c r="E970" s="10"/>
+      <c r="F970" s="10"/>
+      <c r="G970" s="10"/>
+    </row>
+    <row r="971" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C971" s="10"/>
+      <c r="D971" s="24"/>
+      <c r="E971" s="10"/>
+      <c r="F971" s="10"/>
+      <c r="G971" s="10"/>
+    </row>
+    <row r="972" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C972" s="10"/>
+      <c r="D972" s="24"/>
+      <c r="E972" s="10"/>
+      <c r="F972" s="10"/>
+      <c r="G972" s="10"/>
+    </row>
+    <row r="973" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C973" s="10"/>
+      <c r="D973" s="24"/>
+      <c r="E973" s="10"/>
+      <c r="F973" s="10"/>
+      <c r="G973" s="10"/>
+    </row>
+    <row r="974" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C974" s="10"/>
+      <c r="D974" s="24"/>
+      <c r="E974" s="10"/>
+      <c r="F974" s="10"/>
+      <c r="G974" s="10"/>
+    </row>
+    <row r="975" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C975" s="10"/>
+      <c r="D975" s="24"/>
+      <c r="E975" s="10"/>
+      <c r="F975" s="10"/>
+      <c r="G975" s="10"/>
+    </row>
+    <row r="976" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C976" s="10"/>
+      <c r="D976" s="24"/>
+      <c r="E976" s="10"/>
+      <c r="F976" s="10"/>
+      <c r="G976" s="10"/>
+    </row>
+    <row r="977" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C977" s="10"/>
+      <c r="D977" s="24"/>
+      <c r="E977" s="10"/>
+      <c r="F977" s="10"/>
+      <c r="G977" s="10"/>
+    </row>
+    <row r="978" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C978" s="10"/>
+      <c r="D978" s="24"/>
+      <c r="E978" s="10"/>
+      <c r="F978" s="10"/>
+      <c r="G978" s="10"/>
+    </row>
+    <row r="979" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C979" s="10"/>
+      <c r="D979" s="24"/>
+      <c r="E979" s="10"/>
+      <c r="F979" s="10"/>
+      <c r="G979" s="10"/>
+    </row>
+    <row r="980" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C980" s="10"/>
+      <c r="D980" s="24"/>
+      <c r="E980" s="10"/>
+      <c r="F980" s="10"/>
+      <c r="G980" s="10"/>
+    </row>
+    <row r="981" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C981" s="10"/>
+      <c r="D981" s="24"/>
+      <c r="E981" s="10"/>
+      <c r="F981" s="10"/>
+      <c r="G981" s="10"/>
+    </row>
+    <row r="982" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C982" s="10"/>
+      <c r="D982" s="24"/>
+      <c r="E982" s="10"/>
+      <c r="F982" s="10"/>
+      <c r="G982" s="10"/>
+    </row>
+    <row r="983" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C983" s="10"/>
+      <c r="D983" s="24"/>
+      <c r="E983" s="10"/>
+      <c r="F983" s="10"/>
+      <c r="G983" s="10"/>
+    </row>
+    <row r="984" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C984" s="10"/>
+      <c r="D984" s="24"/>
+      <c r="E984" s="10"/>
+      <c r="F984" s="10"/>
+      <c r="G984" s="10"/>
+    </row>
+    <row r="985" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C985" s="10"/>
+      <c r="D985" s="24"/>
+      <c r="E985" s="10"/>
+      <c r="F985" s="10"/>
+      <c r="G985" s="10"/>
+    </row>
+    <row r="986" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C986" s="10"/>
+      <c r="D986" s="24"/>
+      <c r="E986" s="10"/>
+      <c r="F986" s="10"/>
+      <c r="G986" s="10"/>
+    </row>
+    <row r="987" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C987" s="10"/>
+      <c r="D987" s="24"/>
+      <c r="E987" s="10"/>
+      <c r="F987" s="10"/>
+      <c r="G987" s="10"/>
+    </row>
+    <row r="988" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C988" s="10"/>
+      <c r="D988" s="24"/>
+      <c r="E988" s="10"/>
+      <c r="F988" s="10"/>
+      <c r="G988" s="10"/>
+    </row>
+    <row r="989" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C989" s="10"/>
+      <c r="D989" s="24"/>
+      <c r="E989" s="10"/>
+      <c r="F989" s="10"/>
+      <c r="G989" s="10"/>
+    </row>
+    <row r="990" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C990" s="10"/>
+      <c r="D990" s="24"/>
+      <c r="E990" s="10"/>
+      <c r="F990" s="10"/>
+      <c r="G990" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwBcAG4AXABuAC8ALwAgAEcAZQBuAGUAcgBhAHQAZQAgAGEAbgAgAGkAbgBkAGUAeAAgAGMAbwBsAHUAbQBuACAAdABoAGUAIABoAGUAaQBnAGgAdAAgAG8AZgAgAHQAaABlACAAZABhAHQAYQAgAGQAXABuAF8AZgBJAG4AZABlAHgAPQBMAEEATQBCAEQAQQAoAGQALAByACwASQBOAEQARQBYACgAZAAsAHIALABTAEUAUQBVAEUATgBDAEUAKAAxACwAQwBPAEwAVQBNAE4AUwAoAGQAKQApACkAKQA7AFwAbgAvAC8AIABTAHUAcABlAHIAWABMAE8ATwBLAFUAUABcAG4AXwBmAFMAVQBQAEUAUgBYAEwATwBPAEsAVQBQAD0ATABBAE0AQgBEAEEAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsAGwAbwBvAGsAdQBwAF8AYQByAHIAYQB5ACwAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABbAGkAZgBfAG4AbwB0AF8AZgBvAHUAbgBkAF0ALABbAG0AYQB0AGMAaABfAG0AbwBkAGUAXQAsAFsAcwBlAGEAcgBjAGgAXwBtAG8AZABlAF0ALABcAG4AIAAgACAAIABJAEYAKABcAG4AIAAgACAAIAAgACAAIAAgAEMATwBMAFUATQBOAFMAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQApACAAPQAgADEALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABYAE0AQQBUAEMASAAoAGwAbwBvAGsAdQBwAF8AdgBhAGwAdQBlACwAIABsAG8AbwBrAHUAcABfAGEAcgByAGEAeQAsACAAbQBhAHQAYwBoAF8AbQBvAGQAZQAsACAAcwBlAGEAcgBjAGgAXwBtAG8AZABlACkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKAAxACwAIABDAE8ATABVAE0ATgBTACgAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkAKQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQAsACAATgBBACgAKQAsACAAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkALABcAG4AIAAgACAAIAAgACAAIAAgAEkARgBFAFIAUgBPAFIAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAASQBOAEQARQBYACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkALABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABTAEUAUQBVAEUATgBDAEUAKABSAE8AVwBTACgAcgBlAHQAdQByAG4AXwBhAHIAcgBhAHkAKQApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAWABNAEEAVABDAEgAKABsAG8AbwBrAHUAcABfAHYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAXwBhAHIAcgBhAHkALAAgAG0AYQB0AGMAaABfAG0AbwBkAGUALAAgAHMAZQBhAHIAYwBoAF8AbQBvAGQAZQApAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEkARgAoAEkAUwBPAE0ASQBUAFQARQBEACgAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQAsACAATgBBACgAKQAsACAAaQBmAF8AbgBvAHQAXwBmAG8AdQBuAGQAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAATABpAG4AZQBhAHIAIABJAG4AdABlAHIAcABvAGwAYQB0AGkAbwBuACAARgBvAHIAbQB1AGwAYQBcAG4AXwBmAEkAbgB0AGUAcgBwAD0ATABBAE0AQgBEAEEAKAB4ACwAeABkAGEAdAAsAHkAZABhAHQALABcAG4AIAAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAgAHgAbQBpAG4ALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHgAZABhAHQALAAsAC0AMQApACwAXABuACAAIAAgACAAIAAgACAAIAAgAHgAbQBhAHgALAAgAFgATABPAE8ASwBVAFAAKAB4ACwAeABkAGEAdAAsAHgAZABhAHQALAAsADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAB5AG0AaQBuACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB5AGQAYQB0ACwALAAtADEAKQAsAFwAbgAgACAAIAAgACAAIAAgACAAIAB5AG0AYQB4ACwAIABYAEwATwBPAEsAVQBQACgAeAAsAHgAZABhAHQALAB5AGQAYQB0ACwALAAxACkALABcAG4AIAAgACAAIAAgACAAIAAgACAASQBGACgAeABtAGkAbgA9AHgAbQBhAHgALAB5AG0AaQBuACwAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACgAeQBtAGkAbgAqACgAeABtAGEAeAAtAHgAKQArAHkAbQBhAHgAKgAoAHgALQB4AG0AaQBuACkAKQAvACgAeABtAGEAeAAtAHgAbQBpAG4AKQApAFwAbgAgACAAIAAgACAAKQBcAG4AKQA7AFwAbgBcAG4ALwAvACAAQwBvAHUAbgB0ACAAYQAgAHMAcABlAGMAaQBmAGkAYwAgAGMAaABhAHIAYQBjAHQAZQByACAAaQBuACAAYQAgAHMAdAByAGkAbgBnAFwAbgBfAGYAQwBoAGEAcgBDAG8AdQBuAHQAPQBMAEEATQBCAEQAQQAoAHMALABjACwATABFAFQAKAB6ACwAUwBVAEIAUwBUAEkAVABVAFQARQAoAHMALABjACwAXAAiAFwAIgApACwATABFAE4AKABzACkALQBMAEUATgAoAHoAKQApACkAOwBcAG4AXABuAC8ALwAgAEYAaQBsAGwAIABEAG8AdwBuAFwAbgBfAGYARABOAD0ATABBAE0AQgBEAEEAKABhAHIAcgAsAFsAaQBuAGkAXQAsAFwAbgBMAEUAVAAoAFwAbgBfAGkAbgBpACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGkAbgBpACkALABcACIAXAAiACwAaQBuAGkAKQAsAFwAbgBTAEMAQQBOACgAXwBpAG4AaQAsAGEAcgByACwATABBAE0AQgBEAEEAKABhACwAdgAsAEkARgAoAEwARQBOACgAdgApAD0AMAAsAGEALAB2ACkAKQApAFwAbgApAFwAbgApADsAXABuAFwAbgAvAC8AIABGAGkAbABsACAAVQBwAFwAbgBfAGYAVQBQAD0ATABBAE0AQgBEAEEAKABhAHIAcgAsAFsAaQBuAGkAXQAsAFwAbgBMAEUAVAAoAFwAbgBfAGYALABMAEEATQBCAEQAQQAoAHoALABJAE4ARABFAFgAKAB6ACwAUwBFAFEAVQBFAE4AQwBFACgAUgBPAFcAUwAoAHoAKQAsADEALABSAE8AVwBTACgAegApACwALQAxACkAKQApACwAXABuAF8AYQByAHIALAAgAF8AZgAoAGEAcgByACkALABcAG4AXwBpAG4AaQAsACAASQBGACgASQBTAE8ATQBJAFQAVABFAEQAKABpAG4AaQApACwAXAAiAFwAIgAsAGkAbgBpACkALABcAG4AXwBmACgAUwBDAEEATgAoAF8AaQBuAGkALABfAGEAcgByACwATABBAE0AQgBEAEEAKABhACwAdgAsAEkARgAoAEwARQBOACgAdgApAD0AMAAsAGEALAB2ACkAKQApACkAXABuACkAXABuACkAOwBcAG4AXABuAC8ALwAgAEIAcgBvAGEAZABjAGEAcwB0ACAAZgBpAHIAcwB0ACAAYwBvAGwAdQBtAG4AXABuAF8AZgBCAEMAQQBTAFQAPQBMAEEATQBCAEQAQQAoAF8AbgBEAGEAdABhACwATABFAFQAKABmACwAIABMAEEATQBCAEQAQQAoAF8AZAAsAEwARQBUACgAXwBjACwAQwBPAEwAVQBNAE4AUwAoAF8AZAApAC0AMQAsAEQAUgBPAFAAKABSAEUARABVAEMARQAoAFwAIgBcACIALABUAEEASwBFACgAXwBkACwALAAxACkALABMAEEATQBCAEQAQQAoAGEALAB2ACwAVgBTAFQAQQBDAEsAKABhACwARQBYAFAAQQBOAEQAKAB2ACwAXwBjACwAMQAsAHYAKQApACkAKQAsADEAKQApACkALABcAG4AIAAgACAAIAAgAEgAUwBUAEEAQwBLACgAZgAoAF8AbgBEAGEAdABhACkALABUAE8AQwBPAEwAKABEAFIATwBQACgAXwBuAEQAYQB0AGEALAAsADEAKQApACkAXABuACkAKQA7AFwAbgBcAG4ALwAvACAATQBhAHIAawAgAFAAcgBvAGMAdABvAHIAIABEAEQATAAgAGYAdQBuAGMAdABpAG8AbgBcAG4ARABEAEwAPQBMAEEATQBCAEQAQQAoAHIAYQBuAGcAZQAsAFsAbABvAG8AawB1AHAAMQBdACwAWwBsAG8AbwBrAHUAcAAyAF0ALABbAGwAbwBvAGsAdQBwADMAXQAsAFsAbABvAG8AawB1AHAANABdACwAWwBsAG8AbwBrAHUAcAA1AF0ALABbAGwAbwBvAGsAdQBwADYAXQAsAFsAbABvAG8AawB1AHAANwBdACwAWwBsAG8AbwBrAHUAcAA4AF0ALABbAGwAbwBvAGsAdQBwADkAXQAsAFsAbABvAG8AawB1AHAAMQAwAF0ALABcAG4ATABFAFQAKABcAG4AXwBzACwAIABcACIAJQBeACYAJgBAAFwAIgAsACAAXABuAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAMQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMgAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMwAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANAAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANgAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAANwAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAOAAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAOQAgACYAIABfAHMAIAAmACAAbABvAG8AawB1AHAAMQAwACwAXABuAGwAZQB2AGUAbABJAG4AZABlAHgALAAgAEkARgBFAFIAUgBPAFIAKABSAE8AVwBTACgAVABFAFgAVABTAFAATABJAFQAKABsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgACwAIABfAHMALAAgAFQAUgBVAEUAKAApACkAKQAsACAAMAApACAAKwAgADEALAAgAFwAbgBsAG8AbwBrAHUAcABBAHIAcgBhAHkALAAgAEIAWQBSAE8AVwAoAEUAWABQAEEATgBEACgAQwBIAE8ATwBTAEUAQwBPAEwAUwAoAHIAYQBuAGcAZQAsACAAUwBFAFEAVQBFAE4AQwBFACgAMQAsACAAbABlAHYAZQBsAEkAbgBkAGUAeAAgAC0AIAAxACkAKQAsACAALAAgADEAMAAsACAAXAAiAFwAIgApACwAIABMAEEATQBCAEQAQQAoAHIAbwB3ACwAIABUAEUAWABUAEoATwBJAE4AKABfAHMALAAgAEYAQQBMAFMARQAsACAAcgBvAHcAKQApACkALABcAG4AcgBlAHQAdQByAG4AUgBhAG4AZwBlACwAIABJAE4ARABFAFgAKAByAGEAbgBnAGUALAAgADAALAAgAGwAZQB2AGUAbABJAG4AZABlAHgAKQAsACAAXABuAHIAZQBzAHUAbAB0ACwAIABJAEYAKABJAFMATwBNAEkAVABUAEUARAAoAGwAbwBvAGsAdQBwADEAKQAgACoAIABsAGUAdgBlAGwASQBuAGQAZQB4ACAAPQAgADEALAAgAHIAZQB0AHUAcgBuAFIAYQBuAGcAZQAsACAAWABMAE8ATwBLAFUAUAAoAGwAbwBvAGsAdQBwAFYAYQBsAHUAZQAsACAAbABvAG8AawB1AHAAQQByAHIAYQB5ACwAIAByAGUAdAB1AHIAbgBSAGEAbgBnAGUAKQA6AFgATABPAE8ASwBVAFAAKABsAG8AbwBrAHUAcABWAGEAbAB1AGUALAAgAGwAbwBvAGsAdQBwAEEAcgByAGEAeQAsACAAcgBlAHQAdQByAG4AUgBhAG4AZwBlACwAIAAsACAALAAgAC0AMQApACkALABcAG4AcgBlAHMAdQBsAHQAKQApADsAXABuAFwAbgAvAC8AIABNAGEAcgBrACAAUAByAG8AYwB0AG8AcgAgAEQARABMAFMAbwByAHQAZQByACAAZgB1AG4AYwB0AGkAbwBuAFwAbgBcAG4ARABEAEwAUwBvAHIAdABlAHIAPQBMAEEATQBCAEQAQQAoAFIAYQBuAGcAZQAsAFsAUwBvAHIAdABPAHIAZABlAHIAXQAsAFMATwBSAFQAKABSAGEAbgBnAGUALAAgAFMARQBRAFUARQBOAEMARQAoACwAIABDAE8ATABVAE0ATgBTACgAUgBhAG4AZwBlACkAKQAsACAAUwBvAHIAdABPAHIAZABlAHIAKQApADsAIgB9AF0ALAAiAHAAcgBvAGoAZQBjAHQATgBhAG0AZQBzACIAOgBbACIAXwBmAEkAbgBkAGUAeAAiACwAIgBfAGYAUwBVAFAARQBSAFgATABPAE8ASwBVAFAAIgAsACIAXwBmAEkAbgB0AGUAcgBwACIALAAiAF8AZgBDAGgAYQByAEMAbwB1AG4AdAAiACwAIgBfAGYARABOACIALAAiAF8AZgBVAFAAIgAsACIAXwBmAEIAQwBBAFMAVAAiACwAIgBEAEQATAAiACwAIgBEAEQATABTAG8AcgB0AGUAcgAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIALAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAsACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgAkACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgBmAGEAbABzAGUALAAiAHIAbwB3AEwAZQB0AHQAZQByACIAOgAiAFIAIgAsACIAYwBvAGwAdQBtAG4ATABlAHQAdABlAHIAIgA6ACIAQwAiACwAIgByAGMATABlAGYAdABCAHIAYQBjAGsAZQB0ACIAOgAiAFsAIgAsACIAcgBjAFIAaQBnAGgAdABCAHIAYQBjAGsAZQB0ACIAOgAiAF0AIgAsACIAcwB0AGEAdABlAG0AZQBuAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGUAbgAtAHUAcwAiAH0AfQA=</AFEJSONBlob>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79151BA2-39AF-4886-BBB6-1D21701F737E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CH-157 Table Transformation.xlsx
+++ b/CH-157 Table Transformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B0144-2114-4602-8EBB-30FCBAF2D5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5834856B-C46C-42CA-9B8E-75B7CB7AA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -119,6 +119,9 @@
   <si>
     <t>https://www.linkedin.com/in/omid-motamedisedeh-74aba166/recent-activity/all/</t>
   </si>
+  <si>
+    <t>My Single Function</t>
+  </si>
 </sst>
 </file>
 
@@ -127,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +177,13 @@
       <color theme="1"/>
       <name val="Twentieth Century"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -219,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -429,11 +439,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -528,8 +548,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8206,8 +8228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB0E4D0-67D3-44D8-A2F2-18190B6E9E26}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -8664,7 +8686,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:18" ht="13.8">
+    <row r="17" spans="2:18" ht="13.8">
       <c r="C17" s="29" t="s">
         <v>14</v>
       </c>
@@ -8673,21 +8695,21 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
-    <row r="18" spans="3:18" ht="15.75" customHeight="1">
+    <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="C18" s="10"/>
       <c r="D18" s="24"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="3:18" ht="15.75" customHeight="1">
+    <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="C19" s="10"/>
       <c r="D19" s="24"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
     </row>
-    <row r="20" spans="3:18" ht="15.75" customHeight="1">
+    <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="C20" s="10" cm="1">
         <f t="array" ref="C20:E24">_xlfn.WRAPROWS(C3:C17,3)</f>
         <v>45493</v>
@@ -8740,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:18" ht="15.75" customHeight="1">
+    <row r="21" spans="2:18" ht="15.75" customHeight="1">
       <c r="C21" s="10">
         <v>45509</v>
       </c>
@@ -8791,7 +8813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:18" ht="15.75" customHeight="1">
+    <row r="22" spans="2:18" ht="15.75" customHeight="1">
       <c r="C22" s="10">
         <v>45517</v>
       </c>
@@ -8842,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="15.75" customHeight="1">
+    <row r="23" spans="2:18" ht="15.75" customHeight="1">
       <c r="C23" s="10">
         <v>45553</v>
       </c>
@@ -8893,7 +8915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="15.75" customHeight="1">
+    <row r="24" spans="2:18" ht="15.75" customHeight="1">
       <c r="C24" s="10">
         <v>45566</v>
       </c>
@@ -8944,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="15.75" customHeight="1">
+    <row r="25" spans="2:18" ht="15.75" customHeight="1">
       <c r="C25" s="10"/>
       <c r="D25" s="24"/>
       <c r="E25" s="10"/>
@@ -8989,7 +9011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:18" ht="15.75" customHeight="1">
+    <row r="26" spans="2:18" ht="15.75" customHeight="1">
       <c r="C26" s="10"/>
       <c r="D26" s="24"/>
       <c r="E26" s="10"/>
@@ -9034,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:18" ht="15.75" customHeight="1">
+    <row r="27" spans="2:18" ht="15.75" customHeight="1">
       <c r="C27" s="10"/>
       <c r="D27" s="24"/>
       <c r="E27" s="10"/>
@@ -9079,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:18" ht="15.75" customHeight="1">
+    <row r="28" spans="2:18" ht="15.75" customHeight="1">
       <c r="C28" s="10"/>
       <c r="D28" s="24"/>
       <c r="E28" s="10"/>
@@ -9124,7 +9146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:18" ht="15.75" customHeight="1">
+    <row r="29" spans="2:18" ht="15.75" customHeight="1">
       <c r="C29" s="10"/>
       <c r="D29" s="24"/>
       <c r="E29" s="10"/>
@@ -9169,133 +9191,342 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:18" ht="15.75" customHeight="1">
+    <row r="30" spans="2:18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="B30" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="C30" s="10"/>
       <c r="D30" s="24"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="3:18" ht="15.75" customHeight="1">
+    <row r="31" spans="2:18" ht="15.75" customHeight="1" thickTop="1">
       <c r="C31" s="10"/>
       <c r="D31" s="24"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="3:18" ht="15.75" customHeight="1">
-      <c r="C32" s="10"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="2:18" ht="15.75" customHeight="1">
+      <c r="C32" s="10" cm="1">
+        <f t="array" aca="1" ref="C32:E41" ca="1">_xlfn.LET(
+      _xlpm.z, _xlfn.DROP(_xlfn.REDUCE("",D20:D24,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.HSTACK(OFFSET(_xlpm.v,0,-1),_xlfn.TEXTSPLIT(_xlpm.v,,","))))),1),
+      _xlpm.d, _fDN(_xlfn.IFNA(_xlfn.TAKE(_xlpm.z,,1),"")),
+      _xlpm.l, _xlfn.TAKE(_xlpm.z,,-1),
+      _xlpm.n, _xlfn.DROP(_xlfn.REDUCE("",E20:E24,_xlfn.LAMBDA(_xlpm.a,_xlpm.v,_xlfn.VSTACK(_xlpm.a,_xlfn.TEXTSPLIT(_xlpm.v,,",")))),1),
+      _xlfn.HSTACK(_xlpm.d,_xlpm.l,_xlpm.n+0)
+)</f>
+        <v>45493</v>
+      </c>
+      <c r="D32" s="24" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="E32" s="10">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C33" s="10"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="10"/>
+      <c r="G32" s="10" t="b" cm="1">
+        <f t="array" aca="1" ref="G32:I41" ca="1">_xlfn.ANCHORARRAY(C32)=E3:G12</f>
+        <v>1</v>
+      </c>
+      <c r="H32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C33" s="10">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="D33" s="24" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="E33" s="10">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-    </row>
-    <row r="34" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C34" s="10"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="10"/>
+      <c r="G33" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C34" s="10">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="D34" s="24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="E34" s="10">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C35" s="10"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="10"/>
+      <c r="G34" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C35" s="10">
+        <f ca="1"/>
+        <v>45509</v>
+      </c>
+      <c r="D35" s="24" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="E35" s="10">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C36" s="10"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="10"/>
+      <c r="G35" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C36" s="10">
+        <f ca="1"/>
+        <v>45517</v>
+      </c>
+      <c r="D36" s="24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="E36" s="10">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C37" s="10"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="10"/>
+      <c r="G36" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C37" s="10">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="D37" s="24" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="E37" s="10">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C38" s="10"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="10"/>
+      <c r="G37" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C38" s="10">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="D38" s="24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="E38" s="10">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-    </row>
-    <row r="39" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C39" s="10"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="10"/>
+      <c r="G38" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C39" s="10">
+        <f ca="1"/>
+        <v>45553</v>
+      </c>
+      <c r="D39" s="24" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="E39" s="10">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-    </row>
-    <row r="40" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C40" s="10"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="10"/>
+      <c r="G39" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C40" s="10">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="D40" s="24" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="E40" s="10">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-    </row>
-    <row r="41" spans="3:7" ht="15.75" customHeight="1">
-      <c r="C41" s="10"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="10"/>
+      <c r="G40" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C41" s="10">
+        <f ca="1"/>
+        <v>45566</v>
+      </c>
+      <c r="D41" s="24" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="E41" s="10">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-    </row>
-    <row r="42" spans="3:7" ht="15.75" customHeight="1">
+      <c r="G41" s="10" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="H41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="15.75" customHeight="1">
       <c r="C42" s="10"/>
       <c r="D42" s="24"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" customHeight="1">
+    <row r="43" spans="3:9" ht="15.75" customHeight="1">
       <c r="C43" s="10"/>
       <c r="D43" s="24"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" customHeight="1">
+    <row r="44" spans="3:9" ht="15.75" customHeight="1">
       <c r="C44" s="10"/>
       <c r="D44" s="24"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" customHeight="1">
+    <row r="45" spans="3:9" ht="15.75" customHeight="1">
       <c r="C45" s="10"/>
       <c r="D45" s="24"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" customHeight="1">
+    <row r="46" spans="3:9" ht="15.75" customHeight="1">
       <c r="C46" s="10"/>
       <c r="D46" s="24"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" customHeight="1">
+    <row r="47" spans="3:9" ht="15.75" customHeight="1">
       <c r="C47" s="10"/>
       <c r="D47" s="24"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" customHeight="1">
+    <row r="48" spans="3:9" ht="15.75" customHeight="1">
       <c r="C48" s="10"/>
       <c r="D48" s="24"/>
       <c r="E48" s="10"/>

--- a/CH-157 Table Transformation.xlsx
+++ b/CH-157 Table Transformation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5834856B-C46C-42CA-9B8E-75B7CB7AA909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D391AF5-72E7-44B4-B5A5-BF7344813396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="EDA" sheetId="2" r:id="rId2"/>
+    <sheet name="Alt1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_fBCAST">_xlfn.LAMBDA(_xlpm._nData, _xlfn.LET(_xlpm.f, _xlfn.LAMBDA(_xlpm._d, _xlfn.LET(_xlpm._c, COLUMNS(_xlpm._d) - 1, _xlfn.DROP(_xlfn.REDUCE("", _xlfn.TAKE(_xlpm._d, , 1), _xlfn.LAMBDA(_xlpm.a,_xlpm.v, _xlfn.VSTACK(_xlpm.a, _xlfn.EXPAND(_xlpm.v, _xlpm._c, 1, _xlpm.v)))), 1))), _xlfn.HSTACK(_xlpm.f(_xlpm._nData), _xlfn.TOCOL(_xlfn.DROP(_xlpm._nData, , 1)))))</definedName>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="17">
   <si>
     <t>Question</t>
   </si>
@@ -905,7 +906,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="438" row="9">
+  <wetp:taskpane dockstate="right" visibility="0" width="976" row="9">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -8228,8 +8229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB0E4D0-67D3-44D8-A2F2-18190B6E9E26}">
   <dimension ref="A1:Z990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -9228,7 +9229,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="10"/>
-      <c r="G32" s="10" t="b" cm="1">
+      <c r="G32" t="b" cm="1">
         <f t="array" aca="1" ref="G32:I41" ca="1">_xlfn.ANCHORARRAY(C32)=E3:G12</f>
         <v>1</v>
       </c>
@@ -9255,7 +9256,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="10"/>
-      <c r="G33" s="10" t="b">
+      <c r="G33" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="10"/>
-      <c r="G34" s="10" t="b">
+      <c r="G34" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9309,7 +9310,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="10"/>
-      <c r="G35" s="10" t="b">
+      <c r="G35" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="10"/>
-      <c r="G36" s="10" t="b">
+      <c r="G36" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9363,7 +9364,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="10"/>
-      <c r="G37" s="10" t="b">
+      <c r="G37" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="10"/>
-      <c r="G38" s="10" t="b">
+      <c r="G38" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="10"/>
-      <c r="G39" s="10" t="b">
+      <c r="G39" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9444,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="F40" s="10"/>
-      <c r="G40" s="10" t="b">
+      <c r="G40" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="10"/>
-      <c r="G41" s="10" t="b">
+      <c r="G41" t="b">
         <f ca="1"/>
         <v>1</v>
       </c>
@@ -9527,6 +9528,7366 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="3:9" ht="15.75" customHeight="1">
+      <c r="C48" s="10"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C49" s="10"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C50" s="10"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C51" s="10"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C52" s="10"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C53" s="10"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C54" s="10"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C55" s="10"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C56" s="10"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C57" s="10"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C58" s="10"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C59" s="10"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C60" s="10"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C61" s="10"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C62" s="10"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+    </row>
+    <row r="63" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C63" s="10"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+    </row>
+    <row r="64" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C64" s="10"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+    </row>
+    <row r="65" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C65" s="10"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+    </row>
+    <row r="66" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C66" s="10"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+    </row>
+    <row r="67" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C67" s="10"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+    </row>
+    <row r="68" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C68" s="10"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+    </row>
+    <row r="69" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C69" s="10"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+    </row>
+    <row r="70" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C70" s="10"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+    </row>
+    <row r="71" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C71" s="10"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+    </row>
+    <row r="72" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C72" s="10"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+    </row>
+    <row r="73" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C73" s="10"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+    </row>
+    <row r="74" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C74" s="10"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="75" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C75" s="10"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="76" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C76" s="10"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+    </row>
+    <row r="77" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C77" s="10"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+    </row>
+    <row r="78" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C78" s="10"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+    </row>
+    <row r="79" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C79" s="10"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+    </row>
+    <row r="80" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C80" s="10"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+    </row>
+    <row r="81" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C81" s="10"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+    </row>
+    <row r="82" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C82" s="10"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+    </row>
+    <row r="83" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C83" s="10"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+    </row>
+    <row r="84" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C84" s="10"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+    </row>
+    <row r="85" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C85" s="10"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+    </row>
+    <row r="86" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C86" s="10"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+    </row>
+    <row r="87" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C87" s="10"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C88" s="10"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C89" s="10"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+    </row>
+    <row r="90" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C90" s="10"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+    </row>
+    <row r="91" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C91" s="10"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+    </row>
+    <row r="92" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C92" s="10"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+    </row>
+    <row r="93" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C93" s="10"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+    </row>
+    <row r="94" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C94" s="10"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+    </row>
+    <row r="95" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C95" s="10"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C96" s="10"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+    </row>
+    <row r="97" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C97" s="10"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+    </row>
+    <row r="98" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C98" s="10"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+    </row>
+    <row r="99" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C99" s="10"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+    </row>
+    <row r="100" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C100" s="10"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+    </row>
+    <row r="101" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C101" s="10"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C102" s="10"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C103" s="10"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+    </row>
+    <row r="104" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C104" s="10"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+    </row>
+    <row r="105" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C105" s="10"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+    </row>
+    <row r="106" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C106" s="10"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+    </row>
+    <row r="107" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C107" s="10"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+    </row>
+    <row r="108" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C108" s="10"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+    </row>
+    <row r="109" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C109" s="10"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+    </row>
+    <row r="110" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C110" s="10"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+    </row>
+    <row r="111" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C111" s="10"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+    </row>
+    <row r="112" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C112" s="10"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C113" s="10"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+    </row>
+    <row r="114" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C114" s="10"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+    </row>
+    <row r="115" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C115" s="10"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+    </row>
+    <row r="116" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C116" s="10"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+    </row>
+    <row r="117" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C117" s="10"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+    </row>
+    <row r="118" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C118" s="10"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C119" s="10"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+    </row>
+    <row r="120" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C120" s="10"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+    </row>
+    <row r="121" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C121" s="10"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+    </row>
+    <row r="122" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C122" s="10"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+    </row>
+    <row r="123" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C123" s="10"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C124" s="10"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+    </row>
+    <row r="125" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C125" s="10"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+    </row>
+    <row r="126" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C126" s="10"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+    </row>
+    <row r="127" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C127" s="10"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C128" s="10"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+    </row>
+    <row r="129" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C129" s="10"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+    </row>
+    <row r="130" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C130" s="10"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+    </row>
+    <row r="131" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C131" s="10"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+    </row>
+    <row r="132" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C132" s="10"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+    </row>
+    <row r="133" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C133" s="10"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C134" s="10"/>
+      <c r="D134" s="24"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+    </row>
+    <row r="135" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C135" s="10"/>
+      <c r="D135" s="24"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+    </row>
+    <row r="136" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C136" s="10"/>
+      <c r="D136" s="24"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+      <c r="G136" s="10"/>
+    </row>
+    <row r="137" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C137" s="10"/>
+      <c r="D137" s="24"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+    </row>
+    <row r="138" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C138" s="10"/>
+      <c r="D138" s="24"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C139" s="10"/>
+      <c r="D139" s="24"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+    </row>
+    <row r="140" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C140" s="10"/>
+      <c r="D140" s="24"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+    </row>
+    <row r="141" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C141" s="10"/>
+      <c r="D141" s="24"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C142" s="10"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+    </row>
+    <row r="143" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C143" s="10"/>
+      <c r="D143" s="24"/>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+    </row>
+    <row r="144" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C144" s="10"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C145" s="10"/>
+      <c r="D145" s="24"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+    </row>
+    <row r="146" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C146" s="10"/>
+      <c r="D146" s="24"/>
+      <c r="E146" s="10"/>
+      <c r="F146" s="10"/>
+      <c r="G146" s="10"/>
+    </row>
+    <row r="147" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C147" s="10"/>
+      <c r="D147" s="24"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C148" s="10"/>
+      <c r="D148" s="24"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+    </row>
+    <row r="149" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C149" s="10"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+    </row>
+    <row r="150" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C150" s="10"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+    </row>
+    <row r="151" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C151" s="10"/>
+      <c r="D151" s="24"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+    </row>
+    <row r="152" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C152" s="10"/>
+      <c r="D152" s="24"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C153" s="10"/>
+      <c r="D153" s="24"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+    </row>
+    <row r="154" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C154" s="10"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+    </row>
+    <row r="155" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C155" s="10"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C156" s="10"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+    </row>
+    <row r="157" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C157" s="10"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+    </row>
+    <row r="158" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C158" s="10"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+    </row>
+    <row r="159" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C159" s="10"/>
+      <c r="D159" s="24"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+    </row>
+    <row r="160" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C160" s="10"/>
+      <c r="D160" s="24"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+    </row>
+    <row r="161" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C161" s="10"/>
+      <c r="D161" s="24"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C162" s="10"/>
+      <c r="D162" s="24"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+    </row>
+    <row r="163" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C163" s="10"/>
+      <c r="D163" s="24"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+    </row>
+    <row r="164" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C164" s="10"/>
+      <c r="D164" s="24"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+    </row>
+    <row r="165" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C165" s="10"/>
+      <c r="D165" s="24"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+    </row>
+    <row r="166" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C166" s="10"/>
+      <c r="D166" s="24"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C167" s="10"/>
+      <c r="D167" s="24"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+    </row>
+    <row r="168" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C168" s="10"/>
+      <c r="D168" s="24"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+    </row>
+    <row r="169" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C169" s="10"/>
+      <c r="D169" s="24"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+    </row>
+    <row r="170" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C170" s="10"/>
+      <c r="D170" s="24"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C171" s="10"/>
+      <c r="D171" s="24"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="10"/>
+      <c r="G171" s="10"/>
+    </row>
+    <row r="172" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C172" s="10"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="10"/>
+      <c r="G172" s="10"/>
+    </row>
+    <row r="173" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C173" s="10"/>
+      <c r="D173" s="24"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="10"/>
+      <c r="G173" s="10"/>
+    </row>
+    <row r="174" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C174" s="10"/>
+      <c r="D174" s="24"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+    </row>
+    <row r="175" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C175" s="10"/>
+      <c r="D175" s="24"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C176" s="10"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="10"/>
+      <c r="F176" s="10"/>
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C177" s="10"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C178" s="10"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C179" s="10"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C180" s="10"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="10"/>
+      <c r="F180" s="10"/>
+      <c r="G180" s="10"/>
+    </row>
+    <row r="181" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C181" s="10"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="10"/>
+      <c r="F181" s="10"/>
+      <c r="G181" s="10"/>
+    </row>
+    <row r="182" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C182" s="10"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C183" s="10"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="10"/>
+      <c r="F183" s="10"/>
+      <c r="G183" s="10"/>
+    </row>
+    <row r="184" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C184" s="10"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="10"/>
+      <c r="F184" s="10"/>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C185" s="10"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="10"/>
+      <c r="F185" s="10"/>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C186" s="10"/>
+      <c r="D186" s="24"/>
+      <c r="E186" s="10"/>
+      <c r="F186" s="10"/>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C187" s="10"/>
+      <c r="D187" s="24"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C188" s="10"/>
+      <c r="D188" s="24"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C189" s="10"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10"/>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C190" s="10"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="10"/>
+      <c r="F190" s="10"/>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C191" s="10"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C192" s="10"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="10"/>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C193" s="10"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="10"/>
+      <c r="F193" s="10"/>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C194" s="10"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C195" s="10"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C196" s="10"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C197" s="10"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="10"/>
+      <c r="F197" s="10"/>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C198" s="10"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C199" s="10"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="10"/>
+      <c r="F199" s="10"/>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C200" s="10"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C201" s="10"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="10"/>
+      <c r="F201" s="10"/>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C202" s="10"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="10"/>
+      <c r="F202" s="10"/>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C203" s="10"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C204" s="10"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="10"/>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C205" s="10"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C206" s="10"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="10"/>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C207" s="10"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="10"/>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C208" s="10"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C209" s="10"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C210" s="10"/>
+      <c r="D210" s="24"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C211" s="10"/>
+      <c r="D211" s="24"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="10"/>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C212" s="10"/>
+      <c r="D212" s="24"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="10"/>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C213" s="10"/>
+      <c r="D213" s="24"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="10"/>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C214" s="10"/>
+      <c r="D214" s="24"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C215" s="10"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C216" s="10"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C217" s="10"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C218" s="10"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="10"/>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C219" s="10"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C220" s="10"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="10"/>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C221" s="10"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C222" s="10"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C223" s="10"/>
+      <c r="D223" s="24"/>
+      <c r="E223" s="10"/>
+      <c r="F223" s="10"/>
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C224" s="10"/>
+      <c r="D224" s="24"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="10"/>
+      <c r="G224" s="10"/>
+    </row>
+    <row r="225" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C225" s="10"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="10"/>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C226" s="10"/>
+      <c r="D226" s="24"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="10"/>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C227" s="10"/>
+      <c r="D227" s="24"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="10"/>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C228" s="10"/>
+      <c r="D228" s="24"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="10"/>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C229" s="10"/>
+      <c r="D229" s="24"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="10"/>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C230" s="10"/>
+      <c r="D230" s="24"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="10"/>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C231" s="10"/>
+      <c r="D231" s="24"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="10"/>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C232" s="10"/>
+      <c r="D232" s="24"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C233" s="10"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10"/>
+    </row>
+    <row r="234" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C234" s="10"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10"/>
+    </row>
+    <row r="235" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C235" s="10"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10"/>
+    </row>
+    <row r="236" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C236" s="10"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="10"/>
+      <c r="G236" s="10"/>
+    </row>
+    <row r="237" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C237" s="10"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="10"/>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C238" s="10"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="10"/>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C239" s="10"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="10"/>
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C240" s="10"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="10"/>
+      <c r="F240" s="10"/>
+      <c r="G240" s="10"/>
+    </row>
+    <row r="241" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C241" s="10"/>
+      <c r="D241" s="24"/>
+      <c r="E241" s="10"/>
+      <c r="F241" s="10"/>
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C242" s="10"/>
+      <c r="D242" s="24"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="10"/>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="243" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C243" s="10"/>
+      <c r="D243" s="24"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
+      <c r="G243" s="10"/>
+    </row>
+    <row r="244" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C244" s="10"/>
+      <c r="D244" s="24"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="10"/>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C245" s="10"/>
+      <c r="D245" s="24"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="10"/>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C246" s="10"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="10"/>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C247" s="10"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="10"/>
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C248" s="10"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C249" s="10"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+    </row>
+    <row r="250" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C250" s="10"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10"/>
+      <c r="G250" s="10"/>
+    </row>
+    <row r="251" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C251" s="10"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="10"/>
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C252" s="10"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="10"/>
+      <c r="G252" s="10"/>
+    </row>
+    <row r="253" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C253" s="10"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="10"/>
+      <c r="G253" s="10"/>
+    </row>
+    <row r="254" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C254" s="10"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="10"/>
+      <c r="G254" s="10"/>
+    </row>
+    <row r="255" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C255" s="10"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="10"/>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C256" s="10"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="10"/>
+      <c r="G256" s="10"/>
+    </row>
+    <row r="257" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C257" s="10"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="10"/>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C258" s="10"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10"/>
+    </row>
+    <row r="259" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C259" s="10"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10"/>
+    </row>
+    <row r="260" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C260" s="10"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C261" s="10"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C262" s="10"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="10"/>
+      <c r="G262" s="10"/>
+    </row>
+    <row r="263" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C263" s="10"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="10"/>
+      <c r="G263" s="10"/>
+    </row>
+    <row r="264" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C264" s="10"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="10"/>
+      <c r="G264" s="10"/>
+    </row>
+    <row r="265" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C265" s="10"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10"/>
+    </row>
+    <row r="266" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C266" s="10"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="10"/>
+      <c r="G266" s="10"/>
+    </row>
+    <row r="267" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C267" s="10"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10"/>
+    </row>
+    <row r="268" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C268" s="10"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="10"/>
+      <c r="G268" s="10"/>
+    </row>
+    <row r="269" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C269" s="10"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+    </row>
+    <row r="270" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C270" s="10"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10"/>
+      <c r="G270" s="10"/>
+    </row>
+    <row r="271" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C271" s="10"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10"/>
+    </row>
+    <row r="272" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C272" s="10"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="10"/>
+      <c r="G272" s="10"/>
+    </row>
+    <row r="273" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C273" s="10"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10"/>
+    </row>
+    <row r="274" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C274" s="10"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10"/>
+    </row>
+    <row r="275" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C275" s="10"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10"/>
+    </row>
+    <row r="276" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C276" s="10"/>
+      <c r="D276" s="24"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10"/>
+    </row>
+    <row r="277" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C277" s="10"/>
+      <c r="D277" s="24"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10"/>
+    </row>
+    <row r="278" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C278" s="10"/>
+      <c r="D278" s="24"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="10"/>
+      <c r="G278" s="10"/>
+    </row>
+    <row r="279" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C279" s="10"/>
+      <c r="D279" s="24"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="10"/>
+      <c r="G279" s="10"/>
+    </row>
+    <row r="280" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C280" s="10"/>
+      <c r="D280" s="24"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="10"/>
+      <c r="G280" s="10"/>
+    </row>
+    <row r="281" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C281" s="10"/>
+      <c r="D281" s="24"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="10"/>
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C282" s="10"/>
+      <c r="D282" s="24"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="10"/>
+      <c r="G282" s="10"/>
+    </row>
+    <row r="283" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C283" s="10"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
+      <c r="G283" s="10"/>
+    </row>
+    <row r="284" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C284" s="10"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="10"/>
+      <c r="G284" s="10"/>
+    </row>
+    <row r="285" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C285" s="10"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="10"/>
+      <c r="G285" s="10"/>
+    </row>
+    <row r="286" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C286" s="10"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="10"/>
+      <c r="G286" s="10"/>
+    </row>
+    <row r="287" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C287" s="10"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="10"/>
+      <c r="G287" s="10"/>
+    </row>
+    <row r="288" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C288" s="10"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="10"/>
+      <c r="G288" s="10"/>
+    </row>
+    <row r="289" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C289" s="10"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="10"/>
+      <c r="G289" s="10"/>
+    </row>
+    <row r="290" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C290" s="10"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="10"/>
+      <c r="G290" s="10"/>
+    </row>
+    <row r="291" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C291" s="10"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="10"/>
+      <c r="G291" s="10"/>
+    </row>
+    <row r="292" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C292" s="10"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="10"/>
+      <c r="G292" s="10"/>
+    </row>
+    <row r="293" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C293" s="10"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
+      <c r="G293" s="10"/>
+    </row>
+    <row r="294" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C294" s="10"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10"/>
+    </row>
+    <row r="295" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C295" s="10"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="10"/>
+      <c r="G295" s="10"/>
+    </row>
+    <row r="296" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C296" s="10"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10"/>
+    </row>
+    <row r="297" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C297" s="10"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="10"/>
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C298" s="10"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10"/>
+      <c r="G298" s="10"/>
+    </row>
+    <row r="299" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C299" s="10"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C300" s="10"/>
+      <c r="D300" s="24"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10"/>
+    </row>
+    <row r="301" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C301" s="10"/>
+      <c r="D301" s="24"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10"/>
+    </row>
+    <row r="302" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C302" s="10"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10"/>
+    </row>
+    <row r="303" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C303" s="10"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="10"/>
+      <c r="G303" s="10"/>
+    </row>
+    <row r="304" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C304" s="10"/>
+      <c r="D304" s="24"/>
+      <c r="E304" s="10"/>
+      <c r="F304" s="10"/>
+      <c r="G304" s="10"/>
+    </row>
+    <row r="305" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C305" s="10"/>
+      <c r="D305" s="24"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="10"/>
+      <c r="G305" s="10"/>
+    </row>
+    <row r="306" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C306" s="10"/>
+      <c r="D306" s="24"/>
+      <c r="E306" s="10"/>
+      <c r="F306" s="10"/>
+      <c r="G306" s="10"/>
+    </row>
+    <row r="307" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C307" s="10"/>
+      <c r="D307" s="24"/>
+      <c r="E307" s="10"/>
+      <c r="F307" s="10"/>
+      <c r="G307" s="10"/>
+    </row>
+    <row r="308" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C308" s="10"/>
+      <c r="D308" s="24"/>
+      <c r="E308" s="10"/>
+      <c r="F308" s="10"/>
+      <c r="G308" s="10"/>
+    </row>
+    <row r="309" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C309" s="10"/>
+      <c r="D309" s="24"/>
+      <c r="E309" s="10"/>
+      <c r="F309" s="10"/>
+      <c r="G309" s="10"/>
+    </row>
+    <row r="310" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C310" s="10"/>
+      <c r="D310" s="24"/>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10"/>
+      <c r="G310" s="10"/>
+    </row>
+    <row r="311" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C311" s="10"/>
+      <c r="D311" s="24"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10"/>
+    </row>
+    <row r="312" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C312" s="10"/>
+      <c r="D312" s="24"/>
+      <c r="E312" s="10"/>
+      <c r="F312" s="10"/>
+      <c r="G312" s="10"/>
+    </row>
+    <row r="313" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C313" s="10"/>
+      <c r="D313" s="24"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10"/>
+    </row>
+    <row r="314" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C314" s="10"/>
+      <c r="D314" s="24"/>
+      <c r="E314" s="10"/>
+      <c r="F314" s="10"/>
+      <c r="G314" s="10"/>
+    </row>
+    <row r="315" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C315" s="10"/>
+      <c r="D315" s="24"/>
+      <c r="E315" s="10"/>
+      <c r="F315" s="10"/>
+      <c r="G315" s="10"/>
+    </row>
+    <row r="316" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C316" s="10"/>
+      <c r="D316" s="24"/>
+      <c r="E316" s="10"/>
+      <c r="F316" s="10"/>
+      <c r="G316" s="10"/>
+    </row>
+    <row r="317" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C317" s="10"/>
+      <c r="D317" s="24"/>
+      <c r="E317" s="10"/>
+      <c r="F317" s="10"/>
+      <c r="G317" s="10"/>
+    </row>
+    <row r="318" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C318" s="10"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="10"/>
+      <c r="F318" s="10"/>
+      <c r="G318" s="10"/>
+    </row>
+    <row r="319" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C319" s="10"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="10"/>
+      <c r="F319" s="10"/>
+      <c r="G319" s="10"/>
+    </row>
+    <row r="320" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C320" s="10"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="10"/>
+      <c r="F320" s="10"/>
+      <c r="G320" s="10"/>
+    </row>
+    <row r="321" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C321" s="10"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="10"/>
+      <c r="F321" s="10"/>
+      <c r="G321" s="10"/>
+    </row>
+    <row r="322" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C322" s="10"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="10"/>
+      <c r="F322" s="10"/>
+      <c r="G322" s="10"/>
+    </row>
+    <row r="323" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C323" s="10"/>
+      <c r="D323" s="24"/>
+      <c r="E323" s="10"/>
+      <c r="F323" s="10"/>
+      <c r="G323" s="10"/>
+    </row>
+    <row r="324" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C324" s="10"/>
+      <c r="D324" s="24"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10"/>
+    </row>
+    <row r="325" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C325" s="10"/>
+      <c r="D325" s="24"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10"/>
+    </row>
+    <row r="326" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C326" s="10"/>
+      <c r="D326" s="24"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="10"/>
+      <c r="G326" s="10"/>
+    </row>
+    <row r="327" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C327" s="10"/>
+      <c r="D327" s="24"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10"/>
+    </row>
+    <row r="328" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C328" s="10"/>
+      <c r="D328" s="24"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10"/>
+    </row>
+    <row r="329" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C329" s="10"/>
+      <c r="D329" s="24"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10"/>
+    </row>
+    <row r="330" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C330" s="10"/>
+      <c r="D330" s="24"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10"/>
+    </row>
+    <row r="331" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C331" s="10"/>
+      <c r="D331" s="24"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="10"/>
+      <c r="G331" s="10"/>
+    </row>
+    <row r="332" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C332" s="10"/>
+      <c r="D332" s="24"/>
+      <c r="E332" s="10"/>
+      <c r="F332" s="10"/>
+      <c r="G332" s="10"/>
+    </row>
+    <row r="333" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C333" s="10"/>
+      <c r="D333" s="24"/>
+      <c r="E333" s="10"/>
+      <c r="F333" s="10"/>
+      <c r="G333" s="10"/>
+    </row>
+    <row r="334" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C334" s="10"/>
+      <c r="D334" s="24"/>
+      <c r="E334" s="10"/>
+      <c r="F334" s="10"/>
+      <c r="G334" s="10"/>
+    </row>
+    <row r="335" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C335" s="10"/>
+      <c r="D335" s="24"/>
+      <c r="E335" s="10"/>
+      <c r="F335" s="10"/>
+      <c r="G335" s="10"/>
+    </row>
+    <row r="336" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C336" s="10"/>
+      <c r="D336" s="24"/>
+      <c r="E336" s="10"/>
+      <c r="F336" s="10"/>
+      <c r="G336" s="10"/>
+    </row>
+    <row r="337" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C337" s="10"/>
+      <c r="D337" s="24"/>
+      <c r="E337" s="10"/>
+      <c r="F337" s="10"/>
+      <c r="G337" s="10"/>
+    </row>
+    <row r="338" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C338" s="10"/>
+      <c r="D338" s="24"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
+      <c r="G338" s="10"/>
+    </row>
+    <row r="339" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C339" s="10"/>
+      <c r="D339" s="24"/>
+      <c r="E339" s="10"/>
+      <c r="F339" s="10"/>
+      <c r="G339" s="10"/>
+    </row>
+    <row r="340" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C340" s="10"/>
+      <c r="D340" s="24"/>
+      <c r="E340" s="10"/>
+      <c r="F340" s="10"/>
+      <c r="G340" s="10"/>
+    </row>
+    <row r="341" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C341" s="10"/>
+      <c r="D341" s="24"/>
+      <c r="E341" s="10"/>
+      <c r="F341" s="10"/>
+      <c r="G341" s="10"/>
+    </row>
+    <row r="342" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C342" s="10"/>
+      <c r="D342" s="24"/>
+      <c r="E342" s="10"/>
+      <c r="F342" s="10"/>
+      <c r="G342" s="10"/>
+    </row>
+    <row r="343" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C343" s="10"/>
+      <c r="D343" s="24"/>
+      <c r="E343" s="10"/>
+      <c r="F343" s="10"/>
+      <c r="G343" s="10"/>
+    </row>
+    <row r="344" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C344" s="10"/>
+      <c r="D344" s="24"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10"/>
+    </row>
+    <row r="345" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C345" s="10"/>
+      <c r="D345" s="24"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10"/>
+    </row>
+    <row r="346" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C346" s="10"/>
+      <c r="D346" s="24"/>
+      <c r="E346" s="10"/>
+      <c r="F346" s="10"/>
+      <c r="G346" s="10"/>
+    </row>
+    <row r="347" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C347" s="10"/>
+      <c r="D347" s="24"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="10"/>
+      <c r="G347" s="10"/>
+    </row>
+    <row r="348" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C348" s="10"/>
+      <c r="D348" s="24"/>
+      <c r="E348" s="10"/>
+      <c r="F348" s="10"/>
+      <c r="G348" s="10"/>
+    </row>
+    <row r="349" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C349" s="10"/>
+      <c r="D349" s="24"/>
+      <c r="E349" s="10"/>
+      <c r="F349" s="10"/>
+      <c r="G349" s="10"/>
+    </row>
+    <row r="350" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C350" s="10"/>
+      <c r="D350" s="24"/>
+      <c r="E350" s="10"/>
+      <c r="F350" s="10"/>
+      <c r="G350" s="10"/>
+    </row>
+    <row r="351" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C351" s="10"/>
+      <c r="D351" s="24"/>
+      <c r="E351" s="10"/>
+      <c r="F351" s="10"/>
+      <c r="G351" s="10"/>
+    </row>
+    <row r="352" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C352" s="10"/>
+      <c r="D352" s="24"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C353" s="10"/>
+      <c r="D353" s="24"/>
+      <c r="E353" s="10"/>
+      <c r="F353" s="10"/>
+      <c r="G353" s="10"/>
+    </row>
+    <row r="354" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C354" s="10"/>
+      <c r="D354" s="24"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10"/>
+    </row>
+    <row r="355" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C355" s="10"/>
+      <c r="D355" s="24"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10"/>
+    </row>
+    <row r="356" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C356" s="10"/>
+      <c r="D356" s="24"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10"/>
+    </row>
+    <row r="357" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C357" s="10"/>
+      <c r="D357" s="24"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="10"/>
+      <c r="G357" s="10"/>
+    </row>
+    <row r="358" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C358" s="10"/>
+      <c r="D358" s="24"/>
+      <c r="E358" s="10"/>
+      <c r="F358" s="10"/>
+      <c r="G358" s="10"/>
+    </row>
+    <row r="359" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C359" s="10"/>
+      <c r="D359" s="24"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10"/>
+    </row>
+    <row r="360" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C360" s="10"/>
+      <c r="D360" s="24"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="10"/>
+      <c r="G360" s="10"/>
+    </row>
+    <row r="361" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C361" s="10"/>
+      <c r="D361" s="24"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="10"/>
+      <c r="G361" s="10"/>
+    </row>
+    <row r="362" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C362" s="10"/>
+      <c r="D362" s="24"/>
+      <c r="E362" s="10"/>
+      <c r="F362" s="10"/>
+      <c r="G362" s="10"/>
+    </row>
+    <row r="363" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C363" s="10"/>
+      <c r="D363" s="24"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="10"/>
+      <c r="G363" s="10"/>
+    </row>
+    <row r="364" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C364" s="10"/>
+      <c r="D364" s="24"/>
+      <c r="E364" s="10"/>
+      <c r="F364" s="10"/>
+      <c r="G364" s="10"/>
+    </row>
+    <row r="365" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C365" s="10"/>
+      <c r="D365" s="24"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="10"/>
+      <c r="G365" s="10"/>
+    </row>
+    <row r="366" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C366" s="10"/>
+      <c r="D366" s="24"/>
+      <c r="E366" s="10"/>
+      <c r="F366" s="10"/>
+      <c r="G366" s="10"/>
+    </row>
+    <row r="367" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C367" s="10"/>
+      <c r="D367" s="24"/>
+      <c r="E367" s="10"/>
+      <c r="F367" s="10"/>
+      <c r="G367" s="10"/>
+    </row>
+    <row r="368" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C368" s="10"/>
+      <c r="D368" s="24"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10"/>
+    </row>
+    <row r="369" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C369" s="10"/>
+      <c r="D369" s="24"/>
+      <c r="E369" s="10"/>
+      <c r="F369" s="10"/>
+      <c r="G369" s="10"/>
+    </row>
+    <row r="370" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C370" s="10"/>
+      <c r="D370" s="24"/>
+      <c r="E370" s="10"/>
+      <c r="F370" s="10"/>
+      <c r="G370" s="10"/>
+    </row>
+    <row r="371" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C371" s="10"/>
+      <c r="D371" s="24"/>
+      <c r="E371" s="10"/>
+      <c r="F371" s="10"/>
+      <c r="G371" s="10"/>
+    </row>
+    <row r="372" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C372" s="10"/>
+      <c r="D372" s="24"/>
+      <c r="E372" s="10"/>
+      <c r="F372" s="10"/>
+      <c r="G372" s="10"/>
+    </row>
+    <row r="373" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C373" s="10"/>
+      <c r="D373" s="24"/>
+      <c r="E373" s="10"/>
+      <c r="F373" s="10"/>
+      <c r="G373" s="10"/>
+    </row>
+    <row r="374" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C374" s="10"/>
+      <c r="D374" s="24"/>
+      <c r="E374" s="10"/>
+      <c r="F374" s="10"/>
+      <c r="G374" s="10"/>
+    </row>
+    <row r="375" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C375" s="10"/>
+      <c r="D375" s="24"/>
+      <c r="E375" s="10"/>
+      <c r="F375" s="10"/>
+      <c r="G375" s="10"/>
+    </row>
+    <row r="376" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C376" s="10"/>
+      <c r="D376" s="24"/>
+      <c r="E376" s="10"/>
+      <c r="F376" s="10"/>
+      <c r="G376" s="10"/>
+    </row>
+    <row r="377" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C377" s="10"/>
+      <c r="D377" s="24"/>
+      <c r="E377" s="10"/>
+      <c r="F377" s="10"/>
+      <c r="G377" s="10"/>
+    </row>
+    <row r="378" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C378" s="10"/>
+      <c r="D378" s="24"/>
+      <c r="E378" s="10"/>
+      <c r="F378" s="10"/>
+      <c r="G378" s="10"/>
+    </row>
+    <row r="379" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C379" s="10"/>
+      <c r="D379" s="24"/>
+      <c r="E379" s="10"/>
+      <c r="F379" s="10"/>
+      <c r="G379" s="10"/>
+    </row>
+    <row r="380" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C380" s="10"/>
+      <c r="D380" s="24"/>
+      <c r="E380" s="10"/>
+      <c r="F380" s="10"/>
+      <c r="G380" s="10"/>
+    </row>
+    <row r="381" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C381" s="10"/>
+      <c r="D381" s="24"/>
+      <c r="E381" s="10"/>
+      <c r="F381" s="10"/>
+      <c r="G381" s="10"/>
+    </row>
+    <row r="382" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C382" s="10"/>
+      <c r="D382" s="24"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10"/>
+    </row>
+    <row r="383" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C383" s="10"/>
+      <c r="D383" s="24"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10"/>
+    </row>
+    <row r="384" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C384" s="10"/>
+      <c r="D384" s="24"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10"/>
+    </row>
+    <row r="385" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C385" s="10"/>
+      <c r="D385" s="24"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10"/>
+    </row>
+    <row r="386" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C386" s="10"/>
+      <c r="D386" s="24"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10"/>
+    </row>
+    <row r="387" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C387" s="10"/>
+      <c r="D387" s="24"/>
+      <c r="E387" s="10"/>
+      <c r="F387" s="10"/>
+      <c r="G387" s="10"/>
+    </row>
+    <row r="388" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C388" s="10"/>
+      <c r="D388" s="24"/>
+      <c r="E388" s="10"/>
+      <c r="F388" s="10"/>
+      <c r="G388" s="10"/>
+    </row>
+    <row r="389" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C389" s="10"/>
+      <c r="D389" s="24"/>
+      <c r="E389" s="10"/>
+      <c r="F389" s="10"/>
+      <c r="G389" s="10"/>
+    </row>
+    <row r="390" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C390" s="10"/>
+      <c r="D390" s="24"/>
+      <c r="E390" s="10"/>
+      <c r="F390" s="10"/>
+      <c r="G390" s="10"/>
+    </row>
+    <row r="391" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C391" s="10"/>
+      <c r="D391" s="24"/>
+      <c r="E391" s="10"/>
+      <c r="F391" s="10"/>
+      <c r="G391" s="10"/>
+    </row>
+    <row r="392" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C392" s="10"/>
+      <c r="D392" s="24"/>
+      <c r="E392" s="10"/>
+      <c r="F392" s="10"/>
+      <c r="G392" s="10"/>
+    </row>
+    <row r="393" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C393" s="10"/>
+      <c r="D393" s="24"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10"/>
+    </row>
+    <row r="394" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C394" s="10"/>
+      <c r="D394" s="24"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10"/>
+    </row>
+    <row r="395" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C395" s="10"/>
+      <c r="D395" s="24"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
+      <c r="G395" s="10"/>
+    </row>
+    <row r="396" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C396" s="10"/>
+      <c r="D396" s="24"/>
+      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10"/>
+    </row>
+    <row r="397" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C397" s="10"/>
+      <c r="D397" s="24"/>
+      <c r="E397" s="10"/>
+      <c r="F397" s="10"/>
+      <c r="G397" s="10"/>
+    </row>
+    <row r="398" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C398" s="10"/>
+      <c r="D398" s="24"/>
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10"/>
+    </row>
+    <row r="399" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C399" s="10"/>
+      <c r="D399" s="24"/>
+      <c r="E399" s="10"/>
+      <c r="F399" s="10"/>
+      <c r="G399" s="10"/>
+    </row>
+    <row r="400" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C400" s="10"/>
+      <c r="D400" s="24"/>
+      <c r="E400" s="10"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10"/>
+    </row>
+    <row r="401" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C401" s="10"/>
+      <c r="D401" s="24"/>
+      <c r="E401" s="10"/>
+      <c r="F401" s="10"/>
+      <c r="G401" s="10"/>
+    </row>
+    <row r="402" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C402" s="10"/>
+      <c r="D402" s="24"/>
+      <c r="E402" s="10"/>
+      <c r="F402" s="10"/>
+      <c r="G402" s="10"/>
+    </row>
+    <row r="403" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C403" s="10"/>
+      <c r="D403" s="24"/>
+      <c r="E403" s="10"/>
+      <c r="F403" s="10"/>
+      <c r="G403" s="10"/>
+    </row>
+    <row r="404" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C404" s="10"/>
+      <c r="D404" s="24"/>
+      <c r="E404" s="10"/>
+      <c r="F404" s="10"/>
+      <c r="G404" s="10"/>
+    </row>
+    <row r="405" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C405" s="10"/>
+      <c r="D405" s="24"/>
+      <c r="E405" s="10"/>
+      <c r="F405" s="10"/>
+      <c r="G405" s="10"/>
+    </row>
+    <row r="406" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C406" s="10"/>
+      <c r="D406" s="24"/>
+      <c r="E406" s="10"/>
+      <c r="F406" s="10"/>
+      <c r="G406" s="10"/>
+    </row>
+    <row r="407" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C407" s="10"/>
+      <c r="D407" s="24"/>
+      <c r="E407" s="10"/>
+      <c r="F407" s="10"/>
+      <c r="G407" s="10"/>
+    </row>
+    <row r="408" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C408" s="10"/>
+      <c r="D408" s="24"/>
+      <c r="E408" s="10"/>
+      <c r="F408" s="10"/>
+      <c r="G408" s="10"/>
+    </row>
+    <row r="409" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C409" s="10"/>
+      <c r="D409" s="24"/>
+      <c r="E409" s="10"/>
+      <c r="F409" s="10"/>
+      <c r="G409" s="10"/>
+    </row>
+    <row r="410" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C410" s="10"/>
+      <c r="D410" s="24"/>
+      <c r="E410" s="10"/>
+      <c r="F410" s="10"/>
+      <c r="G410" s="10"/>
+    </row>
+    <row r="411" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C411" s="10"/>
+      <c r="D411" s="24"/>
+      <c r="E411" s="10"/>
+      <c r="F411" s="10"/>
+      <c r="G411" s="10"/>
+    </row>
+    <row r="412" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C412" s="10"/>
+      <c r="D412" s="24"/>
+      <c r="E412" s="10"/>
+      <c r="F412" s="10"/>
+      <c r="G412" s="10"/>
+    </row>
+    <row r="413" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C413" s="10"/>
+      <c r="D413" s="24"/>
+      <c r="E413" s="10"/>
+      <c r="F413" s="10"/>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C414" s="10"/>
+      <c r="D414" s="24"/>
+      <c r="E414" s="10"/>
+      <c r="F414" s="10"/>
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C415" s="10"/>
+      <c r="D415" s="24"/>
+      <c r="E415" s="10"/>
+      <c r="F415" s="10"/>
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C416" s="10"/>
+      <c r="D416" s="24"/>
+      <c r="E416" s="10"/>
+      <c r="F416" s="10"/>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C417" s="10"/>
+      <c r="D417" s="24"/>
+      <c r="E417" s="10"/>
+      <c r="F417" s="10"/>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C418" s="10"/>
+      <c r="D418" s="24"/>
+      <c r="E418" s="10"/>
+      <c r="F418" s="10"/>
+      <c r="G418" s="10"/>
+    </row>
+    <row r="419" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C419" s="10"/>
+      <c r="D419" s="24"/>
+      <c r="E419" s="10"/>
+      <c r="F419" s="10"/>
+      <c r="G419" s="10"/>
+    </row>
+    <row r="420" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C420" s="10"/>
+      <c r="D420" s="24"/>
+      <c r="E420" s="10"/>
+      <c r="F420" s="10"/>
+      <c r="G420" s="10"/>
+    </row>
+    <row r="421" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C421" s="10"/>
+      <c r="D421" s="24"/>
+      <c r="E421" s="10"/>
+      <c r="F421" s="10"/>
+      <c r="G421" s="10"/>
+    </row>
+    <row r="422" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C422" s="10"/>
+      <c r="D422" s="24"/>
+      <c r="E422" s="10"/>
+      <c r="F422" s="10"/>
+      <c r="G422" s="10"/>
+    </row>
+    <row r="423" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C423" s="10"/>
+      <c r="D423" s="24"/>
+      <c r="E423" s="10"/>
+      <c r="F423" s="10"/>
+      <c r="G423" s="10"/>
+    </row>
+    <row r="424" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C424" s="10"/>
+      <c r="D424" s="24"/>
+      <c r="E424" s="10"/>
+      <c r="F424" s="10"/>
+      <c r="G424" s="10"/>
+    </row>
+    <row r="425" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C425" s="10"/>
+      <c r="D425" s="24"/>
+      <c r="E425" s="10"/>
+      <c r="F425" s="10"/>
+      <c r="G425" s="10"/>
+    </row>
+    <row r="426" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C426" s="10"/>
+      <c r="D426" s="24"/>
+      <c r="E426" s="10"/>
+      <c r="F426" s="10"/>
+      <c r="G426" s="10"/>
+    </row>
+    <row r="427" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C427" s="10"/>
+      <c r="D427" s="24"/>
+      <c r="E427" s="10"/>
+      <c r="F427" s="10"/>
+      <c r="G427" s="10"/>
+    </row>
+    <row r="428" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C428" s="10"/>
+      <c r="D428" s="24"/>
+      <c r="E428" s="10"/>
+      <c r="F428" s="10"/>
+      <c r="G428" s="10"/>
+    </row>
+    <row r="429" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C429" s="10"/>
+      <c r="D429" s="24"/>
+      <c r="E429" s="10"/>
+      <c r="F429" s="10"/>
+      <c r="G429" s="10"/>
+    </row>
+    <row r="430" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C430" s="10"/>
+      <c r="D430" s="24"/>
+      <c r="E430" s="10"/>
+      <c r="F430" s="10"/>
+      <c r="G430" s="10"/>
+    </row>
+    <row r="431" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C431" s="10"/>
+      <c r="D431" s="24"/>
+      <c r="E431" s="10"/>
+      <c r="F431" s="10"/>
+      <c r="G431" s="10"/>
+    </row>
+    <row r="432" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C432" s="10"/>
+      <c r="D432" s="24"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
+      <c r="G432" s="10"/>
+    </row>
+    <row r="433" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C433" s="10"/>
+      <c r="D433" s="24"/>
+      <c r="E433" s="10"/>
+      <c r="F433" s="10"/>
+      <c r="G433" s="10"/>
+    </row>
+    <row r="434" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C434" s="10"/>
+      <c r="D434" s="24"/>
+      <c r="E434" s="10"/>
+      <c r="F434" s="10"/>
+      <c r="G434" s="10"/>
+    </row>
+    <row r="435" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C435" s="10"/>
+      <c r="D435" s="24"/>
+      <c r="E435" s="10"/>
+      <c r="F435" s="10"/>
+      <c r="G435" s="10"/>
+    </row>
+    <row r="436" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C436" s="10"/>
+      <c r="D436" s="24"/>
+      <c r="E436" s="10"/>
+      <c r="F436" s="10"/>
+      <c r="G436" s="10"/>
+    </row>
+    <row r="437" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C437" s="10"/>
+      <c r="D437" s="24"/>
+      <c r="E437" s="10"/>
+      <c r="F437" s="10"/>
+      <c r="G437" s="10"/>
+    </row>
+    <row r="438" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C438" s="10"/>
+      <c r="D438" s="24"/>
+      <c r="E438" s="10"/>
+      <c r="F438" s="10"/>
+      <c r="G438" s="10"/>
+    </row>
+    <row r="439" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C439" s="10"/>
+      <c r="D439" s="24"/>
+      <c r="E439" s="10"/>
+      <c r="F439" s="10"/>
+      <c r="G439" s="10"/>
+    </row>
+    <row r="440" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C440" s="10"/>
+      <c r="D440" s="24"/>
+      <c r="E440" s="10"/>
+      <c r="F440" s="10"/>
+      <c r="G440" s="10"/>
+    </row>
+    <row r="441" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C441" s="10"/>
+      <c r="D441" s="24"/>
+      <c r="E441" s="10"/>
+      <c r="F441" s="10"/>
+      <c r="G441" s="10"/>
+    </row>
+    <row r="442" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C442" s="10"/>
+      <c r="D442" s="24"/>
+      <c r="E442" s="10"/>
+      <c r="F442" s="10"/>
+      <c r="G442" s="10"/>
+    </row>
+    <row r="443" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C443" s="10"/>
+      <c r="D443" s="24"/>
+      <c r="E443" s="10"/>
+      <c r="F443" s="10"/>
+      <c r="G443" s="10"/>
+    </row>
+    <row r="444" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C444" s="10"/>
+      <c r="D444" s="24"/>
+      <c r="E444" s="10"/>
+      <c r="F444" s="10"/>
+      <c r="G444" s="10"/>
+    </row>
+    <row r="445" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C445" s="10"/>
+      <c r="D445" s="24"/>
+      <c r="E445" s="10"/>
+      <c r="F445" s="10"/>
+      <c r="G445" s="10"/>
+    </row>
+    <row r="446" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C446" s="10"/>
+      <c r="D446" s="24"/>
+      <c r="E446" s="10"/>
+      <c r="F446" s="10"/>
+      <c r="G446" s="10"/>
+    </row>
+    <row r="447" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C447" s="10"/>
+      <c r="D447" s="24"/>
+      <c r="E447" s="10"/>
+      <c r="F447" s="10"/>
+      <c r="G447" s="10"/>
+    </row>
+    <row r="448" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C448" s="10"/>
+      <c r="D448" s="24"/>
+      <c r="E448" s="10"/>
+      <c r="F448" s="10"/>
+      <c r="G448" s="10"/>
+    </row>
+    <row r="449" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C449" s="10"/>
+      <c r="D449" s="24"/>
+      <c r="E449" s="10"/>
+      <c r="F449" s="10"/>
+      <c r="G449" s="10"/>
+    </row>
+    <row r="450" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C450" s="10"/>
+      <c r="D450" s="24"/>
+      <c r="E450" s="10"/>
+      <c r="F450" s="10"/>
+      <c r="G450" s="10"/>
+    </row>
+    <row r="451" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C451" s="10"/>
+      <c r="D451" s="24"/>
+      <c r="E451" s="10"/>
+      <c r="F451" s="10"/>
+      <c r="G451" s="10"/>
+    </row>
+    <row r="452" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C452" s="10"/>
+      <c r="D452" s="24"/>
+      <c r="E452" s="10"/>
+      <c r="F452" s="10"/>
+      <c r="G452" s="10"/>
+    </row>
+    <row r="453" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C453" s="10"/>
+      <c r="D453" s="24"/>
+      <c r="E453" s="10"/>
+      <c r="F453" s="10"/>
+      <c r="G453" s="10"/>
+    </row>
+    <row r="454" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C454" s="10"/>
+      <c r="D454" s="24"/>
+      <c r="E454" s="10"/>
+      <c r="F454" s="10"/>
+      <c r="G454" s="10"/>
+    </row>
+    <row r="455" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C455" s="10"/>
+      <c r="D455" s="24"/>
+      <c r="E455" s="10"/>
+      <c r="F455" s="10"/>
+      <c r="G455" s="10"/>
+    </row>
+    <row r="456" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C456" s="10"/>
+      <c r="D456" s="24"/>
+      <c r="E456" s="10"/>
+      <c r="F456" s="10"/>
+      <c r="G456" s="10"/>
+    </row>
+    <row r="457" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C457" s="10"/>
+      <c r="D457" s="24"/>
+      <c r="E457" s="10"/>
+      <c r="F457" s="10"/>
+      <c r="G457" s="10"/>
+    </row>
+    <row r="458" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C458" s="10"/>
+      <c r="D458" s="24"/>
+      <c r="E458" s="10"/>
+      <c r="F458" s="10"/>
+      <c r="G458" s="10"/>
+    </row>
+    <row r="459" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C459" s="10"/>
+      <c r="D459" s="24"/>
+      <c r="E459" s="10"/>
+      <c r="F459" s="10"/>
+      <c r="G459" s="10"/>
+    </row>
+    <row r="460" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C460" s="10"/>
+      <c r="D460" s="24"/>
+      <c r="E460" s="10"/>
+      <c r="F460" s="10"/>
+      <c r="G460" s="10"/>
+    </row>
+    <row r="461" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C461" s="10"/>
+      <c r="D461" s="24"/>
+      <c r="E461" s="10"/>
+      <c r="F461" s="10"/>
+      <c r="G461" s="10"/>
+    </row>
+    <row r="462" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C462" s="10"/>
+      <c r="D462" s="24"/>
+      <c r="E462" s="10"/>
+      <c r="F462" s="10"/>
+      <c r="G462" s="10"/>
+    </row>
+    <row r="463" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C463" s="10"/>
+      <c r="D463" s="24"/>
+      <c r="E463" s="10"/>
+      <c r="F463" s="10"/>
+      <c r="G463" s="10"/>
+    </row>
+    <row r="464" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C464" s="10"/>
+      <c r="D464" s="24"/>
+      <c r="E464" s="10"/>
+      <c r="F464" s="10"/>
+      <c r="G464" s="10"/>
+    </row>
+    <row r="465" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C465" s="10"/>
+      <c r="D465" s="24"/>
+      <c r="E465" s="10"/>
+      <c r="F465" s="10"/>
+      <c r="G465" s="10"/>
+    </row>
+    <row r="466" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C466" s="10"/>
+      <c r="D466" s="24"/>
+      <c r="E466" s="10"/>
+      <c r="F466" s="10"/>
+      <c r="G466" s="10"/>
+    </row>
+    <row r="467" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C467" s="10"/>
+      <c r="D467" s="24"/>
+      <c r="E467" s="10"/>
+      <c r="F467" s="10"/>
+      <c r="G467" s="10"/>
+    </row>
+    <row r="468" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C468" s="10"/>
+      <c r="D468" s="24"/>
+      <c r="E468" s="10"/>
+      <c r="F468" s="10"/>
+      <c r="G468" s="10"/>
+    </row>
+    <row r="469" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C469" s="10"/>
+      <c r="D469" s="24"/>
+      <c r="E469" s="10"/>
+      <c r="F469" s="10"/>
+      <c r="G469" s="10"/>
+    </row>
+    <row r="470" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C470" s="10"/>
+      <c r="D470" s="24"/>
+      <c r="E470" s="10"/>
+      <c r="F470" s="10"/>
+      <c r="G470" s="10"/>
+    </row>
+    <row r="471" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C471" s="10"/>
+      <c r="D471" s="24"/>
+      <c r="E471" s="10"/>
+      <c r="F471" s="10"/>
+      <c r="G471" s="10"/>
+    </row>
+    <row r="472" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C472" s="10"/>
+      <c r="D472" s="24"/>
+      <c r="E472" s="10"/>
+      <c r="F472" s="10"/>
+      <c r="G472" s="10"/>
+    </row>
+    <row r="473" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C473" s="10"/>
+      <c r="D473" s="24"/>
+      <c r="E473" s="10"/>
+      <c r="F473" s="10"/>
+      <c r="G473" s="10"/>
+    </row>
+    <row r="474" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C474" s="10"/>
+      <c r="D474" s="24"/>
+      <c r="E474" s="10"/>
+      <c r="F474" s="10"/>
+      <c r="G474" s="10"/>
+    </row>
+    <row r="475" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C475" s="10"/>
+      <c r="D475" s="24"/>
+      <c r="E475" s="10"/>
+      <c r="F475" s="10"/>
+      <c r="G475" s="10"/>
+    </row>
+    <row r="476" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C476" s="10"/>
+      <c r="D476" s="24"/>
+      <c r="E476" s="10"/>
+      <c r="F476" s="10"/>
+      <c r="G476" s="10"/>
+    </row>
+    <row r="477" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C477" s="10"/>
+      <c r="D477" s="24"/>
+      <c r="E477" s="10"/>
+      <c r="F477" s="10"/>
+      <c r="G477" s="10"/>
+    </row>
+    <row r="478" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C478" s="10"/>
+      <c r="D478" s="24"/>
+      <c r="E478" s="10"/>
+      <c r="F478" s="10"/>
+      <c r="G478" s="10"/>
+    </row>
+    <row r="479" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C479" s="10"/>
+      <c r="D479" s="24"/>
+      <c r="E479" s="10"/>
+      <c r="F479" s="10"/>
+      <c r="G479" s="10"/>
+    </row>
+    <row r="480" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C480" s="10"/>
+      <c r="D480" s="24"/>
+      <c r="E480" s="10"/>
+      <c r="F480" s="10"/>
+      <c r="G480" s="10"/>
+    </row>
+    <row r="481" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C481" s="10"/>
+      <c r="D481" s="24"/>
+      <c r="E481" s="10"/>
+      <c r="F481" s="10"/>
+      <c r="G481" s="10"/>
+    </row>
+    <row r="482" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C482" s="10"/>
+      <c r="D482" s="24"/>
+      <c r="E482" s="10"/>
+      <c r="F482" s="10"/>
+      <c r="G482" s="10"/>
+    </row>
+    <row r="483" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C483" s="10"/>
+      <c r="D483" s="24"/>
+      <c r="E483" s="10"/>
+      <c r="F483" s="10"/>
+      <c r="G483" s="10"/>
+    </row>
+    <row r="484" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C484" s="10"/>
+      <c r="D484" s="24"/>
+      <c r="E484" s="10"/>
+      <c r="F484" s="10"/>
+      <c r="G484" s="10"/>
+    </row>
+    <row r="485" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C485" s="10"/>
+      <c r="D485" s="24"/>
+      <c r="E485" s="10"/>
+      <c r="F485" s="10"/>
+      <c r="G485" s="10"/>
+    </row>
+    <row r="486" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C486" s="10"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="10"/>
+      <c r="F486" s="10"/>
+      <c r="G486" s="10"/>
+    </row>
+    <row r="487" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C487" s="10"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="10"/>
+      <c r="F487" s="10"/>
+      <c r="G487" s="10"/>
+    </row>
+    <row r="488" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C488" s="10"/>
+      <c r="D488" s="24"/>
+      <c r="E488" s="10"/>
+      <c r="F488" s="10"/>
+      <c r="G488" s="10"/>
+    </row>
+    <row r="489" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C489" s="10"/>
+      <c r="D489" s="24"/>
+      <c r="E489" s="10"/>
+      <c r="F489" s="10"/>
+      <c r="G489" s="10"/>
+    </row>
+    <row r="490" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C490" s="10"/>
+      <c r="D490" s="24"/>
+      <c r="E490" s="10"/>
+      <c r="F490" s="10"/>
+      <c r="G490" s="10"/>
+    </row>
+    <row r="491" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C491" s="10"/>
+      <c r="D491" s="24"/>
+      <c r="E491" s="10"/>
+      <c r="F491" s="10"/>
+      <c r="G491" s="10"/>
+    </row>
+    <row r="492" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C492" s="10"/>
+      <c r="D492" s="24"/>
+      <c r="E492" s="10"/>
+      <c r="F492" s="10"/>
+      <c r="G492" s="10"/>
+    </row>
+    <row r="493" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C493" s="10"/>
+      <c r="D493" s="24"/>
+      <c r="E493" s="10"/>
+      <c r="F493" s="10"/>
+      <c r="G493" s="10"/>
+    </row>
+    <row r="494" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C494" s="10"/>
+      <c r="D494" s="24"/>
+      <c r="E494" s="10"/>
+      <c r="F494" s="10"/>
+      <c r="G494" s="10"/>
+    </row>
+    <row r="495" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C495" s="10"/>
+      <c r="D495" s="24"/>
+      <c r="E495" s="10"/>
+      <c r="F495" s="10"/>
+      <c r="G495" s="10"/>
+    </row>
+    <row r="496" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C496" s="10"/>
+      <c r="D496" s="24"/>
+      <c r="E496" s="10"/>
+      <c r="F496" s="10"/>
+      <c r="G496" s="10"/>
+    </row>
+    <row r="497" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C497" s="10"/>
+      <c r="D497" s="24"/>
+      <c r="E497" s="10"/>
+      <c r="F497" s="10"/>
+      <c r="G497" s="10"/>
+    </row>
+    <row r="498" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C498" s="10"/>
+      <c r="D498" s="24"/>
+      <c r="E498" s="10"/>
+      <c r="F498" s="10"/>
+      <c r="G498" s="10"/>
+    </row>
+    <row r="499" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C499" s="10"/>
+      <c r="D499" s="24"/>
+      <c r="E499" s="10"/>
+      <c r="F499" s="10"/>
+      <c r="G499" s="10"/>
+    </row>
+    <row r="500" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C500" s="10"/>
+      <c r="D500" s="24"/>
+      <c r="E500" s="10"/>
+      <c r="F500" s="10"/>
+      <c r="G500" s="10"/>
+    </row>
+    <row r="501" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C501" s="10"/>
+      <c r="D501" s="24"/>
+      <c r="E501" s="10"/>
+      <c r="F501" s="10"/>
+      <c r="G501" s="10"/>
+    </row>
+    <row r="502" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C502" s="10"/>
+      <c r="D502" s="24"/>
+      <c r="E502" s="10"/>
+      <c r="F502" s="10"/>
+      <c r="G502" s="10"/>
+    </row>
+    <row r="503" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C503" s="10"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="10"/>
+      <c r="F503" s="10"/>
+      <c r="G503" s="10"/>
+    </row>
+    <row r="504" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C504" s="10"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="10"/>
+      <c r="F504" s="10"/>
+      <c r="G504" s="10"/>
+    </row>
+    <row r="505" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C505" s="10"/>
+      <c r="D505" s="24"/>
+      <c r="E505" s="10"/>
+      <c r="F505" s="10"/>
+      <c r="G505" s="10"/>
+    </row>
+    <row r="506" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C506" s="10"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="10"/>
+      <c r="F506" s="10"/>
+      <c r="G506" s="10"/>
+    </row>
+    <row r="507" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C507" s="10"/>
+      <c r="D507" s="24"/>
+      <c r="E507" s="10"/>
+      <c r="F507" s="10"/>
+      <c r="G507" s="10"/>
+    </row>
+    <row r="508" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C508" s="10"/>
+      <c r="D508" s="24"/>
+      <c r="E508" s="10"/>
+      <c r="F508" s="10"/>
+      <c r="G508" s="10"/>
+    </row>
+    <row r="509" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C509" s="10"/>
+      <c r="D509" s="24"/>
+      <c r="E509" s="10"/>
+      <c r="F509" s="10"/>
+      <c r="G509" s="10"/>
+    </row>
+    <row r="510" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C510" s="10"/>
+      <c r="D510" s="24"/>
+      <c r="E510" s="10"/>
+      <c r="F510" s="10"/>
+      <c r="G510" s="10"/>
+    </row>
+    <row r="511" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C511" s="10"/>
+      <c r="D511" s="24"/>
+      <c r="E511" s="10"/>
+      <c r="F511" s="10"/>
+      <c r="G511" s="10"/>
+    </row>
+    <row r="512" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C512" s="10"/>
+      <c r="D512" s="24"/>
+      <c r="E512" s="10"/>
+      <c r="F512" s="10"/>
+      <c r="G512" s="10"/>
+    </row>
+    <row r="513" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C513" s="10"/>
+      <c r="D513" s="24"/>
+      <c r="E513" s="10"/>
+      <c r="F513" s="10"/>
+      <c r="G513" s="10"/>
+    </row>
+    <row r="514" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C514" s="10"/>
+      <c r="D514" s="24"/>
+      <c r="E514" s="10"/>
+      <c r="F514" s="10"/>
+      <c r="G514" s="10"/>
+    </row>
+    <row r="515" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C515" s="10"/>
+      <c r="D515" s="24"/>
+      <c r="E515" s="10"/>
+      <c r="F515" s="10"/>
+      <c r="G515" s="10"/>
+    </row>
+    <row r="516" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C516" s="10"/>
+      <c r="D516" s="24"/>
+      <c r="E516" s="10"/>
+      <c r="F516" s="10"/>
+      <c r="G516" s="10"/>
+    </row>
+    <row r="517" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C517" s="10"/>
+      <c r="D517" s="24"/>
+      <c r="E517" s="10"/>
+      <c r="F517" s="10"/>
+      <c r="G517" s="10"/>
+    </row>
+    <row r="518" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C518" s="10"/>
+      <c r="D518" s="24"/>
+      <c r="E518" s="10"/>
+      <c r="F518" s="10"/>
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C519" s="10"/>
+      <c r="D519" s="24"/>
+      <c r="E519" s="10"/>
+      <c r="F519" s="10"/>
+      <c r="G519" s="10"/>
+    </row>
+    <row r="520" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C520" s="10"/>
+      <c r="D520" s="24"/>
+      <c r="E520" s="10"/>
+      <c r="F520" s="10"/>
+      <c r="G520" s="10"/>
+    </row>
+    <row r="521" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C521" s="10"/>
+      <c r="D521" s="24"/>
+      <c r="E521" s="10"/>
+      <c r="F521" s="10"/>
+      <c r="G521" s="10"/>
+    </row>
+    <row r="522" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C522" s="10"/>
+      <c r="D522" s="24"/>
+      <c r="E522" s="10"/>
+      <c r="F522" s="10"/>
+      <c r="G522" s="10"/>
+    </row>
+    <row r="523" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C523" s="10"/>
+      <c r="D523" s="24"/>
+      <c r="E523" s="10"/>
+      <c r="F523" s="10"/>
+      <c r="G523" s="10"/>
+    </row>
+    <row r="524" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C524" s="10"/>
+      <c r="D524" s="24"/>
+      <c r="E524" s="10"/>
+      <c r="F524" s="10"/>
+      <c r="G524" s="10"/>
+    </row>
+    <row r="525" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C525" s="10"/>
+      <c r="D525" s="24"/>
+      <c r="E525" s="10"/>
+      <c r="F525" s="10"/>
+      <c r="G525" s="10"/>
+    </row>
+    <row r="526" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C526" s="10"/>
+      <c r="D526" s="24"/>
+      <c r="E526" s="10"/>
+      <c r="F526" s="10"/>
+      <c r="G526" s="10"/>
+    </row>
+    <row r="527" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C527" s="10"/>
+      <c r="D527" s="24"/>
+      <c r="E527" s="10"/>
+      <c r="F527" s="10"/>
+      <c r="G527" s="10"/>
+    </row>
+    <row r="528" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C528" s="10"/>
+      <c r="D528" s="24"/>
+      <c r="E528" s="10"/>
+      <c r="F528" s="10"/>
+      <c r="G528" s="10"/>
+    </row>
+    <row r="529" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C529" s="10"/>
+      <c r="D529" s="24"/>
+      <c r="E529" s="10"/>
+      <c r="F529" s="10"/>
+      <c r="G529" s="10"/>
+    </row>
+    <row r="530" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C530" s="10"/>
+      <c r="D530" s="24"/>
+      <c r="E530" s="10"/>
+      <c r="F530" s="10"/>
+      <c r="G530" s="10"/>
+    </row>
+    <row r="531" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C531" s="10"/>
+      <c r="D531" s="24"/>
+      <c r="E531" s="10"/>
+      <c r="F531" s="10"/>
+      <c r="G531" s="10"/>
+    </row>
+    <row r="532" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C532" s="10"/>
+      <c r="D532" s="24"/>
+      <c r="E532" s="10"/>
+      <c r="F532" s="10"/>
+      <c r="G532" s="10"/>
+    </row>
+    <row r="533" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C533" s="10"/>
+      <c r="D533" s="24"/>
+      <c r="E533" s="10"/>
+      <c r="F533" s="10"/>
+      <c r="G533" s="10"/>
+    </row>
+    <row r="534" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C534" s="10"/>
+      <c r="D534" s="24"/>
+      <c r="E534" s="10"/>
+      <c r="F534" s="10"/>
+      <c r="G534" s="10"/>
+    </row>
+    <row r="535" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C535" s="10"/>
+      <c r="D535" s="24"/>
+      <c r="E535" s="10"/>
+      <c r="F535" s="10"/>
+      <c r="G535" s="10"/>
+    </row>
+    <row r="536" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C536" s="10"/>
+      <c r="D536" s="24"/>
+      <c r="E536" s="10"/>
+      <c r="F536" s="10"/>
+      <c r="G536" s="10"/>
+    </row>
+    <row r="537" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C537" s="10"/>
+      <c r="D537" s="24"/>
+      <c r="E537" s="10"/>
+      <c r="F537" s="10"/>
+      <c r="G537" s="10"/>
+    </row>
+    <row r="538" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C538" s="10"/>
+      <c r="D538" s="24"/>
+      <c r="E538" s="10"/>
+      <c r="F538" s="10"/>
+      <c r="G538" s="10"/>
+    </row>
+    <row r="539" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C539" s="10"/>
+      <c r="D539" s="24"/>
+      <c r="E539" s="10"/>
+      <c r="F539" s="10"/>
+      <c r="G539" s="10"/>
+    </row>
+    <row r="540" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C540" s="10"/>
+      <c r="D540" s="24"/>
+      <c r="E540" s="10"/>
+      <c r="F540" s="10"/>
+      <c r="G540" s="10"/>
+    </row>
+    <row r="541" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C541" s="10"/>
+      <c r="D541" s="24"/>
+      <c r="E541" s="10"/>
+      <c r="F541" s="10"/>
+      <c r="G541" s="10"/>
+    </row>
+    <row r="542" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C542" s="10"/>
+      <c r="D542" s="24"/>
+      <c r="E542" s="10"/>
+      <c r="F542" s="10"/>
+      <c r="G542" s="10"/>
+    </row>
+    <row r="543" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C543" s="10"/>
+      <c r="D543" s="24"/>
+      <c r="E543" s="10"/>
+      <c r="F543" s="10"/>
+      <c r="G543" s="10"/>
+    </row>
+    <row r="544" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C544" s="10"/>
+      <c r="D544" s="24"/>
+      <c r="E544" s="10"/>
+      <c r="F544" s="10"/>
+      <c r="G544" s="10"/>
+    </row>
+    <row r="545" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C545" s="10"/>
+      <c r="D545" s="24"/>
+      <c r="E545" s="10"/>
+      <c r="F545" s="10"/>
+      <c r="G545" s="10"/>
+    </row>
+    <row r="546" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C546" s="10"/>
+      <c r="D546" s="24"/>
+      <c r="E546" s="10"/>
+      <c r="F546" s="10"/>
+      <c r="G546" s="10"/>
+    </row>
+    <row r="547" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C547" s="10"/>
+      <c r="D547" s="24"/>
+      <c r="E547" s="10"/>
+      <c r="F547" s="10"/>
+      <c r="G547" s="10"/>
+    </row>
+    <row r="548" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C548" s="10"/>
+      <c r="D548" s="24"/>
+      <c r="E548" s="10"/>
+      <c r="F548" s="10"/>
+      <c r="G548" s="10"/>
+    </row>
+    <row r="549" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C549" s="10"/>
+      <c r="D549" s="24"/>
+      <c r="E549" s="10"/>
+      <c r="F549" s="10"/>
+      <c r="G549" s="10"/>
+    </row>
+    <row r="550" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C550" s="10"/>
+      <c r="D550" s="24"/>
+      <c r="E550" s="10"/>
+      <c r="F550" s="10"/>
+      <c r="G550" s="10"/>
+    </row>
+    <row r="551" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C551" s="10"/>
+      <c r="D551" s="24"/>
+      <c r="E551" s="10"/>
+      <c r="F551" s="10"/>
+      <c r="G551" s="10"/>
+    </row>
+    <row r="552" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C552" s="10"/>
+      <c r="D552" s="24"/>
+      <c r="E552" s="10"/>
+      <c r="F552" s="10"/>
+      <c r="G552" s="10"/>
+    </row>
+    <row r="553" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C553" s="10"/>
+      <c r="D553" s="24"/>
+      <c r="E553" s="10"/>
+      <c r="F553" s="10"/>
+      <c r="G553" s="10"/>
+    </row>
+    <row r="554" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C554" s="10"/>
+      <c r="D554" s="24"/>
+      <c r="E554" s="10"/>
+      <c r="F554" s="10"/>
+      <c r="G554" s="10"/>
+    </row>
+    <row r="555" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C555" s="10"/>
+      <c r="D555" s="24"/>
+      <c r="E555" s="10"/>
+      <c r="F555" s="10"/>
+      <c r="G555" s="10"/>
+    </row>
+    <row r="556" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C556" s="10"/>
+      <c r="D556" s="24"/>
+      <c r="E556" s="10"/>
+      <c r="F556" s="10"/>
+      <c r="G556" s="10"/>
+    </row>
+    <row r="557" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C557" s="10"/>
+      <c r="D557" s="24"/>
+      <c r="E557" s="10"/>
+      <c r="F557" s="10"/>
+      <c r="G557" s="10"/>
+    </row>
+    <row r="558" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C558" s="10"/>
+      <c r="D558" s="24"/>
+      <c r="E558" s="10"/>
+      <c r="F558" s="10"/>
+      <c r="G558" s="10"/>
+    </row>
+    <row r="559" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C559" s="10"/>
+      <c r="D559" s="24"/>
+      <c r="E559" s="10"/>
+      <c r="F559" s="10"/>
+      <c r="G559" s="10"/>
+    </row>
+    <row r="560" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C560" s="10"/>
+      <c r="D560" s="24"/>
+      <c r="E560" s="10"/>
+      <c r="F560" s="10"/>
+      <c r="G560" s="10"/>
+    </row>
+    <row r="561" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C561" s="10"/>
+      <c r="D561" s="24"/>
+      <c r="E561" s="10"/>
+      <c r="F561" s="10"/>
+      <c r="G561" s="10"/>
+    </row>
+    <row r="562" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C562" s="10"/>
+      <c r="D562" s="24"/>
+      <c r="E562" s="10"/>
+      <c r="F562" s="10"/>
+      <c r="G562" s="10"/>
+    </row>
+    <row r="563" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C563" s="10"/>
+      <c r="D563" s="24"/>
+      <c r="E563" s="10"/>
+      <c r="F563" s="10"/>
+      <c r="G563" s="10"/>
+    </row>
+    <row r="564" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C564" s="10"/>
+      <c r="D564" s="24"/>
+      <c r="E564" s="10"/>
+      <c r="F564" s="10"/>
+      <c r="G564" s="10"/>
+    </row>
+    <row r="565" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C565" s="10"/>
+      <c r="D565" s="24"/>
+      <c r="E565" s="10"/>
+      <c r="F565" s="10"/>
+      <c r="G565" s="10"/>
+    </row>
+    <row r="566" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C566" s="10"/>
+      <c r="D566" s="24"/>
+      <c r="E566" s="10"/>
+      <c r="F566" s="10"/>
+      <c r="G566" s="10"/>
+    </row>
+    <row r="567" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C567" s="10"/>
+      <c r="D567" s="24"/>
+      <c r="E567" s="10"/>
+      <c r="F567" s="10"/>
+      <c r="G567" s="10"/>
+    </row>
+    <row r="568" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C568" s="10"/>
+      <c r="D568" s="24"/>
+      <c r="E568" s="10"/>
+      <c r="F568" s="10"/>
+      <c r="G568" s="10"/>
+    </row>
+    <row r="569" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C569" s="10"/>
+      <c r="D569" s="24"/>
+      <c r="E569" s="10"/>
+      <c r="F569" s="10"/>
+      <c r="G569" s="10"/>
+    </row>
+    <row r="570" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C570" s="10"/>
+      <c r="D570" s="24"/>
+      <c r="E570" s="10"/>
+      <c r="F570" s="10"/>
+      <c r="G570" s="10"/>
+    </row>
+    <row r="571" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C571" s="10"/>
+      <c r="D571" s="24"/>
+      <c r="E571" s="10"/>
+      <c r="F571" s="10"/>
+      <c r="G571" s="10"/>
+    </row>
+    <row r="572" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C572" s="10"/>
+      <c r="D572" s="24"/>
+      <c r="E572" s="10"/>
+      <c r="F572" s="10"/>
+      <c r="G572" s="10"/>
+    </row>
+    <row r="573" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C573" s="10"/>
+      <c r="D573" s="24"/>
+      <c r="E573" s="10"/>
+      <c r="F573" s="10"/>
+      <c r="G573" s="10"/>
+    </row>
+    <row r="574" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C574" s="10"/>
+      <c r="D574" s="24"/>
+      <c r="E574" s="10"/>
+      <c r="F574" s="10"/>
+      <c r="G574" s="10"/>
+    </row>
+    <row r="575" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C575" s="10"/>
+      <c r="D575" s="24"/>
+      <c r="E575" s="10"/>
+      <c r="F575" s="10"/>
+      <c r="G575" s="10"/>
+    </row>
+    <row r="576" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C576" s="10"/>
+      <c r="D576" s="24"/>
+      <c r="E576" s="10"/>
+      <c r="F576" s="10"/>
+      <c r="G576" s="10"/>
+    </row>
+    <row r="577" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C577" s="10"/>
+      <c r="D577" s="24"/>
+      <c r="E577" s="10"/>
+      <c r="F577" s="10"/>
+      <c r="G577" s="10"/>
+    </row>
+    <row r="578" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C578" s="10"/>
+      <c r="D578" s="24"/>
+      <c r="E578" s="10"/>
+      <c r="F578" s="10"/>
+      <c r="G578" s="10"/>
+    </row>
+    <row r="579" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C579" s="10"/>
+      <c r="D579" s="24"/>
+      <c r="E579" s="10"/>
+      <c r="F579" s="10"/>
+      <c r="G579" s="10"/>
+    </row>
+    <row r="580" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C580" s="10"/>
+      <c r="D580" s="24"/>
+      <c r="E580" s="10"/>
+      <c r="F580" s="10"/>
+      <c r="G580" s="10"/>
+    </row>
+    <row r="581" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C581" s="10"/>
+      <c r="D581" s="24"/>
+      <c r="E581" s="10"/>
+      <c r="F581" s="10"/>
+      <c r="G581" s="10"/>
+    </row>
+    <row r="582" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C582" s="10"/>
+      <c r="D582" s="24"/>
+      <c r="E582" s="10"/>
+      <c r="F582" s="10"/>
+      <c r="G582" s="10"/>
+    </row>
+    <row r="583" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C583" s="10"/>
+      <c r="D583" s="24"/>
+      <c r="E583" s="10"/>
+      <c r="F583" s="10"/>
+      <c r="G583" s="10"/>
+    </row>
+    <row r="584" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C584" s="10"/>
+      <c r="D584" s="24"/>
+      <c r="E584" s="10"/>
+      <c r="F584" s="10"/>
+      <c r="G584" s="10"/>
+    </row>
+    <row r="585" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C585" s="10"/>
+      <c r="D585" s="24"/>
+      <c r="E585" s="10"/>
+      <c r="F585" s="10"/>
+      <c r="G585" s="10"/>
+    </row>
+    <row r="586" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C586" s="10"/>
+      <c r="D586" s="24"/>
+      <c r="E586" s="10"/>
+      <c r="F586" s="10"/>
+      <c r="G586" s="10"/>
+    </row>
+    <row r="587" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C587" s="10"/>
+      <c r="D587" s="24"/>
+      <c r="E587" s="10"/>
+      <c r="F587" s="10"/>
+      <c r="G587" s="10"/>
+    </row>
+    <row r="588" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C588" s="10"/>
+      <c r="D588" s="24"/>
+      <c r="E588" s="10"/>
+      <c r="F588" s="10"/>
+      <c r="G588" s="10"/>
+    </row>
+    <row r="589" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C589" s="10"/>
+      <c r="D589" s="24"/>
+      <c r="E589" s="10"/>
+      <c r="F589" s="10"/>
+      <c r="G589" s="10"/>
+    </row>
+    <row r="590" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C590" s="10"/>
+      <c r="D590" s="24"/>
+      <c r="E590" s="10"/>
+      <c r="F590" s="10"/>
+      <c r="G590" s="10"/>
+    </row>
+    <row r="591" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C591" s="10"/>
+      <c r="D591" s="24"/>
+      <c r="E591" s="10"/>
+      <c r="F591" s="10"/>
+      <c r="G591" s="10"/>
+    </row>
+    <row r="592" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C592" s="10"/>
+      <c r="D592" s="24"/>
+      <c r="E592" s="10"/>
+      <c r="F592" s="10"/>
+      <c r="G592" s="10"/>
+    </row>
+    <row r="593" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C593" s="10"/>
+      <c r="D593" s="24"/>
+      <c r="E593" s="10"/>
+      <c r="F593" s="10"/>
+      <c r="G593" s="10"/>
+    </row>
+    <row r="594" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C594" s="10"/>
+      <c r="D594" s="24"/>
+      <c r="E594" s="10"/>
+      <c r="F594" s="10"/>
+      <c r="G594" s="10"/>
+    </row>
+    <row r="595" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C595" s="10"/>
+      <c r="D595" s="24"/>
+      <c r="E595" s="10"/>
+      <c r="F595" s="10"/>
+      <c r="G595" s="10"/>
+    </row>
+    <row r="596" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C596" s="10"/>
+      <c r="D596" s="24"/>
+      <c r="E596" s="10"/>
+      <c r="F596" s="10"/>
+      <c r="G596" s="10"/>
+    </row>
+    <row r="597" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C597" s="10"/>
+      <c r="D597" s="24"/>
+      <c r="E597" s="10"/>
+      <c r="F597" s="10"/>
+      <c r="G597" s="10"/>
+    </row>
+    <row r="598" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C598" s="10"/>
+      <c r="D598" s="24"/>
+      <c r="E598" s="10"/>
+      <c r="F598" s="10"/>
+      <c r="G598" s="10"/>
+    </row>
+    <row r="599" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C599" s="10"/>
+      <c r="D599" s="24"/>
+      <c r="E599" s="10"/>
+      <c r="F599" s="10"/>
+      <c r="G599" s="10"/>
+    </row>
+    <row r="600" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C600" s="10"/>
+      <c r="D600" s="24"/>
+      <c r="E600" s="10"/>
+      <c r="F600" s="10"/>
+      <c r="G600" s="10"/>
+    </row>
+    <row r="601" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C601" s="10"/>
+      <c r="D601" s="24"/>
+      <c r="E601" s="10"/>
+      <c r="F601" s="10"/>
+      <c r="G601" s="10"/>
+    </row>
+    <row r="602" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C602" s="10"/>
+      <c r="D602" s="24"/>
+      <c r="E602" s="10"/>
+      <c r="F602" s="10"/>
+      <c r="G602" s="10"/>
+    </row>
+    <row r="603" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C603" s="10"/>
+      <c r="D603" s="24"/>
+      <c r="E603" s="10"/>
+      <c r="F603" s="10"/>
+      <c r="G603" s="10"/>
+    </row>
+    <row r="604" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C604" s="10"/>
+      <c r="D604" s="24"/>
+      <c r="E604" s="10"/>
+      <c r="F604" s="10"/>
+      <c r="G604" s="10"/>
+    </row>
+    <row r="605" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C605" s="10"/>
+      <c r="D605" s="24"/>
+      <c r="E605" s="10"/>
+      <c r="F605" s="10"/>
+      <c r="G605" s="10"/>
+    </row>
+    <row r="606" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C606" s="10"/>
+      <c r="D606" s="24"/>
+      <c r="E606" s="10"/>
+      <c r="F606" s="10"/>
+      <c r="G606" s="10"/>
+    </row>
+    <row r="607" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C607" s="10"/>
+      <c r="D607" s="24"/>
+      <c r="E607" s="10"/>
+      <c r="F607" s="10"/>
+      <c r="G607" s="10"/>
+    </row>
+    <row r="608" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C608" s="10"/>
+      <c r="D608" s="24"/>
+      <c r="E608" s="10"/>
+      <c r="F608" s="10"/>
+      <c r="G608" s="10"/>
+    </row>
+    <row r="609" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C609" s="10"/>
+      <c r="D609" s="24"/>
+      <c r="E609" s="10"/>
+      <c r="F609" s="10"/>
+      <c r="G609" s="10"/>
+    </row>
+    <row r="610" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C610" s="10"/>
+      <c r="D610" s="24"/>
+      <c r="E610" s="10"/>
+      <c r="F610" s="10"/>
+      <c r="G610" s="10"/>
+    </row>
+    <row r="611" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C611" s="10"/>
+      <c r="D611" s="24"/>
+      <c r="E611" s="10"/>
+      <c r="F611" s="10"/>
+      <c r="G611" s="10"/>
+    </row>
+    <row r="612" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C612" s="10"/>
+      <c r="D612" s="24"/>
+      <c r="E612" s="10"/>
+      <c r="F612" s="10"/>
+      <c r="G612" s="10"/>
+    </row>
+    <row r="613" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C613" s="10"/>
+      <c r="D613" s="24"/>
+      <c r="E613" s="10"/>
+      <c r="F613" s="10"/>
+      <c r="G613" s="10"/>
+    </row>
+    <row r="614" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C614" s="10"/>
+      <c r="D614" s="24"/>
+      <c r="E614" s="10"/>
+      <c r="F614" s="10"/>
+      <c r="G614" s="10"/>
+    </row>
+    <row r="615" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C615" s="10"/>
+      <c r="D615" s="24"/>
+      <c r="E615" s="10"/>
+      <c r="F615" s="10"/>
+      <c r="G615" s="10"/>
+    </row>
+    <row r="616" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C616" s="10"/>
+      <c r="D616" s="24"/>
+      <c r="E616" s="10"/>
+      <c r="F616" s="10"/>
+      <c r="G616" s="10"/>
+    </row>
+    <row r="617" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C617" s="10"/>
+      <c r="D617" s="24"/>
+      <c r="E617" s="10"/>
+      <c r="F617" s="10"/>
+      <c r="G617" s="10"/>
+    </row>
+    <row r="618" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C618" s="10"/>
+      <c r="D618" s="24"/>
+      <c r="E618" s="10"/>
+      <c r="F618" s="10"/>
+      <c r="G618" s="10"/>
+    </row>
+    <row r="619" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C619" s="10"/>
+      <c r="D619" s="24"/>
+      <c r="E619" s="10"/>
+      <c r="F619" s="10"/>
+      <c r="G619" s="10"/>
+    </row>
+    <row r="620" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C620" s="10"/>
+      <c r="D620" s="24"/>
+      <c r="E620" s="10"/>
+      <c r="F620" s="10"/>
+      <c r="G620" s="10"/>
+    </row>
+    <row r="621" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C621" s="10"/>
+      <c r="D621" s="24"/>
+      <c r="E621" s="10"/>
+      <c r="F621" s="10"/>
+      <c r="G621" s="10"/>
+    </row>
+    <row r="622" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C622" s="10"/>
+      <c r="D622" s="24"/>
+      <c r="E622" s="10"/>
+      <c r="F622" s="10"/>
+      <c r="G622" s="10"/>
+    </row>
+    <row r="623" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C623" s="10"/>
+      <c r="D623" s="24"/>
+      <c r="E623" s="10"/>
+      <c r="F623" s="10"/>
+      <c r="G623" s="10"/>
+    </row>
+    <row r="624" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C624" s="10"/>
+      <c r="D624" s="24"/>
+      <c r="E624" s="10"/>
+      <c r="F624" s="10"/>
+      <c r="G624" s="10"/>
+    </row>
+    <row r="625" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C625" s="10"/>
+      <c r="D625" s="24"/>
+      <c r="E625" s="10"/>
+      <c r="F625" s="10"/>
+      <c r="G625" s="10"/>
+    </row>
+    <row r="626" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C626" s="10"/>
+      <c r="D626" s="24"/>
+      <c r="E626" s="10"/>
+      <c r="F626" s="10"/>
+      <c r="G626" s="10"/>
+    </row>
+    <row r="627" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C627" s="10"/>
+      <c r="D627" s="24"/>
+      <c r="E627" s="10"/>
+      <c r="F627" s="10"/>
+      <c r="G627" s="10"/>
+    </row>
+    <row r="628" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C628" s="10"/>
+      <c r="D628" s="24"/>
+      <c r="E628" s="10"/>
+      <c r="F628" s="10"/>
+      <c r="G628" s="10"/>
+    </row>
+    <row r="629" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C629" s="10"/>
+      <c r="D629" s="24"/>
+      <c r="E629" s="10"/>
+      <c r="F629" s="10"/>
+      <c r="G629" s="10"/>
+    </row>
+    <row r="630" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C630" s="10"/>
+      <c r="D630" s="24"/>
+      <c r="E630" s="10"/>
+      <c r="F630" s="10"/>
+      <c r="G630" s="10"/>
+    </row>
+    <row r="631" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C631" s="10"/>
+      <c r="D631" s="24"/>
+      <c r="E631" s="10"/>
+      <c r="F631" s="10"/>
+      <c r="G631" s="10"/>
+    </row>
+    <row r="632" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C632" s="10"/>
+      <c r="D632" s="24"/>
+      <c r="E632" s="10"/>
+      <c r="F632" s="10"/>
+      <c r="G632" s="10"/>
+    </row>
+    <row r="633" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C633" s="10"/>
+      <c r="D633" s="24"/>
+      <c r="E633" s="10"/>
+      <c r="F633" s="10"/>
+      <c r="G633" s="10"/>
+    </row>
+    <row r="634" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C634" s="10"/>
+      <c r="D634" s="24"/>
+      <c r="E634" s="10"/>
+      <c r="F634" s="10"/>
+      <c r="G634" s="10"/>
+    </row>
+    <row r="635" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C635" s="10"/>
+      <c r="D635" s="24"/>
+      <c r="E635" s="10"/>
+      <c r="F635" s="10"/>
+      <c r="G635" s="10"/>
+    </row>
+    <row r="636" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C636" s="10"/>
+      <c r="D636" s="24"/>
+      <c r="E636" s="10"/>
+      <c r="F636" s="10"/>
+      <c r="G636" s="10"/>
+    </row>
+    <row r="637" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C637" s="10"/>
+      <c r="D637" s="24"/>
+      <c r="E637" s="10"/>
+      <c r="F637" s="10"/>
+      <c r="G637" s="10"/>
+    </row>
+    <row r="638" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C638" s="10"/>
+      <c r="D638" s="24"/>
+      <c r="E638" s="10"/>
+      <c r="F638" s="10"/>
+      <c r="G638" s="10"/>
+    </row>
+    <row r="639" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C639" s="10"/>
+      <c r="D639" s="24"/>
+      <c r="E639" s="10"/>
+      <c r="F639" s="10"/>
+      <c r="G639" s="10"/>
+    </row>
+    <row r="640" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C640" s="10"/>
+      <c r="D640" s="24"/>
+      <c r="E640" s="10"/>
+      <c r="F640" s="10"/>
+      <c r="G640" s="10"/>
+    </row>
+    <row r="641" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C641" s="10"/>
+      <c r="D641" s="24"/>
+      <c r="E641" s="10"/>
+      <c r="F641" s="10"/>
+      <c r="G641" s="10"/>
+    </row>
+    <row r="642" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C642" s="10"/>
+      <c r="D642" s="24"/>
+      <c r="E642" s="10"/>
+      <c r="F642" s="10"/>
+      <c r="G642" s="10"/>
+    </row>
+    <row r="643" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C643" s="10"/>
+      <c r="D643" s="24"/>
+      <c r="E643" s="10"/>
+      <c r="F643" s="10"/>
+      <c r="G643" s="10"/>
+    </row>
+    <row r="644" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C644" s="10"/>
+      <c r="D644" s="24"/>
+      <c r="E644" s="10"/>
+      <c r="F644" s="10"/>
+      <c r="G644" s="10"/>
+    </row>
+    <row r="645" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C645" s="10"/>
+      <c r="D645" s="24"/>
+      <c r="E645" s="10"/>
+      <c r="F645" s="10"/>
+      <c r="G645" s="10"/>
+    </row>
+    <row r="646" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C646" s="10"/>
+      <c r="D646" s="24"/>
+      <c r="E646" s="10"/>
+      <c r="F646" s="10"/>
+      <c r="G646" s="10"/>
+    </row>
+    <row r="647" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C647" s="10"/>
+      <c r="D647" s="24"/>
+      <c r="E647" s="10"/>
+      <c r="F647" s="10"/>
+      <c r="G647" s="10"/>
+    </row>
+    <row r="648" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C648" s="10"/>
+      <c r="D648" s="24"/>
+      <c r="E648" s="10"/>
+      <c r="F648" s="10"/>
+      <c r="G648" s="10"/>
+    </row>
+    <row r="649" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C649" s="10"/>
+      <c r="D649" s="24"/>
+      <c r="E649" s="10"/>
+      <c r="F649" s="10"/>
+      <c r="G649" s="10"/>
+    </row>
+    <row r="650" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C650" s="10"/>
+      <c r="D650" s="24"/>
+      <c r="E650" s="10"/>
+      <c r="F650" s="10"/>
+      <c r="G650" s="10"/>
+    </row>
+    <row r="651" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C651" s="10"/>
+      <c r="D651" s="24"/>
+      <c r="E651" s="10"/>
+      <c r="F651" s="10"/>
+      <c r="G651" s="10"/>
+    </row>
+    <row r="652" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C652" s="10"/>
+      <c r="D652" s="24"/>
+      <c r="E652" s="10"/>
+      <c r="F652" s="10"/>
+      <c r="G652" s="10"/>
+    </row>
+    <row r="653" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C653" s="10"/>
+      <c r="D653" s="24"/>
+      <c r="E653" s="10"/>
+      <c r="F653" s="10"/>
+      <c r="G653" s="10"/>
+    </row>
+    <row r="654" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C654" s="10"/>
+      <c r="D654" s="24"/>
+      <c r="E654" s="10"/>
+      <c r="F654" s="10"/>
+      <c r="G654" s="10"/>
+    </row>
+    <row r="655" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C655" s="10"/>
+      <c r="D655" s="24"/>
+      <c r="E655" s="10"/>
+      <c r="F655" s="10"/>
+      <c r="G655" s="10"/>
+    </row>
+    <row r="656" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C656" s="10"/>
+      <c r="D656" s="24"/>
+      <c r="E656" s="10"/>
+      <c r="F656" s="10"/>
+      <c r="G656" s="10"/>
+    </row>
+    <row r="657" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C657" s="10"/>
+      <c r="D657" s="24"/>
+      <c r="E657" s="10"/>
+      <c r="F657" s="10"/>
+      <c r="G657" s="10"/>
+    </row>
+    <row r="658" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C658" s="10"/>
+      <c r="D658" s="24"/>
+      <c r="E658" s="10"/>
+      <c r="F658" s="10"/>
+      <c r="G658" s="10"/>
+    </row>
+    <row r="659" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C659" s="10"/>
+      <c r="D659" s="24"/>
+      <c r="E659" s="10"/>
+      <c r="F659" s="10"/>
+      <c r="G659" s="10"/>
+    </row>
+    <row r="660" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C660" s="10"/>
+      <c r="D660" s="24"/>
+      <c r="E660" s="10"/>
+      <c r="F660" s="10"/>
+      <c r="G660" s="10"/>
+    </row>
+    <row r="661" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C661" s="10"/>
+      <c r="D661" s="24"/>
+      <c r="E661" s="10"/>
+      <c r="F661" s="10"/>
+      <c r="G661" s="10"/>
+    </row>
+    <row r="662" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C662" s="10"/>
+      <c r="D662" s="24"/>
+      <c r="E662" s="10"/>
+      <c r="F662" s="10"/>
+      <c r="G662" s="10"/>
+    </row>
+    <row r="663" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C663" s="10"/>
+      <c r="D663" s="24"/>
+      <c r="E663" s="10"/>
+      <c r="F663" s="10"/>
+      <c r="G663" s="10"/>
+    </row>
+    <row r="664" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C664" s="10"/>
+      <c r="D664" s="24"/>
+      <c r="E664" s="10"/>
+      <c r="F664" s="10"/>
+      <c r="G664" s="10"/>
+    </row>
+    <row r="665" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C665" s="10"/>
+      <c r="D665" s="24"/>
+      <c r="E665" s="10"/>
+      <c r="F665" s="10"/>
+      <c r="G665" s="10"/>
+    </row>
+    <row r="666" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C666" s="10"/>
+      <c r="D666" s="24"/>
+      <c r="E666" s="10"/>
+      <c r="F666" s="10"/>
+      <c r="G666" s="10"/>
+    </row>
+    <row r="667" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C667" s="10"/>
+      <c r="D667" s="24"/>
+      <c r="E667" s="10"/>
+      <c r="F667" s="10"/>
+      <c r="G667" s="10"/>
+    </row>
+    <row r="668" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C668" s="10"/>
+      <c r="D668" s="24"/>
+      <c r="E668" s="10"/>
+      <c r="F668" s="10"/>
+      <c r="G668" s="10"/>
+    </row>
+    <row r="669" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C669" s="10"/>
+      <c r="D669" s="24"/>
+      <c r="E669" s="10"/>
+      <c r="F669" s="10"/>
+      <c r="G669" s="10"/>
+    </row>
+    <row r="670" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C670" s="10"/>
+      <c r="D670" s="24"/>
+      <c r="E670" s="10"/>
+      <c r="F670" s="10"/>
+      <c r="G670" s="10"/>
+    </row>
+    <row r="671" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C671" s="10"/>
+      <c r="D671" s="24"/>
+      <c r="E671" s="10"/>
+      <c r="F671" s="10"/>
+      <c r="G671" s="10"/>
+    </row>
+    <row r="672" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C672" s="10"/>
+      <c r="D672" s="24"/>
+      <c r="E672" s="10"/>
+      <c r="F672" s="10"/>
+      <c r="G672" s="10"/>
+    </row>
+    <row r="673" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C673" s="10"/>
+      <c r="D673" s="24"/>
+      <c r="E673" s="10"/>
+      <c r="F673" s="10"/>
+      <c r="G673" s="10"/>
+    </row>
+    <row r="674" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C674" s="10"/>
+      <c r="D674" s="24"/>
+      <c r="E674" s="10"/>
+      <c r="F674" s="10"/>
+      <c r="G674" s="10"/>
+    </row>
+    <row r="675" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C675" s="10"/>
+      <c r="D675" s="24"/>
+      <c r="E675" s="10"/>
+      <c r="F675" s="10"/>
+      <c r="G675" s="10"/>
+    </row>
+    <row r="676" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C676" s="10"/>
+      <c r="D676" s="24"/>
+      <c r="E676" s="10"/>
+      <c r="F676" s="10"/>
+      <c r="G676" s="10"/>
+    </row>
+    <row r="677" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C677" s="10"/>
+      <c r="D677" s="24"/>
+      <c r="E677" s="10"/>
+      <c r="F677" s="10"/>
+      <c r="G677" s="10"/>
+    </row>
+    <row r="678" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C678" s="10"/>
+      <c r="D678" s="24"/>
+      <c r="E678" s="10"/>
+      <c r="F678" s="10"/>
+      <c r="G678" s="10"/>
+    </row>
+    <row r="679" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C679" s="10"/>
+      <c r="D679" s="24"/>
+      <c r="E679" s="10"/>
+      <c r="F679" s="10"/>
+      <c r="G679" s="10"/>
+    </row>
+    <row r="680" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C680" s="10"/>
+      <c r="D680" s="24"/>
+      <c r="E680" s="10"/>
+      <c r="F680" s="10"/>
+      <c r="G680" s="10"/>
+    </row>
+    <row r="681" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C681" s="10"/>
+      <c r="D681" s="24"/>
+      <c r="E681" s="10"/>
+      <c r="F681" s="10"/>
+      <c r="G681" s="10"/>
+    </row>
+    <row r="682" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C682" s="10"/>
+      <c r="D682" s="24"/>
+      <c r="E682" s="10"/>
+      <c r="F682" s="10"/>
+      <c r="G682" s="10"/>
+    </row>
+    <row r="683" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C683" s="10"/>
+      <c r="D683" s="24"/>
+      <c r="E683" s="10"/>
+      <c r="F683" s="10"/>
+      <c r="G683" s="10"/>
+    </row>
+    <row r="684" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C684" s="10"/>
+      <c r="D684" s="24"/>
+      <c r="E684" s="10"/>
+      <c r="F684" s="10"/>
+      <c r="G684" s="10"/>
+    </row>
+    <row r="685" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C685" s="10"/>
+      <c r="D685" s="24"/>
+      <c r="E685" s="10"/>
+      <c r="F685" s="10"/>
+      <c r="G685" s="10"/>
+    </row>
+    <row r="686" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C686" s="10"/>
+      <c r="D686" s="24"/>
+      <c r="E686" s="10"/>
+      <c r="F686" s="10"/>
+      <c r="G686" s="10"/>
+    </row>
+    <row r="687" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C687" s="10"/>
+      <c r="D687" s="24"/>
+      <c r="E687" s="10"/>
+      <c r="F687" s="10"/>
+      <c r="G687" s="10"/>
+    </row>
+    <row r="688" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C688" s="10"/>
+      <c r="D688" s="24"/>
+      <c r="E688" s="10"/>
+      <c r="F688" s="10"/>
+      <c r="G688" s="10"/>
+    </row>
+    <row r="689" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C689" s="10"/>
+      <c r="D689" s="24"/>
+      <c r="E689" s="10"/>
+      <c r="F689" s="10"/>
+      <c r="G689" s="10"/>
+    </row>
+    <row r="690" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C690" s="10"/>
+      <c r="D690" s="24"/>
+      <c r="E690" s="10"/>
+      <c r="F690" s="10"/>
+      <c r="G690" s="10"/>
+    </row>
+    <row r="691" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C691" s="10"/>
+      <c r="D691" s="24"/>
+      <c r="E691" s="10"/>
+      <c r="F691" s="10"/>
+      <c r="G691" s="10"/>
+    </row>
+    <row r="692" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C692" s="10"/>
+      <c r="D692" s="24"/>
+      <c r="E692" s="10"/>
+      <c r="F692" s="10"/>
+      <c r="G692" s="10"/>
+    </row>
+    <row r="693" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C693" s="10"/>
+      <c r="D693" s="24"/>
+      <c r="E693" s="10"/>
+      <c r="F693" s="10"/>
+      <c r="G693" s="10"/>
+    </row>
+    <row r="694" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C694" s="10"/>
+      <c r="D694" s="24"/>
+      <c r="E694" s="10"/>
+      <c r="F694" s="10"/>
+      <c r="G694" s="10"/>
+    </row>
+    <row r="695" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C695" s="10"/>
+      <c r="D695" s="24"/>
+      <c r="E695" s="10"/>
+      <c r="F695" s="10"/>
+      <c r="G695" s="10"/>
+    </row>
+    <row r="696" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C696" s="10"/>
+      <c r="D696" s="24"/>
+      <c r="E696" s="10"/>
+      <c r="F696" s="10"/>
+      <c r="G696" s="10"/>
+    </row>
+    <row r="697" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C697" s="10"/>
+      <c r="D697" s="24"/>
+      <c r="E697" s="10"/>
+      <c r="F697" s="10"/>
+      <c r="G697" s="10"/>
+    </row>
+    <row r="698" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C698" s="10"/>
+      <c r="D698" s="24"/>
+      <c r="E698" s="10"/>
+      <c r="F698" s="10"/>
+      <c r="G698" s="10"/>
+    </row>
+    <row r="699" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C699" s="10"/>
+      <c r="D699" s="24"/>
+      <c r="E699" s="10"/>
+      <c r="F699" s="10"/>
+      <c r="G699" s="10"/>
+    </row>
+    <row r="700" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C700" s="10"/>
+      <c r="D700" s="24"/>
+      <c r="E700" s="10"/>
+      <c r="F700" s="10"/>
+      <c r="G700" s="10"/>
+    </row>
+    <row r="701" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C701" s="10"/>
+      <c r="D701" s="24"/>
+      <c r="E701" s="10"/>
+      <c r="F701" s="10"/>
+      <c r="G701" s="10"/>
+    </row>
+    <row r="702" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C702" s="10"/>
+      <c r="D702" s="24"/>
+      <c r="E702" s="10"/>
+      <c r="F702" s="10"/>
+      <c r="G702" s="10"/>
+    </row>
+    <row r="703" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C703" s="10"/>
+      <c r="D703" s="24"/>
+      <c r="E703" s="10"/>
+      <c r="F703" s="10"/>
+      <c r="G703" s="10"/>
+    </row>
+    <row r="704" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C704" s="10"/>
+      <c r="D704" s="24"/>
+      <c r="E704" s="10"/>
+      <c r="F704" s="10"/>
+      <c r="G704" s="10"/>
+    </row>
+    <row r="705" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C705" s="10"/>
+      <c r="D705" s="24"/>
+      <c r="E705" s="10"/>
+      <c r="F705" s="10"/>
+      <c r="G705" s="10"/>
+    </row>
+    <row r="706" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C706" s="10"/>
+      <c r="D706" s="24"/>
+      <c r="E706" s="10"/>
+      <c r="F706" s="10"/>
+      <c r="G706" s="10"/>
+    </row>
+    <row r="707" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C707" s="10"/>
+      <c r="D707" s="24"/>
+      <c r="E707" s="10"/>
+      <c r="F707" s="10"/>
+      <c r="G707" s="10"/>
+    </row>
+    <row r="708" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C708" s="10"/>
+      <c r="D708" s="24"/>
+      <c r="E708" s="10"/>
+      <c r="F708" s="10"/>
+      <c r="G708" s="10"/>
+    </row>
+    <row r="709" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C709" s="10"/>
+      <c r="D709" s="24"/>
+      <c r="E709" s="10"/>
+      <c r="F709" s="10"/>
+      <c r="G709" s="10"/>
+    </row>
+    <row r="710" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C710" s="10"/>
+      <c r="D710" s="24"/>
+      <c r="E710" s="10"/>
+      <c r="F710" s="10"/>
+      <c r="G710" s="10"/>
+    </row>
+    <row r="711" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C711" s="10"/>
+      <c r="D711" s="24"/>
+      <c r="E711" s="10"/>
+      <c r="F711" s="10"/>
+      <c r="G711" s="10"/>
+    </row>
+    <row r="712" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C712" s="10"/>
+      <c r="D712" s="24"/>
+      <c r="E712" s="10"/>
+      <c r="F712" s="10"/>
+      <c r="G712" s="10"/>
+    </row>
+    <row r="713" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C713" s="10"/>
+      <c r="D713" s="24"/>
+      <c r="E713" s="10"/>
+      <c r="F713" s="10"/>
+      <c r="G713" s="10"/>
+    </row>
+    <row r="714" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C714" s="10"/>
+      <c r="D714" s="24"/>
+      <c r="E714" s="10"/>
+      <c r="F714" s="10"/>
+      <c r="G714" s="10"/>
+    </row>
+    <row r="715" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C715" s="10"/>
+      <c r="D715" s="24"/>
+      <c r="E715" s="10"/>
+      <c r="F715" s="10"/>
+      <c r="G715" s="10"/>
+    </row>
+    <row r="716" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C716" s="10"/>
+      <c r="D716" s="24"/>
+      <c r="E716" s="10"/>
+      <c r="F716" s="10"/>
+      <c r="G716" s="10"/>
+    </row>
+    <row r="717" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C717" s="10"/>
+      <c r="D717" s="24"/>
+      <c r="E717" s="10"/>
+      <c r="F717" s="10"/>
+      <c r="G717" s="10"/>
+    </row>
+    <row r="718" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C718" s="10"/>
+      <c r="D718" s="24"/>
+      <c r="E718" s="10"/>
+      <c r="F718" s="10"/>
+      <c r="G718" s="10"/>
+    </row>
+    <row r="719" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C719" s="10"/>
+      <c r="D719" s="24"/>
+      <c r="E719" s="10"/>
+      <c r="F719" s="10"/>
+      <c r="G719" s="10"/>
+    </row>
+    <row r="720" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C720" s="10"/>
+      <c r="D720" s="24"/>
+      <c r="E720" s="10"/>
+      <c r="F720" s="10"/>
+      <c r="G720" s="10"/>
+    </row>
+    <row r="721" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C721" s="10"/>
+      <c r="D721" s="24"/>
+      <c r="E721" s="10"/>
+      <c r="F721" s="10"/>
+      <c r="G721" s="10"/>
+    </row>
+    <row r="722" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C722" s="10"/>
+      <c r="D722" s="24"/>
+      <c r="E722" s="10"/>
+      <c r="F722" s="10"/>
+      <c r="G722" s="10"/>
+    </row>
+    <row r="723" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C723" s="10"/>
+      <c r="D723" s="24"/>
+      <c r="E723" s="10"/>
+      <c r="F723" s="10"/>
+      <c r="G723" s="10"/>
+    </row>
+    <row r="724" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C724" s="10"/>
+      <c r="D724" s="24"/>
+      <c r="E724" s="10"/>
+      <c r="F724" s="10"/>
+      <c r="G724" s="10"/>
+    </row>
+    <row r="725" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C725" s="10"/>
+      <c r="D725" s="24"/>
+      <c r="E725" s="10"/>
+      <c r="F725" s="10"/>
+      <c r="G725" s="10"/>
+    </row>
+    <row r="726" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C726" s="10"/>
+      <c r="D726" s="24"/>
+      <c r="E726" s="10"/>
+      <c r="F726" s="10"/>
+      <c r="G726" s="10"/>
+    </row>
+    <row r="727" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C727" s="10"/>
+      <c r="D727" s="24"/>
+      <c r="E727" s="10"/>
+      <c r="F727" s="10"/>
+      <c r="G727" s="10"/>
+    </row>
+    <row r="728" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C728" s="10"/>
+      <c r="D728" s="24"/>
+      <c r="E728" s="10"/>
+      <c r="F728" s="10"/>
+      <c r="G728" s="10"/>
+    </row>
+    <row r="729" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C729" s="10"/>
+      <c r="D729" s="24"/>
+      <c r="E729" s="10"/>
+      <c r="F729" s="10"/>
+      <c r="G729" s="10"/>
+    </row>
+    <row r="730" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C730" s="10"/>
+      <c r="D730" s="24"/>
+      <c r="E730" s="10"/>
+      <c r="F730" s="10"/>
+      <c r="G730" s="10"/>
+    </row>
+    <row r="731" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C731" s="10"/>
+      <c r="D731" s="24"/>
+      <c r="E731" s="10"/>
+      <c r="F731" s="10"/>
+      <c r="G731" s="10"/>
+    </row>
+    <row r="732" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C732" s="10"/>
+      <c r="D732" s="24"/>
+      <c r="E732" s="10"/>
+      <c r="F732" s="10"/>
+      <c r="G732" s="10"/>
+    </row>
+    <row r="733" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C733" s="10"/>
+      <c r="D733" s="24"/>
+      <c r="E733" s="10"/>
+      <c r="F733" s="10"/>
+      <c r="G733" s="10"/>
+    </row>
+    <row r="734" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C734" s="10"/>
+      <c r="D734" s="24"/>
+      <c r="E734" s="10"/>
+      <c r="F734" s="10"/>
+      <c r="G734" s="10"/>
+    </row>
+    <row r="735" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C735" s="10"/>
+      <c r="D735" s="24"/>
+      <c r="E735" s="10"/>
+      <c r="F735" s="10"/>
+      <c r="G735" s="10"/>
+    </row>
+    <row r="736" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C736" s="10"/>
+      <c r="D736" s="24"/>
+      <c r="E736" s="10"/>
+      <c r="F736" s="10"/>
+      <c r="G736" s="10"/>
+    </row>
+    <row r="737" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C737" s="10"/>
+      <c r="D737" s="24"/>
+      <c r="E737" s="10"/>
+      <c r="F737" s="10"/>
+      <c r="G737" s="10"/>
+    </row>
+    <row r="738" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C738" s="10"/>
+      <c r="D738" s="24"/>
+      <c r="E738" s="10"/>
+      <c r="F738" s="10"/>
+      <c r="G738" s="10"/>
+    </row>
+    <row r="739" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C739" s="10"/>
+      <c r="D739" s="24"/>
+      <c r="E739" s="10"/>
+      <c r="F739" s="10"/>
+      <c r="G739" s="10"/>
+    </row>
+    <row r="740" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C740" s="10"/>
+      <c r="D740" s="24"/>
+      <c r="E740" s="10"/>
+      <c r="F740" s="10"/>
+      <c r="G740" s="10"/>
+    </row>
+    <row r="741" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C741" s="10"/>
+      <c r="D741" s="24"/>
+      <c r="E741" s="10"/>
+      <c r="F741" s="10"/>
+      <c r="G741" s="10"/>
+    </row>
+    <row r="742" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C742" s="10"/>
+      <c r="D742" s="24"/>
+      <c r="E742" s="10"/>
+      <c r="F742" s="10"/>
+      <c r="G742" s="10"/>
+    </row>
+    <row r="743" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C743" s="10"/>
+      <c r="D743" s="24"/>
+      <c r="E743" s="10"/>
+      <c r="F743" s="10"/>
+      <c r="G743" s="10"/>
+    </row>
+    <row r="744" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C744" s="10"/>
+      <c r="D744" s="24"/>
+      <c r="E744" s="10"/>
+      <c r="F744" s="10"/>
+      <c r="G744" s="10"/>
+    </row>
+    <row r="745" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C745" s="10"/>
+      <c r="D745" s="24"/>
+      <c r="E745" s="10"/>
+      <c r="F745" s="10"/>
+      <c r="G745" s="10"/>
+    </row>
+    <row r="746" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C746" s="10"/>
+      <c r="D746" s="24"/>
+      <c r="E746" s="10"/>
+      <c r="F746" s="10"/>
+      <c r="G746" s="10"/>
+    </row>
+    <row r="747" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C747" s="10"/>
+      <c r="D747" s="24"/>
+      <c r="E747" s="10"/>
+      <c r="F747" s="10"/>
+      <c r="G747" s="10"/>
+    </row>
+    <row r="748" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C748" s="10"/>
+      <c r="D748" s="24"/>
+      <c r="E748" s="10"/>
+      <c r="F748" s="10"/>
+      <c r="G748" s="10"/>
+    </row>
+    <row r="749" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C749" s="10"/>
+      <c r="D749" s="24"/>
+      <c r="E749" s="10"/>
+      <c r="F749" s="10"/>
+      <c r="G749" s="10"/>
+    </row>
+    <row r="750" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C750" s="10"/>
+      <c r="D750" s="24"/>
+      <c r="E750" s="10"/>
+      <c r="F750" s="10"/>
+      <c r="G750" s="10"/>
+    </row>
+    <row r="751" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C751" s="10"/>
+      <c r="D751" s="24"/>
+      <c r="E751" s="10"/>
+      <c r="F751" s="10"/>
+      <c r="G751" s="10"/>
+    </row>
+    <row r="752" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C752" s="10"/>
+      <c r="D752" s="24"/>
+      <c r="E752" s="10"/>
+      <c r="F752" s="10"/>
+      <c r="G752" s="10"/>
+    </row>
+    <row r="753" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C753" s="10"/>
+      <c r="D753" s="24"/>
+      <c r="E753" s="10"/>
+      <c r="F753" s="10"/>
+      <c r="G753" s="10"/>
+    </row>
+    <row r="754" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C754" s="10"/>
+      <c r="D754" s="24"/>
+      <c r="E754" s="10"/>
+      <c r="F754" s="10"/>
+      <c r="G754" s="10"/>
+    </row>
+    <row r="755" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C755" s="10"/>
+      <c r="D755" s="24"/>
+      <c r="E755" s="10"/>
+      <c r="F755" s="10"/>
+      <c r="G755" s="10"/>
+    </row>
+    <row r="756" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C756" s="10"/>
+      <c r="D756" s="24"/>
+      <c r="E756" s="10"/>
+      <c r="F756" s="10"/>
+      <c r="G756" s="10"/>
+    </row>
+    <row r="757" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C757" s="10"/>
+      <c r="D757" s="24"/>
+      <c r="E757" s="10"/>
+      <c r="F757" s="10"/>
+      <c r="G757" s="10"/>
+    </row>
+    <row r="758" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C758" s="10"/>
+      <c r="D758" s="24"/>
+      <c r="E758" s="10"/>
+      <c r="F758" s="10"/>
+      <c r="G758" s="10"/>
+    </row>
+    <row r="759" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C759" s="10"/>
+      <c r="D759" s="24"/>
+      <c r="E759" s="10"/>
+      <c r="F759" s="10"/>
+      <c r="G759" s="10"/>
+    </row>
+    <row r="760" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C760" s="10"/>
+      <c r="D760" s="24"/>
+      <c r="E760" s="10"/>
+      <c r="F760" s="10"/>
+      <c r="G760" s="10"/>
+    </row>
+    <row r="761" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C761" s="10"/>
+      <c r="D761" s="24"/>
+      <c r="E761" s="10"/>
+      <c r="F761" s="10"/>
+      <c r="G761" s="10"/>
+    </row>
+    <row r="762" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C762" s="10"/>
+      <c r="D762" s="24"/>
+      <c r="E762" s="10"/>
+      <c r="F762" s="10"/>
+      <c r="G762" s="10"/>
+    </row>
+    <row r="763" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C763" s="10"/>
+      <c r="D763" s="24"/>
+      <c r="E763" s="10"/>
+      <c r="F763" s="10"/>
+      <c r="G763" s="10"/>
+    </row>
+    <row r="764" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C764" s="10"/>
+      <c r="D764" s="24"/>
+      <c r="E764" s="10"/>
+      <c r="F764" s="10"/>
+      <c r="G764" s="10"/>
+    </row>
+    <row r="765" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C765" s="10"/>
+      <c r="D765" s="24"/>
+      <c r="E765" s="10"/>
+      <c r="F765" s="10"/>
+      <c r="G765" s="10"/>
+    </row>
+    <row r="766" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C766" s="10"/>
+      <c r="D766" s="24"/>
+      <c r="E766" s="10"/>
+      <c r="F766" s="10"/>
+      <c r="G766" s="10"/>
+    </row>
+    <row r="767" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C767" s="10"/>
+      <c r="D767" s="24"/>
+      <c r="E767" s="10"/>
+      <c r="F767" s="10"/>
+      <c r="G767" s="10"/>
+    </row>
+    <row r="768" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C768" s="10"/>
+      <c r="D768" s="24"/>
+      <c r="E768" s="10"/>
+      <c r="F768" s="10"/>
+      <c r="G768" s="10"/>
+    </row>
+    <row r="769" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C769" s="10"/>
+      <c r="D769" s="24"/>
+      <c r="E769" s="10"/>
+      <c r="F769" s="10"/>
+      <c r="G769" s="10"/>
+    </row>
+    <row r="770" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C770" s="10"/>
+      <c r="D770" s="24"/>
+      <c r="E770" s="10"/>
+      <c r="F770" s="10"/>
+      <c r="G770" s="10"/>
+    </row>
+    <row r="771" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C771" s="10"/>
+      <c r="D771" s="24"/>
+      <c r="E771" s="10"/>
+      <c r="F771" s="10"/>
+      <c r="G771" s="10"/>
+    </row>
+    <row r="772" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C772" s="10"/>
+      <c r="D772" s="24"/>
+      <c r="E772" s="10"/>
+      <c r="F772" s="10"/>
+      <c r="G772" s="10"/>
+    </row>
+    <row r="773" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C773" s="10"/>
+      <c r="D773" s="24"/>
+      <c r="E773" s="10"/>
+      <c r="F773" s="10"/>
+      <c r="G773" s="10"/>
+    </row>
+    <row r="774" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C774" s="10"/>
+      <c r="D774" s="24"/>
+      <c r="E774" s="10"/>
+      <c r="F774" s="10"/>
+      <c r="G774" s="10"/>
+    </row>
+    <row r="775" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C775" s="10"/>
+      <c r="D775" s="24"/>
+      <c r="E775" s="10"/>
+      <c r="F775" s="10"/>
+      <c r="G775" s="10"/>
+    </row>
+    <row r="776" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C776" s="10"/>
+      <c r="D776" s="24"/>
+      <c r="E776" s="10"/>
+      <c r="F776" s="10"/>
+      <c r="G776" s="10"/>
+    </row>
+    <row r="777" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C777" s="10"/>
+      <c r="D777" s="24"/>
+      <c r="E777" s="10"/>
+      <c r="F777" s="10"/>
+      <c r="G777" s="10"/>
+    </row>
+    <row r="778" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C778" s="10"/>
+      <c r="D778" s="24"/>
+      <c r="E778" s="10"/>
+      <c r="F778" s="10"/>
+      <c r="G778" s="10"/>
+    </row>
+    <row r="779" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C779" s="10"/>
+      <c r="D779" s="24"/>
+      <c r="E779" s="10"/>
+      <c r="F779" s="10"/>
+      <c r="G779" s="10"/>
+    </row>
+    <row r="780" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C780" s="10"/>
+      <c r="D780" s="24"/>
+      <c r="E780" s="10"/>
+      <c r="F780" s="10"/>
+      <c r="G780" s="10"/>
+    </row>
+    <row r="781" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C781" s="10"/>
+      <c r="D781" s="24"/>
+      <c r="E781" s="10"/>
+      <c r="F781" s="10"/>
+      <c r="G781" s="10"/>
+    </row>
+    <row r="782" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C782" s="10"/>
+      <c r="D782" s="24"/>
+      <c r="E782" s="10"/>
+      <c r="F782" s="10"/>
+      <c r="G782" s="10"/>
+    </row>
+    <row r="783" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C783" s="10"/>
+      <c r="D783" s="24"/>
+      <c r="E783" s="10"/>
+      <c r="F783" s="10"/>
+      <c r="G783" s="10"/>
+    </row>
+    <row r="784" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C784" s="10"/>
+      <c r="D784" s="24"/>
+      <c r="E784" s="10"/>
+      <c r="F784" s="10"/>
+      <c r="G784" s="10"/>
+    </row>
+    <row r="785" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C785" s="10"/>
+      <c r="D785" s="24"/>
+      <c r="E785" s="10"/>
+      <c r="F785" s="10"/>
+      <c r="G785" s="10"/>
+    </row>
+    <row r="786" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C786" s="10"/>
+      <c r="D786" s="24"/>
+      <c r="E786" s="10"/>
+      <c r="F786" s="10"/>
+      <c r="G786" s="10"/>
+    </row>
+    <row r="787" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C787" s="10"/>
+      <c r="D787" s="24"/>
+      <c r="E787" s="10"/>
+      <c r="F787" s="10"/>
+      <c r="G787" s="10"/>
+    </row>
+    <row r="788" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C788" s="10"/>
+      <c r="D788" s="24"/>
+      <c r="E788" s="10"/>
+      <c r="F788" s="10"/>
+      <c r="G788" s="10"/>
+    </row>
+    <row r="789" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C789" s="10"/>
+      <c r="D789" s="24"/>
+      <c r="E789" s="10"/>
+      <c r="F789" s="10"/>
+      <c r="G789" s="10"/>
+    </row>
+    <row r="790" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C790" s="10"/>
+      <c r="D790" s="24"/>
+      <c r="E790" s="10"/>
+      <c r="F790" s="10"/>
+      <c r="G790" s="10"/>
+    </row>
+    <row r="791" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C791" s="10"/>
+      <c r="D791" s="24"/>
+      <c r="E791" s="10"/>
+      <c r="F791" s="10"/>
+      <c r="G791" s="10"/>
+    </row>
+    <row r="792" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C792" s="10"/>
+      <c r="D792" s="24"/>
+      <c r="E792" s="10"/>
+      <c r="F792" s="10"/>
+      <c r="G792" s="10"/>
+    </row>
+    <row r="793" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C793" s="10"/>
+      <c r="D793" s="24"/>
+      <c r="E793" s="10"/>
+      <c r="F793" s="10"/>
+      <c r="G793" s="10"/>
+    </row>
+    <row r="794" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C794" s="10"/>
+      <c r="D794" s="24"/>
+      <c r="E794" s="10"/>
+      <c r="F794" s="10"/>
+      <c r="G794" s="10"/>
+    </row>
+    <row r="795" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C795" s="10"/>
+      <c r="D795" s="24"/>
+      <c r="E795" s="10"/>
+      <c r="F795" s="10"/>
+      <c r="G795" s="10"/>
+    </row>
+    <row r="796" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C796" s="10"/>
+      <c r="D796" s="24"/>
+      <c r="E796" s="10"/>
+      <c r="F796" s="10"/>
+      <c r="G796" s="10"/>
+    </row>
+    <row r="797" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C797" s="10"/>
+      <c r="D797" s="24"/>
+      <c r="E797" s="10"/>
+      <c r="F797" s="10"/>
+      <c r="G797" s="10"/>
+    </row>
+    <row r="798" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C798" s="10"/>
+      <c r="D798" s="24"/>
+      <c r="E798" s="10"/>
+      <c r="F798" s="10"/>
+      <c r="G798" s="10"/>
+    </row>
+    <row r="799" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C799" s="10"/>
+      <c r="D799" s="24"/>
+      <c r="E799" s="10"/>
+      <c r="F799" s="10"/>
+      <c r="G799" s="10"/>
+    </row>
+    <row r="800" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C800" s="10"/>
+      <c r="D800" s="24"/>
+      <c r="E800" s="10"/>
+      <c r="F800" s="10"/>
+      <c r="G800" s="10"/>
+    </row>
+    <row r="801" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C801" s="10"/>
+      <c r="D801" s="24"/>
+      <c r="E801" s="10"/>
+      <c r="F801" s="10"/>
+      <c r="G801" s="10"/>
+    </row>
+    <row r="802" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C802" s="10"/>
+      <c r="D802" s="24"/>
+      <c r="E802" s="10"/>
+      <c r="F802" s="10"/>
+      <c r="G802" s="10"/>
+    </row>
+    <row r="803" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C803" s="10"/>
+      <c r="D803" s="24"/>
+      <c r="E803" s="10"/>
+      <c r="F803" s="10"/>
+      <c r="G803" s="10"/>
+    </row>
+    <row r="804" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C804" s="10"/>
+      <c r="D804" s="24"/>
+      <c r="E804" s="10"/>
+      <c r="F804" s="10"/>
+      <c r="G804" s="10"/>
+    </row>
+    <row r="805" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C805" s="10"/>
+      <c r="D805" s="24"/>
+      <c r="E805" s="10"/>
+      <c r="F805" s="10"/>
+      <c r="G805" s="10"/>
+    </row>
+    <row r="806" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C806" s="10"/>
+      <c r="D806" s="24"/>
+      <c r="E806" s="10"/>
+      <c r="F806" s="10"/>
+      <c r="G806" s="10"/>
+    </row>
+    <row r="807" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C807" s="10"/>
+      <c r="D807" s="24"/>
+      <c r="E807" s="10"/>
+      <c r="F807" s="10"/>
+      <c r="G807" s="10"/>
+    </row>
+    <row r="808" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C808" s="10"/>
+      <c r="D808" s="24"/>
+      <c r="E808" s="10"/>
+      <c r="F808" s="10"/>
+      <c r="G808" s="10"/>
+    </row>
+    <row r="809" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C809" s="10"/>
+      <c r="D809" s="24"/>
+      <c r="E809" s="10"/>
+      <c r="F809" s="10"/>
+      <c r="G809" s="10"/>
+    </row>
+    <row r="810" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C810" s="10"/>
+      <c r="D810" s="24"/>
+      <c r="E810" s="10"/>
+      <c r="F810" s="10"/>
+      <c r="G810" s="10"/>
+    </row>
+    <row r="811" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C811" s="10"/>
+      <c r="D811" s="24"/>
+      <c r="E811" s="10"/>
+      <c r="F811" s="10"/>
+      <c r="G811" s="10"/>
+    </row>
+    <row r="812" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C812" s="10"/>
+      <c r="D812" s="24"/>
+      <c r="E812" s="10"/>
+      <c r="F812" s="10"/>
+      <c r="G812" s="10"/>
+    </row>
+    <row r="813" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C813" s="10"/>
+      <c r="D813" s="24"/>
+      <c r="E813" s="10"/>
+      <c r="F813" s="10"/>
+      <c r="G813" s="10"/>
+    </row>
+    <row r="814" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C814" s="10"/>
+      <c r="D814" s="24"/>
+      <c r="E814" s="10"/>
+      <c r="F814" s="10"/>
+      <c r="G814" s="10"/>
+    </row>
+    <row r="815" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C815" s="10"/>
+      <c r="D815" s="24"/>
+      <c r="E815" s="10"/>
+      <c r="F815" s="10"/>
+      <c r="G815" s="10"/>
+    </row>
+    <row r="816" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C816" s="10"/>
+      <c r="D816" s="24"/>
+      <c r="E816" s="10"/>
+      <c r="F816" s="10"/>
+      <c r="G816" s="10"/>
+    </row>
+    <row r="817" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C817" s="10"/>
+      <c r="D817" s="24"/>
+      <c r="E817" s="10"/>
+      <c r="F817" s="10"/>
+      <c r="G817" s="10"/>
+    </row>
+    <row r="818" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C818" s="10"/>
+      <c r="D818" s="24"/>
+      <c r="E818" s="10"/>
+      <c r="F818" s="10"/>
+      <c r="G818" s="10"/>
+    </row>
+    <row r="819" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C819" s="10"/>
+      <c r="D819" s="24"/>
+      <c r="E819" s="10"/>
+      <c r="F819" s="10"/>
+      <c r="G819" s="10"/>
+    </row>
+    <row r="820" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C820" s="10"/>
+      <c r="D820" s="24"/>
+      <c r="E820" s="10"/>
+      <c r="F820" s="10"/>
+      <c r="G820" s="10"/>
+    </row>
+    <row r="821" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C821" s="10"/>
+      <c r="D821" s="24"/>
+      <c r="E821" s="10"/>
+      <c r="F821" s="10"/>
+      <c r="G821" s="10"/>
+    </row>
+    <row r="822" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C822" s="10"/>
+      <c r="D822" s="24"/>
+      <c r="E822" s="10"/>
+      <c r="F822" s="10"/>
+      <c r="G822" s="10"/>
+    </row>
+    <row r="823" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C823" s="10"/>
+      <c r="D823" s="24"/>
+      <c r="E823" s="10"/>
+      <c r="F823" s="10"/>
+      <c r="G823" s="10"/>
+    </row>
+    <row r="824" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C824" s="10"/>
+      <c r="D824" s="24"/>
+      <c r="E824" s="10"/>
+      <c r="F824" s="10"/>
+      <c r="G824" s="10"/>
+    </row>
+    <row r="825" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C825" s="10"/>
+      <c r="D825" s="24"/>
+      <c r="E825" s="10"/>
+      <c r="F825" s="10"/>
+      <c r="G825" s="10"/>
+    </row>
+    <row r="826" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C826" s="10"/>
+      <c r="D826" s="24"/>
+      <c r="E826" s="10"/>
+      <c r="F826" s="10"/>
+      <c r="G826" s="10"/>
+    </row>
+    <row r="827" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C827" s="10"/>
+      <c r="D827" s="24"/>
+      <c r="E827" s="10"/>
+      <c r="F827" s="10"/>
+      <c r="G827" s="10"/>
+    </row>
+    <row r="828" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C828" s="10"/>
+      <c r="D828" s="24"/>
+      <c r="E828" s="10"/>
+      <c r="F828" s="10"/>
+      <c r="G828" s="10"/>
+    </row>
+    <row r="829" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C829" s="10"/>
+      <c r="D829" s="24"/>
+      <c r="E829" s="10"/>
+      <c r="F829" s="10"/>
+      <c r="G829" s="10"/>
+    </row>
+    <row r="830" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C830" s="10"/>
+      <c r="D830" s="24"/>
+      <c r="E830" s="10"/>
+      <c r="F830" s="10"/>
+      <c r="G830" s="10"/>
+    </row>
+    <row r="831" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C831" s="10"/>
+      <c r="D831" s="24"/>
+      <c r="E831" s="10"/>
+      <c r="F831" s="10"/>
+      <c r="G831" s="10"/>
+    </row>
+    <row r="832" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C832" s="10"/>
+      <c r="D832" s="24"/>
+      <c r="E832" s="10"/>
+      <c r="F832" s="10"/>
+      <c r="G832" s="10"/>
+    </row>
+    <row r="833" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C833" s="10"/>
+      <c r="D833" s="24"/>
+      <c r="E833" s="10"/>
+      <c r="F833" s="10"/>
+      <c r="G833" s="10"/>
+    </row>
+    <row r="834" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C834" s="10"/>
+      <c r="D834" s="24"/>
+      <c r="E834" s="10"/>
+      <c r="F834" s="10"/>
+      <c r="G834" s="10"/>
+    </row>
+    <row r="835" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C835" s="10"/>
+      <c r="D835" s="24"/>
+      <c r="E835" s="10"/>
+      <c r="F835" s="10"/>
+      <c r="G835" s="10"/>
+    </row>
+    <row r="836" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C836" s="10"/>
+      <c r="D836" s="24"/>
+      <c r="E836" s="10"/>
+      <c r="F836" s="10"/>
+      <c r="G836" s="10"/>
+    </row>
+    <row r="837" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C837" s="10"/>
+      <c r="D837" s="24"/>
+      <c r="E837" s="10"/>
+      <c r="F837" s="10"/>
+      <c r="G837" s="10"/>
+    </row>
+    <row r="838" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C838" s="10"/>
+      <c r="D838" s="24"/>
+      <c r="E838" s="10"/>
+      <c r="F838" s="10"/>
+      <c r="G838" s="10"/>
+    </row>
+    <row r="839" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C839" s="10"/>
+      <c r="D839" s="24"/>
+      <c r="E839" s="10"/>
+      <c r="F839" s="10"/>
+      <c r="G839" s="10"/>
+    </row>
+    <row r="840" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C840" s="10"/>
+      <c r="D840" s="24"/>
+      <c r="E840" s="10"/>
+      <c r="F840" s="10"/>
+      <c r="G840" s="10"/>
+    </row>
+    <row r="841" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C841" s="10"/>
+      <c r="D841" s="24"/>
+      <c r="E841" s="10"/>
+      <c r="F841" s="10"/>
+      <c r="G841" s="10"/>
+    </row>
+    <row r="842" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C842" s="10"/>
+      <c r="D842" s="24"/>
+      <c r="E842" s="10"/>
+      <c r="F842" s="10"/>
+      <c r="G842" s="10"/>
+    </row>
+    <row r="843" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C843" s="10"/>
+      <c r="D843" s="24"/>
+      <c r="E843" s="10"/>
+      <c r="F843" s="10"/>
+      <c r="G843" s="10"/>
+    </row>
+    <row r="844" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C844" s="10"/>
+      <c r="D844" s="24"/>
+      <c r="E844" s="10"/>
+      <c r="F844" s="10"/>
+      <c r="G844" s="10"/>
+    </row>
+    <row r="845" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C845" s="10"/>
+      <c r="D845" s="24"/>
+      <c r="E845" s="10"/>
+      <c r="F845" s="10"/>
+      <c r="G845" s="10"/>
+    </row>
+    <row r="846" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C846" s="10"/>
+      <c r="D846" s="24"/>
+      <c r="E846" s="10"/>
+      <c r="F846" s="10"/>
+      <c r="G846" s="10"/>
+    </row>
+    <row r="847" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C847" s="10"/>
+      <c r="D847" s="24"/>
+      <c r="E847" s="10"/>
+      <c r="F847" s="10"/>
+      <c r="G847" s="10"/>
+    </row>
+    <row r="848" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C848" s="10"/>
+      <c r="D848" s="24"/>
+      <c r="E848" s="10"/>
+      <c r="F848" s="10"/>
+      <c r="G848" s="10"/>
+    </row>
+    <row r="849" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C849" s="10"/>
+      <c r="D849" s="24"/>
+      <c r="E849" s="10"/>
+      <c r="F849" s="10"/>
+      <c r="G849" s="10"/>
+    </row>
+    <row r="850" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C850" s="10"/>
+      <c r="D850" s="24"/>
+      <c r="E850" s="10"/>
+      <c r="F850" s="10"/>
+      <c r="G850" s="10"/>
+    </row>
+    <row r="851" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C851" s="10"/>
+      <c r="D851" s="24"/>
+      <c r="E851" s="10"/>
+      <c r="F851" s="10"/>
+      <c r="G851" s="10"/>
+    </row>
+    <row r="852" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C852" s="10"/>
+      <c r="D852" s="24"/>
+      <c r="E852" s="10"/>
+      <c r="F852" s="10"/>
+      <c r="G852" s="10"/>
+    </row>
+    <row r="853" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C853" s="10"/>
+      <c r="D853" s="24"/>
+      <c r="E853" s="10"/>
+      <c r="F853" s="10"/>
+      <c r="G853" s="10"/>
+    </row>
+    <row r="854" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C854" s="10"/>
+      <c r="D854" s="24"/>
+      <c r="E854" s="10"/>
+      <c r="F854" s="10"/>
+      <c r="G854" s="10"/>
+    </row>
+    <row r="855" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C855" s="10"/>
+      <c r="D855" s="24"/>
+      <c r="E855" s="10"/>
+      <c r="F855" s="10"/>
+      <c r="G855" s="10"/>
+    </row>
+    <row r="856" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C856" s="10"/>
+      <c r="D856" s="24"/>
+      <c r="E856" s="10"/>
+      <c r="F856" s="10"/>
+      <c r="G856" s="10"/>
+    </row>
+    <row r="857" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C857" s="10"/>
+      <c r="D857" s="24"/>
+      <c r="E857" s="10"/>
+      <c r="F857" s="10"/>
+      <c r="G857" s="10"/>
+    </row>
+    <row r="858" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C858" s="10"/>
+      <c r="D858" s="24"/>
+      <c r="E858" s="10"/>
+      <c r="F858" s="10"/>
+      <c r="G858" s="10"/>
+    </row>
+    <row r="859" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C859" s="10"/>
+      <c r="D859" s="24"/>
+      <c r="E859" s="10"/>
+      <c r="F859" s="10"/>
+      <c r="G859" s="10"/>
+    </row>
+    <row r="860" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C860" s="10"/>
+      <c r="D860" s="24"/>
+      <c r="E860" s="10"/>
+      <c r="F860" s="10"/>
+      <c r="G860" s="10"/>
+    </row>
+    <row r="861" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C861" s="10"/>
+      <c r="D861" s="24"/>
+      <c r="E861" s="10"/>
+      <c r="F861" s="10"/>
+      <c r="G861" s="10"/>
+    </row>
+    <row r="862" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C862" s="10"/>
+      <c r="D862" s="24"/>
+      <c r="E862" s="10"/>
+      <c r="F862" s="10"/>
+      <c r="G862" s="10"/>
+    </row>
+    <row r="863" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C863" s="10"/>
+      <c r="D863" s="24"/>
+      <c r="E863" s="10"/>
+      <c r="F863" s="10"/>
+      <c r="G863" s="10"/>
+    </row>
+    <row r="864" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C864" s="10"/>
+      <c r="D864" s="24"/>
+      <c r="E864" s="10"/>
+      <c r="F864" s="10"/>
+      <c r="G864" s="10"/>
+    </row>
+    <row r="865" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C865" s="10"/>
+      <c r="D865" s="24"/>
+      <c r="E865" s="10"/>
+      <c r="F865" s="10"/>
+      <c r="G865" s="10"/>
+    </row>
+    <row r="866" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C866" s="10"/>
+      <c r="D866" s="24"/>
+      <c r="E866" s="10"/>
+      <c r="F866" s="10"/>
+      <c r="G866" s="10"/>
+    </row>
+    <row r="867" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C867" s="10"/>
+      <c r="D867" s="24"/>
+      <c r="E867" s="10"/>
+      <c r="F867" s="10"/>
+      <c r="G867" s="10"/>
+    </row>
+    <row r="868" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C868" s="10"/>
+      <c r="D868" s="24"/>
+      <c r="E868" s="10"/>
+      <c r="F868" s="10"/>
+      <c r="G868" s="10"/>
+    </row>
+    <row r="869" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C869" s="10"/>
+      <c r="D869" s="24"/>
+      <c r="E869" s="10"/>
+      <c r="F869" s="10"/>
+      <c r="G869" s="10"/>
+    </row>
+    <row r="870" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C870" s="10"/>
+      <c r="D870" s="24"/>
+      <c r="E870" s="10"/>
+      <c r="F870" s="10"/>
+      <c r="G870" s="10"/>
+    </row>
+    <row r="871" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C871" s="10"/>
+      <c r="D871" s="24"/>
+      <c r="E871" s="10"/>
+      <c r="F871" s="10"/>
+      <c r="G871" s="10"/>
+    </row>
+    <row r="872" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C872" s="10"/>
+      <c r="D872" s="24"/>
+      <c r="E872" s="10"/>
+      <c r="F872" s="10"/>
+      <c r="G872" s="10"/>
+    </row>
+    <row r="873" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C873" s="10"/>
+      <c r="D873" s="24"/>
+      <c r="E873" s="10"/>
+      <c r="F873" s="10"/>
+      <c r="G873" s="10"/>
+    </row>
+    <row r="874" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C874" s="10"/>
+      <c r="D874" s="24"/>
+      <c r="E874" s="10"/>
+      <c r="F874" s="10"/>
+      <c r="G874" s="10"/>
+    </row>
+    <row r="875" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C875" s="10"/>
+      <c r="D875" s="24"/>
+      <c r="E875" s="10"/>
+      <c r="F875" s="10"/>
+      <c r="G875" s="10"/>
+    </row>
+    <row r="876" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C876" s="10"/>
+      <c r="D876" s="24"/>
+      <c r="E876" s="10"/>
+      <c r="F876" s="10"/>
+      <c r="G876" s="10"/>
+    </row>
+    <row r="877" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C877" s="10"/>
+      <c r="D877" s="24"/>
+      <c r="E877" s="10"/>
+      <c r="F877" s="10"/>
+      <c r="G877" s="10"/>
+    </row>
+    <row r="878" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C878" s="10"/>
+      <c r="D878" s="24"/>
+      <c r="E878" s="10"/>
+      <c r="F878" s="10"/>
+      <c r="G878" s="10"/>
+    </row>
+    <row r="879" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C879" s="10"/>
+      <c r="D879" s="24"/>
+      <c r="E879" s="10"/>
+      <c r="F879" s="10"/>
+      <c r="G879" s="10"/>
+    </row>
+    <row r="880" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C880" s="10"/>
+      <c r="D880" s="24"/>
+      <c r="E880" s="10"/>
+      <c r="F880" s="10"/>
+      <c r="G880" s="10"/>
+    </row>
+    <row r="881" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C881" s="10"/>
+      <c r="D881" s="24"/>
+      <c r="E881" s="10"/>
+      <c r="F881" s="10"/>
+      <c r="G881" s="10"/>
+    </row>
+    <row r="882" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C882" s="10"/>
+      <c r="D882" s="24"/>
+      <c r="E882" s="10"/>
+      <c r="F882" s="10"/>
+      <c r="G882" s="10"/>
+    </row>
+    <row r="883" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C883" s="10"/>
+      <c r="D883" s="24"/>
+      <c r="E883" s="10"/>
+      <c r="F883" s="10"/>
+      <c r="G883" s="10"/>
+    </row>
+    <row r="884" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C884" s="10"/>
+      <c r="D884" s="24"/>
+      <c r="E884" s="10"/>
+      <c r="F884" s="10"/>
+      <c r="G884" s="10"/>
+    </row>
+    <row r="885" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C885" s="10"/>
+      <c r="D885" s="24"/>
+      <c r="E885" s="10"/>
+      <c r="F885" s="10"/>
+      <c r="G885" s="10"/>
+    </row>
+    <row r="886" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C886" s="10"/>
+      <c r="D886" s="24"/>
+      <c r="E886" s="10"/>
+      <c r="F886" s="10"/>
+      <c r="G886" s="10"/>
+    </row>
+    <row r="887" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C887" s="10"/>
+      <c r="D887" s="24"/>
+      <c r="E887" s="10"/>
+      <c r="F887" s="10"/>
+      <c r="G887" s="10"/>
+    </row>
+    <row r="888" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C888" s="10"/>
+      <c r="D888" s="24"/>
+      <c r="E888" s="10"/>
+      <c r="F888" s="10"/>
+      <c r="G888" s="10"/>
+    </row>
+    <row r="889" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C889" s="10"/>
+      <c r="D889" s="24"/>
+      <c r="E889" s="10"/>
+      <c r="F889" s="10"/>
+      <c r="G889" s="10"/>
+    </row>
+    <row r="890" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C890" s="10"/>
+      <c r="D890" s="24"/>
+      <c r="E890" s="10"/>
+      <c r="F890" s="10"/>
+      <c r="G890" s="10"/>
+    </row>
+    <row r="891" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C891" s="10"/>
+      <c r="D891" s="24"/>
+      <c r="E891" s="10"/>
+      <c r="F891" s="10"/>
+      <c r="G891" s="10"/>
+    </row>
+    <row r="892" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C892" s="10"/>
+      <c r="D892" s="24"/>
+      <c r="E892" s="10"/>
+      <c r="F892" s="10"/>
+      <c r="G892" s="10"/>
+    </row>
+    <row r="893" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C893" s="10"/>
+      <c r="D893" s="24"/>
+      <c r="E893" s="10"/>
+      <c r="F893" s="10"/>
+      <c r="G893" s="10"/>
+    </row>
+    <row r="894" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C894" s="10"/>
+      <c r="D894" s="24"/>
+      <c r="E894" s="10"/>
+      <c r="F894" s="10"/>
+      <c r="G894" s="10"/>
+    </row>
+    <row r="895" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C895" s="10"/>
+      <c r="D895" s="24"/>
+      <c r="E895" s="10"/>
+      <c r="F895" s="10"/>
+      <c r="G895" s="10"/>
+    </row>
+    <row r="896" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C896" s="10"/>
+      <c r="D896" s="24"/>
+      <c r="E896" s="10"/>
+      <c r="F896" s="10"/>
+      <c r="G896" s="10"/>
+    </row>
+    <row r="897" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C897" s="10"/>
+      <c r="D897" s="24"/>
+      <c r="E897" s="10"/>
+      <c r="F897" s="10"/>
+      <c r="G897" s="10"/>
+    </row>
+    <row r="898" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C898" s="10"/>
+      <c r="D898" s="24"/>
+      <c r="E898" s="10"/>
+      <c r="F898" s="10"/>
+      <c r="G898" s="10"/>
+    </row>
+    <row r="899" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C899" s="10"/>
+      <c r="D899" s="24"/>
+      <c r="E899" s="10"/>
+      <c r="F899" s="10"/>
+      <c r="G899" s="10"/>
+    </row>
+    <row r="900" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C900" s="10"/>
+      <c r="D900" s="24"/>
+      <c r="E900" s="10"/>
+      <c r="F900" s="10"/>
+      <c r="G900" s="10"/>
+    </row>
+    <row r="901" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C901" s="10"/>
+      <c r="D901" s="24"/>
+      <c r="E901" s="10"/>
+      <c r="F901" s="10"/>
+      <c r="G901" s="10"/>
+    </row>
+    <row r="902" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C902" s="10"/>
+      <c r="D902" s="24"/>
+      <c r="E902" s="10"/>
+      <c r="F902" s="10"/>
+      <c r="G902" s="10"/>
+    </row>
+    <row r="903" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C903" s="10"/>
+      <c r="D903" s="24"/>
+      <c r="E903" s="10"/>
+      <c r="F903" s="10"/>
+      <c r="G903" s="10"/>
+    </row>
+    <row r="904" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C904" s="10"/>
+      <c r="D904" s="24"/>
+      <c r="E904" s="10"/>
+      <c r="F904" s="10"/>
+      <c r="G904" s="10"/>
+    </row>
+    <row r="905" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C905" s="10"/>
+      <c r="D905" s="24"/>
+      <c r="E905" s="10"/>
+      <c r="F905" s="10"/>
+      <c r="G905" s="10"/>
+    </row>
+    <row r="906" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C906" s="10"/>
+      <c r="D906" s="24"/>
+      <c r="E906" s="10"/>
+      <c r="F906" s="10"/>
+      <c r="G906" s="10"/>
+    </row>
+    <row r="907" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C907" s="10"/>
+      <c r="D907" s="24"/>
+      <c r="E907" s="10"/>
+      <c r="F907" s="10"/>
+      <c r="G907" s="10"/>
+    </row>
+    <row r="908" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C908" s="10"/>
+      <c r="D908" s="24"/>
+      <c r="E908" s="10"/>
+      <c r="F908" s="10"/>
+      <c r="G908" s="10"/>
+    </row>
+    <row r="909" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C909" s="10"/>
+      <c r="D909" s="24"/>
+      <c r="E909" s="10"/>
+      <c r="F909" s="10"/>
+      <c r="G909" s="10"/>
+    </row>
+    <row r="910" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C910" s="10"/>
+      <c r="D910" s="24"/>
+      <c r="E910" s="10"/>
+      <c r="F910" s="10"/>
+      <c r="G910" s="10"/>
+    </row>
+    <row r="911" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C911" s="10"/>
+      <c r="D911" s="24"/>
+      <c r="E911" s="10"/>
+      <c r="F911" s="10"/>
+      <c r="G911" s="10"/>
+    </row>
+    <row r="912" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C912" s="10"/>
+      <c r="D912" s="24"/>
+      <c r="E912" s="10"/>
+      <c r="F912" s="10"/>
+      <c r="G912" s="10"/>
+    </row>
+    <row r="913" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C913" s="10"/>
+      <c r="D913" s="24"/>
+      <c r="E913" s="10"/>
+      <c r="F913" s="10"/>
+      <c r="G913" s="10"/>
+    </row>
+    <row r="914" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C914" s="10"/>
+      <c r="D914" s="24"/>
+      <c r="E914" s="10"/>
+      <c r="F914" s="10"/>
+      <c r="G914" s="10"/>
+    </row>
+    <row r="915" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C915" s="10"/>
+      <c r="D915" s="24"/>
+      <c r="E915" s="10"/>
+      <c r="F915" s="10"/>
+      <c r="G915" s="10"/>
+    </row>
+    <row r="916" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C916" s="10"/>
+      <c r="D916" s="24"/>
+      <c r="E916" s="10"/>
+      <c r="F916" s="10"/>
+      <c r="G916" s="10"/>
+    </row>
+    <row r="917" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C917" s="10"/>
+      <c r="D917" s="24"/>
+      <c r="E917" s="10"/>
+      <c r="F917" s="10"/>
+      <c r="G917" s="10"/>
+    </row>
+    <row r="918" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C918" s="10"/>
+      <c r="D918" s="24"/>
+      <c r="E918" s="10"/>
+      <c r="F918" s="10"/>
+      <c r="G918" s="10"/>
+    </row>
+    <row r="919" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C919" s="10"/>
+      <c r="D919" s="24"/>
+      <c r="E919" s="10"/>
+      <c r="F919" s="10"/>
+      <c r="G919" s="10"/>
+    </row>
+    <row r="920" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C920" s="10"/>
+      <c r="D920" s="24"/>
+      <c r="E920" s="10"/>
+      <c r="F920" s="10"/>
+      <c r="G920" s="10"/>
+    </row>
+    <row r="921" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C921" s="10"/>
+      <c r="D921" s="24"/>
+      <c r="E921" s="10"/>
+      <c r="F921" s="10"/>
+      <c r="G921" s="10"/>
+    </row>
+    <row r="922" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C922" s="10"/>
+      <c r="D922" s="24"/>
+      <c r="E922" s="10"/>
+      <c r="F922" s="10"/>
+      <c r="G922" s="10"/>
+    </row>
+    <row r="923" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C923" s="10"/>
+      <c r="D923" s="24"/>
+      <c r="E923" s="10"/>
+      <c r="F923" s="10"/>
+      <c r="G923" s="10"/>
+    </row>
+    <row r="924" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C924" s="10"/>
+      <c r="D924" s="24"/>
+      <c r="E924" s="10"/>
+      <c r="F924" s="10"/>
+      <c r="G924" s="10"/>
+    </row>
+    <row r="925" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C925" s="10"/>
+      <c r="D925" s="24"/>
+      <c r="E925" s="10"/>
+      <c r="F925" s="10"/>
+      <c r="G925" s="10"/>
+    </row>
+    <row r="926" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C926" s="10"/>
+      <c r="D926" s="24"/>
+      <c r="E926" s="10"/>
+      <c r="F926" s="10"/>
+      <c r="G926" s="10"/>
+    </row>
+    <row r="927" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C927" s="10"/>
+      <c r="D927" s="24"/>
+      <c r="E927" s="10"/>
+      <c r="F927" s="10"/>
+      <c r="G927" s="10"/>
+    </row>
+    <row r="928" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C928" s="10"/>
+      <c r="D928" s="24"/>
+      <c r="E928" s="10"/>
+      <c r="F928" s="10"/>
+      <c r="G928" s="10"/>
+    </row>
+    <row r="929" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C929" s="10"/>
+      <c r="D929" s="24"/>
+      <c r="E929" s="10"/>
+      <c r="F929" s="10"/>
+      <c r="G929" s="10"/>
+    </row>
+    <row r="930" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C930" s="10"/>
+      <c r="D930" s="24"/>
+      <c r="E930" s="10"/>
+      <c r="F930" s="10"/>
+      <c r="G930" s="10"/>
+    </row>
+    <row r="931" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C931" s="10"/>
+      <c r="D931" s="24"/>
+      <c r="E931" s="10"/>
+      <c r="F931" s="10"/>
+      <c r="G931" s="10"/>
+    </row>
+    <row r="932" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C932" s="10"/>
+      <c r="D932" s="24"/>
+      <c r="E932" s="10"/>
+      <c r="F932" s="10"/>
+      <c r="G932" s="10"/>
+    </row>
+    <row r="933" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C933" s="10"/>
+      <c r="D933" s="24"/>
+      <c r="E933" s="10"/>
+      <c r="F933" s="10"/>
+      <c r="G933" s="10"/>
+    </row>
+    <row r="934" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C934" s="10"/>
+      <c r="D934" s="24"/>
+      <c r="E934" s="10"/>
+      <c r="F934" s="10"/>
+      <c r="G934" s="10"/>
+    </row>
+    <row r="935" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C935" s="10"/>
+      <c r="D935" s="24"/>
+      <c r="E935" s="10"/>
+      <c r="F935" s="10"/>
+      <c r="G935" s="10"/>
+    </row>
+    <row r="936" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C936" s="10"/>
+      <c r="D936" s="24"/>
+      <c r="E936" s="10"/>
+      <c r="F936" s="10"/>
+      <c r="G936" s="10"/>
+    </row>
+    <row r="937" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C937" s="10"/>
+      <c r="D937" s="24"/>
+      <c r="E937" s="10"/>
+      <c r="F937" s="10"/>
+      <c r="G937" s="10"/>
+    </row>
+    <row r="938" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C938" s="10"/>
+      <c r="D938" s="24"/>
+      <c r="E938" s="10"/>
+      <c r="F938" s="10"/>
+      <c r="G938" s="10"/>
+    </row>
+    <row r="939" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C939" s="10"/>
+      <c r="D939" s="24"/>
+      <c r="E939" s="10"/>
+      <c r="F939" s="10"/>
+      <c r="G939" s="10"/>
+    </row>
+    <row r="940" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C940" s="10"/>
+      <c r="D940" s="24"/>
+      <c r="E940" s="10"/>
+      <c r="F940" s="10"/>
+      <c r="G940" s="10"/>
+    </row>
+    <row r="941" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C941" s="10"/>
+      <c r="D941" s="24"/>
+      <c r="E941" s="10"/>
+      <c r="F941" s="10"/>
+      <c r="G941" s="10"/>
+    </row>
+    <row r="942" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C942" s="10"/>
+      <c r="D942" s="24"/>
+      <c r="E942" s="10"/>
+      <c r="F942" s="10"/>
+      <c r="G942" s="10"/>
+    </row>
+    <row r="943" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C943" s="10"/>
+      <c r="D943" s="24"/>
+      <c r="E943" s="10"/>
+      <c r="F943" s="10"/>
+      <c r="G943" s="10"/>
+    </row>
+    <row r="944" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C944" s="10"/>
+      <c r="D944" s="24"/>
+      <c r="E944" s="10"/>
+      <c r="F944" s="10"/>
+      <c r="G944" s="10"/>
+    </row>
+    <row r="945" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C945" s="10"/>
+      <c r="D945" s="24"/>
+      <c r="E945" s="10"/>
+      <c r="F945" s="10"/>
+      <c r="G945" s="10"/>
+    </row>
+    <row r="946" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C946" s="10"/>
+      <c r="D946" s="24"/>
+      <c r="E946" s="10"/>
+      <c r="F946" s="10"/>
+      <c r="G946" s="10"/>
+    </row>
+    <row r="947" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C947" s="10"/>
+      <c r="D947" s="24"/>
+      <c r="E947" s="10"/>
+      <c r="F947" s="10"/>
+      <c r="G947" s="10"/>
+    </row>
+    <row r="948" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C948" s="10"/>
+      <c r="D948" s="24"/>
+      <c r="E948" s="10"/>
+      <c r="F948" s="10"/>
+      <c r="G948" s="10"/>
+    </row>
+    <row r="949" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C949" s="10"/>
+      <c r="D949" s="24"/>
+      <c r="E949" s="10"/>
+      <c r="F949" s="10"/>
+      <c r="G949" s="10"/>
+    </row>
+    <row r="950" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C950" s="10"/>
+      <c r="D950" s="24"/>
+      <c r="E950" s="10"/>
+      <c r="F950" s="10"/>
+      <c r="G950" s="10"/>
+    </row>
+    <row r="951" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C951" s="10"/>
+      <c r="D951" s="24"/>
+      <c r="E951" s="10"/>
+      <c r="F951" s="10"/>
+      <c r="G951" s="10"/>
+    </row>
+    <row r="952" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C952" s="10"/>
+      <c r="D952" s="24"/>
+      <c r="E952" s="10"/>
+      <c r="F952" s="10"/>
+      <c r="G952" s="10"/>
+    </row>
+    <row r="953" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C953" s="10"/>
+      <c r="D953" s="24"/>
+      <c r="E953" s="10"/>
+      <c r="F953" s="10"/>
+      <c r="G953" s="10"/>
+    </row>
+    <row r="954" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C954" s="10"/>
+      <c r="D954" s="24"/>
+      <c r="E954" s="10"/>
+      <c r="F954" s="10"/>
+      <c r="G954" s="10"/>
+    </row>
+    <row r="955" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C955" s="10"/>
+      <c r="D955" s="24"/>
+      <c r="E955" s="10"/>
+      <c r="F955" s="10"/>
+      <c r="G955" s="10"/>
+    </row>
+    <row r="956" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C956" s="10"/>
+      <c r="D956" s="24"/>
+      <c r="E956" s="10"/>
+      <c r="F956" s="10"/>
+      <c r="G956" s="10"/>
+    </row>
+    <row r="957" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C957" s="10"/>
+      <c r="D957" s="24"/>
+      <c r="E957" s="10"/>
+      <c r="F957" s="10"/>
+      <c r="G957" s="10"/>
+    </row>
+    <row r="958" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C958" s="10"/>
+      <c r="D958" s="24"/>
+      <c r="E958" s="10"/>
+      <c r="F958" s="10"/>
+      <c r="G958" s="10"/>
+    </row>
+    <row r="959" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C959" s="10"/>
+      <c r="D959" s="24"/>
+      <c r="E959" s="10"/>
+      <c r="F959" s="10"/>
+      <c r="G959" s="10"/>
+    </row>
+    <row r="960" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C960" s="10"/>
+      <c r="D960" s="24"/>
+      <c r="E960" s="10"/>
+      <c r="F960" s="10"/>
+      <c r="G960" s="10"/>
+    </row>
+    <row r="961" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C961" s="10"/>
+      <c r="D961" s="24"/>
+      <c r="E961" s="10"/>
+      <c r="F961" s="10"/>
+      <c r="G961" s="10"/>
+    </row>
+    <row r="962" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C962" s="10"/>
+      <c r="D962" s="24"/>
+      <c r="E962" s="10"/>
+      <c r="F962" s="10"/>
+      <c r="G962" s="10"/>
+    </row>
+    <row r="963" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C963" s="10"/>
+      <c r="D963" s="24"/>
+      <c r="E963" s="10"/>
+      <c r="F963" s="10"/>
+      <c r="G963" s="10"/>
+    </row>
+    <row r="964" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C964" s="10"/>
+      <c r="D964" s="24"/>
+      <c r="E964" s="10"/>
+      <c r="F964" s="10"/>
+      <c r="G964" s="10"/>
+    </row>
+    <row r="965" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C965" s="10"/>
+      <c r="D965" s="24"/>
+      <c r="E965" s="10"/>
+      <c r="F965" s="10"/>
+      <c r="G965" s="10"/>
+    </row>
+    <row r="966" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C966" s="10"/>
+      <c r="D966" s="24"/>
+      <c r="E966" s="10"/>
+      <c r="F966" s="10"/>
+      <c r="G966" s="10"/>
+    </row>
+    <row r="967" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C967" s="10"/>
+      <c r="D967" s="24"/>
+      <c r="E967" s="10"/>
+      <c r="F967" s="10"/>
+      <c r="G967" s="10"/>
+    </row>
+    <row r="968" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C968" s="10"/>
+      <c r="D968" s="24"/>
+      <c r="E968" s="10"/>
+      <c r="F968" s="10"/>
+      <c r="G968" s="10"/>
+    </row>
+    <row r="969" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C969" s="10"/>
+      <c r="D969" s="24"/>
+      <c r="E969" s="10"/>
+      <c r="F969" s="10"/>
+      <c r="G969" s="10"/>
+    </row>
+    <row r="970" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C970" s="10"/>
+      <c r="D970" s="24"/>
+      <c r="E970" s="10"/>
+      <c r="F970" s="10"/>
+      <c r="G970" s="10"/>
+    </row>
+    <row r="971" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C971" s="10"/>
+      <c r="D971" s="24"/>
+      <c r="E971" s="10"/>
+      <c r="F971" s="10"/>
+      <c r="G971" s="10"/>
+    </row>
+    <row r="972" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C972" s="10"/>
+      <c r="D972" s="24"/>
+      <c r="E972" s="10"/>
+      <c r="F972" s="10"/>
+      <c r="G972" s="10"/>
+    </row>
+    <row r="973" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C973" s="10"/>
+      <c r="D973" s="24"/>
+      <c r="E973" s="10"/>
+      <c r="F973" s="10"/>
+      <c r="G973" s="10"/>
+    </row>
+    <row r="974" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C974" s="10"/>
+      <c r="D974" s="24"/>
+      <c r="E974" s="10"/>
+      <c r="F974" s="10"/>
+      <c r="G974" s="10"/>
+    </row>
+    <row r="975" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C975" s="10"/>
+      <c r="D975" s="24"/>
+      <c r="E975" s="10"/>
+      <c r="F975" s="10"/>
+      <c r="G975" s="10"/>
+    </row>
+    <row r="976" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C976" s="10"/>
+      <c r="D976" s="24"/>
+      <c r="E976" s="10"/>
+      <c r="F976" s="10"/>
+      <c r="G976" s="10"/>
+    </row>
+    <row r="977" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C977" s="10"/>
+      <c r="D977" s="24"/>
+      <c r="E977" s="10"/>
+      <c r="F977" s="10"/>
+      <c r="G977" s="10"/>
+    </row>
+    <row r="978" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C978" s="10"/>
+      <c r="D978" s="24"/>
+      <c r="E978" s="10"/>
+      <c r="F978" s="10"/>
+      <c r="G978" s="10"/>
+    </row>
+    <row r="979" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C979" s="10"/>
+      <c r="D979" s="24"/>
+      <c r="E979" s="10"/>
+      <c r="F979" s="10"/>
+      <c r="G979" s="10"/>
+    </row>
+    <row r="980" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C980" s="10"/>
+      <c r="D980" s="24"/>
+      <c r="E980" s="10"/>
+      <c r="F980" s="10"/>
+      <c r="G980" s="10"/>
+    </row>
+    <row r="981" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C981" s="10"/>
+      <c r="D981" s="24"/>
+      <c r="E981" s="10"/>
+      <c r="F981" s="10"/>
+      <c r="G981" s="10"/>
+    </row>
+    <row r="982" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C982" s="10"/>
+      <c r="D982" s="24"/>
+      <c r="E982" s="10"/>
+      <c r="F982" s="10"/>
+      <c r="G982" s="10"/>
+    </row>
+    <row r="983" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C983" s="10"/>
+      <c r="D983" s="24"/>
+      <c r="E983" s="10"/>
+      <c r="F983" s="10"/>
+      <c r="G983" s="10"/>
+    </row>
+    <row r="984" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C984" s="10"/>
+      <c r="D984" s="24"/>
+      <c r="E984" s="10"/>
+      <c r="F984" s="10"/>
+      <c r="G984" s="10"/>
+    </row>
+    <row r="985" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C985" s="10"/>
+      <c r="D985" s="24"/>
+      <c r="E985" s="10"/>
+      <c r="F985" s="10"/>
+      <c r="G985" s="10"/>
+    </row>
+    <row r="986" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C986" s="10"/>
+      <c r="D986" s="24"/>
+      <c r="E986" s="10"/>
+      <c r="F986" s="10"/>
+      <c r="G986" s="10"/>
+    </row>
+    <row r="987" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C987" s="10"/>
+      <c r="D987" s="24"/>
+      <c r="E987" s="10"/>
+      <c r="F987" s="10"/>
+      <c r="G987" s="10"/>
+    </row>
+    <row r="988" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C988" s="10"/>
+      <c r="D988" s="24"/>
+      <c r="E988" s="10"/>
+      <c r="F988" s="10"/>
+      <c r="G988" s="10"/>
+    </row>
+    <row r="989" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C989" s="10"/>
+      <c r="D989" s="24"/>
+      <c r="E989" s="10"/>
+      <c r="F989" s="10"/>
+      <c r="G989" s="10"/>
+    </row>
+    <row r="990" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C990" s="10"/>
+      <c r="D990" s="24"/>
+      <c r="E990" s="10"/>
+      <c r="F990" s="10"/>
+      <c r="G990" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEED250B-64EB-45C3-AE8E-A8FD024F7888}">
+  <dimension ref="A1:Z990"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.8984375" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="7" width="10.5" customWidth="1"/>
+    <col min="8" max="26" width="8.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="13.8">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="9">
+        <v>45493</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11">
+        <v>45493</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="13">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="1:26" ht="13.8">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="1:26" ht="13.8">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="1:26" ht="13.8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="18">
+        <v>45509</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="15">
+        <v>45509</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" ht="13.8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="15">
+        <v>45517</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="1:26" ht="13.8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="22">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="13.8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="18">
+        <v>45517</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="22">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="13.8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="20">
+        <v>45553</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="22">
+        <v>3</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="13.8">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15">
+        <v>45566</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12" spans="1:26" ht="13.8">
+      <c r="C12" s="23">
+        <v>45553</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <v>45566</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="13.8">
+      <c r="C13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:26" ht="13.8">
+      <c r="C14" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:26" ht="13.8">
+      <c r="C15" s="18">
+        <v>45566</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:26" ht="13.8">
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="3:7" ht="13.8">
+      <c r="C17" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C18" s="10"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C19" s="10"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C20" s="10" cm="1">
+        <f t="array" ref="C20:E29">_xlfn.LET(
+    _xlpm.R, _xleta.FILTER,
+    _xlpm.H, _xleta.HSTACK,
+    _xlpm.F, _xlfn.LAMBDA(_xlpm.i,
+        _xlfn.TEXTSPLIT(_xlfn.CONCAT(_xlfn.CHOOSECOLS(_xlfn.WRAPROWS(C3:C17, 3), _xlpm.H(_xlpm.i, 3)) &amp; ","), , ",", 1)
+    ),
+    _xlpm.b, _xlpm.F(2),
+    _xlpm.H(_xlpm.R(_xlfn.SCAN(0, _xlpm.F(1), _xleta.MAX), --_xlpm.F(1) &lt; 11), _xlpm.R(_xlpm.b, ISERR(-_xlpm.b)), -_xlfn.TOCOL(-_xlpm.b, 2))
+)</f>
+        <v>45493</v>
+      </c>
+      <c r="D20" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="E20" s="10">
+        <v>10</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C21" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D21" s="24" t="str">
+        <v>C</v>
+      </c>
+      <c r="E21" s="10">
+        <v>8</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C22" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D22" s="24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C23" s="10">
+        <v>45509</v>
+      </c>
+      <c r="D23" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C24" s="10">
+        <v>45517</v>
+      </c>
+      <c r="D24" s="24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C25" s="10">
+        <v>45553</v>
+      </c>
+      <c r="D25" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C26" s="10">
+        <v>45553</v>
+      </c>
+      <c r="D26" s="24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C27" s="10">
+        <v>45553</v>
+      </c>
+      <c r="D27" s="24" t="str">
+        <v>C</v>
+      </c>
+      <c r="E27" s="10">
+        <v>3</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C28" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D28" s="24" t="str">
+        <v>A</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C29" s="10">
+        <v>45566</v>
+      </c>
+      <c r="D29" s="24" t="str">
+        <v>B</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C30" s="10"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C31" s="10"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C32" s="10"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C33" s="10"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C34" s="10"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C35" s="10"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C36" s="10"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C37" s="10"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C38" s="10"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C39" s="10"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C40" s="10"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C41" s="10"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C42" s="10"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C43" s="10"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C44" s="10"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C45" s="10"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C46" s="10"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="3:7" ht="15.75" customHeight="1">
+      <c r="C47" s="10"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="3:7" ht="15.75" customHeight="1">
       <c r="C48" s="10"/>
       <c r="D48" s="24"/>
       <c r="E48" s="10"/>
